--- a/Requirements/Testing/Test Cases.xlsx
+++ b/Requirements/Testing/Test Cases.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caeta\Desktop\Documents\Proyectos\TimeAdministrator\TimeAdministrator\Requirements\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38F0758-922E-46D8-88A9-C8DADD16C329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AF4260-9B13-4CA0-98D4-E72B0EA42BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20910" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20910" windowHeight="13740" tabRatio="696" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="10. Modify Label" sheetId="2" r:id="rId1"/>
+    <sheet name="6. Register New Workspace" sheetId="7" r:id="rId1"/>
     <sheet name="8. Filter Labels" sheetId="3" r:id="rId2"/>
     <sheet name="9. Remove Label" sheetId="1" r:id="rId3"/>
-    <sheet name="Others" sheetId="5" r:id="rId4"/>
+    <sheet name="10. Modify Label" sheetId="2" r:id="rId4"/>
+    <sheet name="11. Import Csv" sheetId="6" r:id="rId5"/>
+    <sheet name="Others" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="169">
   <si>
     <t>Id</t>
   </si>
@@ -210,9 +212,6 @@
     <t>2. All records that contains the modified label are has to be affected in the .csv file created with the workspace</t>
   </si>
   <si>
-    <t>12. Make double click in one of the visible activity labels</t>
-  </si>
-  <si>
     <t>13. Agree a few random characters</t>
   </si>
   <si>
@@ -370,13 +369,181 @@
   </si>
   <si>
     <t xml:space="preserve">1. Folder of the project it has to has not .work files, .csv files of the respective .work or last.txt file (No remove .csv tests datasets) </t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>TC11.1</t>
+  </si>
+  <si>
+    <t>1. Workspace created</t>
+  </si>
+  <si>
+    <t>1. Click on "Import" bar menu tab</t>
+  </si>
+  <si>
+    <t>1. Data must to be loaded in main table</t>
+  </si>
+  <si>
+    <t>1. Workspace csv file loaded with csv imported data</t>
+  </si>
+  <si>
+    <t>1. Data loaded correctly in GUI</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Program continues executing after click on window's close button</t>
+  </si>
+  <si>
+    <t>2. Click on "Import from CSV" option</t>
+  </si>
+  <si>
+    <t>2. Data must to be loaded in label tables</t>
+  </si>
+  <si>
+    <t>2. Data loaded correctly in wokrspace csv file</t>
+  </si>
+  <si>
+    <t>3. Click on "Import" button</t>
+  </si>
+  <si>
+    <t>3. Program correctly completely closed after click on window's close button</t>
+  </si>
+  <si>
+    <t>4. Select "Time2 (10).csv" file</t>
+  </si>
+  <si>
+    <t>3. Program continues executing after click on window's close button</t>
+  </si>
+  <si>
+    <t>5. Match each field with it correspondent csv field</t>
+  </si>
+  <si>
+    <t>6. Click on window's close button</t>
+  </si>
+  <si>
+    <t>Import data from csv to a workspace csv and load it in Gui</t>
+  </si>
+  <si>
+    <t>TC6.1</t>
+  </si>
+  <si>
+    <t>Create and register a new workspace</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>1. Program must to stop correctly from window's close button</t>
+  </si>
+  <si>
+    <t>1. ws.csv file in project's directory</t>
+  </si>
+  <si>
+    <t>No bugs</t>
+  </si>
+  <si>
+    <t>2. ws.work file in project's directory</t>
+  </si>
+  <si>
+    <t>3. last.txt file in project's directory</t>
+  </si>
+  <si>
+    <t>4. Write a name "ws" in "Workspace name" field</t>
+  </si>
+  <si>
+    <t>8. Click on window's close button</t>
+  </si>
+  <si>
+    <t>TC6.2</t>
+  </si>
+  <si>
+    <t>Create and register a new workspace with no put name in workspace name box</t>
+  </si>
+  <si>
+    <t>2. Program must to avoids creates a workspace without name through a pop-up window in which warns about that</t>
+  </si>
+  <si>
+    <t>4. Write a name "" in "Workspace name" field</t>
+  </si>
+  <si>
+    <t>3. Program must to avoid create workspace until has a name in wokrspace name entry</t>
+  </si>
+  <si>
+    <t>1. The change it has to appear in all records that have the modified label</t>
+  </si>
+  <si>
+    <t>3. All records that contains the modified label are has to be affected in the .csv file created with the workspace</t>
+  </si>
+  <si>
+    <t>3. Workspace created</t>
+  </si>
+  <si>
+    <t>4. Data imported</t>
+  </si>
+  <si>
+    <t>2. Program correctly stopped after click on window's close button</t>
+  </si>
+  <si>
+    <t>1. Make double click in one of the visible activity labels which has a space in the first position</t>
+  </si>
+  <si>
+    <t>2. Quit spaces in the first position from the label</t>
+  </si>
+  <si>
+    <t>TC10.1</t>
+  </si>
+  <si>
+    <t>Quit space in first position of a activity label in all records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Folder of the project it has to has not .work files .csv files of the respective .work or last.txt file (No remove .csv tests datasets) </t>
+  </si>
+  <si>
+    <t>1. Data loaded in table</t>
+  </si>
+  <si>
+    <t>2. ws.csv file in the directory of the project</t>
+  </si>
+  <si>
+    <t>3. ws.work file in the directory of the project</t>
+  </si>
+  <si>
+    <t>There's no label with a space in first position</t>
+  </si>
+  <si>
+    <t>3. Press Enter</t>
+  </si>
+  <si>
+    <t>4. Click on "Yes" button of the pop-up window</t>
+  </si>
+  <si>
+    <t>5. Click on window's close button</t>
+  </si>
+  <si>
+    <t>1. Make double click in one of the visible activity labels</t>
+  </si>
+  <si>
+    <t>2. Add "TC10.2" string in the selected label</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>1. Program is stopped incorrectly  when click on window's close button</t>
+  </si>
+  <si>
+    <t>Program is stopped incorrectly  when click on window's close button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,8 +558,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +575,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7575"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,43 +844,227 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -694,7 +1075,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7575"/>
       <color rgb="FFFFCC99"/>
+      <color rgb="FF99FF33"/>
     </mruColors>
   </colors>
   <extLst>
@@ -970,1928 +1353,421 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8614EB4E-DBD6-4335-8AC7-592BA2F011D7}">
-  <dimension ref="A1:L114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BB98C2-E7C8-4825-9740-CAB10EFBA8C5}">
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="39"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="44.5703125" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="70.5703125" customWidth="1"/>
+    <col min="8" max="8" width="48.85546875" customWidth="1"/>
+    <col min="9" max="9" width="46.85546875" customWidth="1"/>
+    <col min="10" max="11" width="33.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="30" t="s">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="41">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="35" t="s">
+      <c r="H2" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="41"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="35" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="96"/>
+      <c r="K3" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="35" t="s">
+      <c r="H4" s="45"/>
+      <c r="I4" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="45"/>
+      <c r="K4" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="35" t="s">
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="35" t="s">
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="54">
+        <v>0</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="26" t="s">
+      <c r="E10" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="35" t="s">
+      <c r="H10" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" s="97"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="35" t="s">
+      <c r="H11" s="98"/>
+      <c r="I11" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" s="98"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="35" t="s">
+      <c r="H12" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="57"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="98"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="35" t="s">
+      <c r="H14" s="98"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="35" t="s">
+      <c r="H15" s="98"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-    </row>
-    <row r="27" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="45"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-    </row>
-    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-    </row>
-    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="32"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-    </row>
-    <row r="41" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="32"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-    </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="49"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="16"/>
-      <c r="H47" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="16"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-    </row>
-    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="16"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-    </row>
-    <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-    </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="I59" s="30"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="41"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="41"/>
-      <c r="H63" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="I63" s="31"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="41"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-    </row>
-    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="41"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="41"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="41"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" s="41"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-    </row>
-    <row r="69" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="41"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-    </row>
-    <row r="70" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G70" s="41"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-    </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" s="41"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" s="41"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" s="42"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-    </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B74" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F74" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="I74" s="30"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="41"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E78" s="31"/>
-      <c r="F78" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="41"/>
-      <c r="H78" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="I78" s="31"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="41"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-    </row>
-    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" s="41"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="41"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" s="41"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" s="41"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-    </row>
-    <row r="84" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" s="41"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-    </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="G85" s="41"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="32"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G86" s="41"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" s="41"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G88" s="42"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-    </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B89" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F89" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H89" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="I89" s="14"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="16"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="47"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="16"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="47"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-    </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="32"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="32"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-    </row>
-    <row r="99" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="32"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-    </row>
-    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="32"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="21"/>
-      <c r="K101" s="21"/>
-    </row>
-    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B102" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D102" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F102" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="H102" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="I102" s="14"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="32"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" s="45"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="32"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="32"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="32"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="32"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" s="32"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="32"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" s="32"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-    </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="32"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" s="32"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="32"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" s="32"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="32"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" s="32"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="32"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" s="32"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-    </row>
-    <row r="112" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="32"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" s="32"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-    </row>
-    <row r="113" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="32"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G113" s="32"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="21"/>
-      <c r="K114" s="21"/>
+      <c r="H16" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="G2:G16"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="H102:H104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="G59:G73"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="G74:G88"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="H78:H80"/>
+  <mergeCells count="10">
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="H12:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2959,15 +1835,15 @@
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="102" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="104" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2976,10 +1852,10 @@
       <c r="F2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="104" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="14"/>
@@ -2988,30 +1864,30 @@
     </row>
     <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
-      <c r="B3" s="45"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="41"/>
+      <c r="D3" s="101"/>
       <c r="E3" s="17"/>
       <c r="F3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="41"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="101"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
-      <c r="B4" s="45"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="41"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="17"/>
       <c r="F4" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="41"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="18"/>
@@ -3035,7 +1911,7 @@
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="41"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="17"/>
       <c r="F6" s="27" t="s">
         <v>14</v>
@@ -3050,7 +1926,7 @@
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="41"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="17"/>
       <c r="F7" s="27" t="s">
         <v>15</v>
@@ -3143,7 +2019,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="16"/>
@@ -3168,15 +2044,15 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="102" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="104" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -3185,10 +2061,10 @@
       <c r="F15" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="104" t="s">
         <v>34</v>
       </c>
       <c r="I15" s="14"/>
@@ -3197,37 +2073,37 @@
     </row>
     <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
-      <c r="B16" s="45"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="41"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="16"/>
       <c r="F16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="41"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="101"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
-      <c r="B17" s="45"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="41"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="16"/>
       <c r="F17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="41"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="101"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="16"/>
       <c r="D18" s="6"/>
       <c r="E18" s="16"/>
@@ -3242,9 +2118,9 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="41"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="16"/>
       <c r="F19" s="27" t="s">
         <v>14</v>
@@ -3257,9 +2133,9 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
-      <c r="B20" s="45"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="41"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="16"/>
       <c r="F20" s="27" t="s">
         <v>15</v>
@@ -3352,7 +2228,7 @@
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -3407,15 +2283,15 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>73</v>
+        <v>98</v>
+      </c>
+      <c r="B30" s="102" t="s">
+        <v>72</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="104" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -3424,10 +2300,10 @@
       <c r="F30" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="104" t="s">
         <v>34</v>
       </c>
       <c r="I30" s="14"/>
@@ -3436,30 +2312,30 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
-      <c r="B31" s="45"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="41"/>
+      <c r="D31" s="101"/>
       <c r="E31" s="17"/>
       <c r="F31" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="45"/>
-      <c r="H31" s="41"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="101"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="18"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
-      <c r="B32" s="45"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="16"/>
-      <c r="D32" s="41"/>
+      <c r="D32" s="101"/>
       <c r="E32" s="17"/>
       <c r="F32" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="18"/>
-      <c r="H32" s="41"/>
+      <c r="H32" s="101"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="18"/>
@@ -3483,7 +2359,7 @@
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="41"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="17"/>
       <c r="F34" s="27" t="s">
         <v>14</v>
@@ -3498,7 +2374,7 @@
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="41"/>
+      <c r="D35" s="101"/>
       <c r="E35" s="17"/>
       <c r="F35" s="27" t="s">
         <v>15</v>
@@ -3591,7 +2467,7 @@
       <c r="D41" s="16"/>
       <c r="E41" s="17"/>
       <c r="F41" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="16"/>
@@ -3616,15 +2492,15 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="102" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="104" t="s">
         <v>39</v>
       </c>
       <c r="E43" s="22" t="s">
@@ -3633,10 +2509,10 @@
       <c r="F43" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="44" t="s">
+      <c r="G43" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="40" t="s">
+      <c r="H43" s="104" t="s">
         <v>34</v>
       </c>
       <c r="I43" s="14"/>
@@ -3645,37 +2521,37 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
-      <c r="B44" s="45"/>
+      <c r="B44" s="103"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="41"/>
+      <c r="D44" s="101"/>
       <c r="E44" s="16"/>
       <c r="F44" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="45"/>
-      <c r="H44" s="41"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="101"/>
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
-      <c r="B45" s="45"/>
+      <c r="B45" s="103"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="41"/>
+      <c r="D45" s="101"/>
       <c r="E45" s="16"/>
       <c r="F45" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="45"/>
-      <c r="H45" s="41"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="101"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
-      <c r="B46" s="45"/>
+      <c r="B46" s="103"/>
       <c r="C46" s="16"/>
       <c r="D46" s="23"/>
       <c r="E46" s="16"/>
@@ -3690,9 +2566,9 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
-      <c r="B47" s="45"/>
+      <c r="B47" s="103"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="41"/>
+      <c r="D47" s="101"/>
       <c r="E47" s="16"/>
       <c r="F47" s="27" t="s">
         <v>14</v>
@@ -3705,9 +2581,9 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
-      <c r="B48" s="45"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="16"/>
-      <c r="D48" s="41"/>
+      <c r="D48" s="101"/>
       <c r="E48" s="16"/>
       <c r="F48" s="27" t="s">
         <v>15</v>
@@ -3855,15 +2731,15 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="D58" s="104" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="22" t="s">
@@ -3872,10 +2748,10 @@
       <c r="F58" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="H58" s="40" t="s">
+      <c r="G58" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" s="104" t="s">
         <v>58</v>
       </c>
       <c r="I58" s="14"/>
@@ -3886,13 +2762,13 @@
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
-      <c r="D59" s="41"/>
+      <c r="D59" s="101"/>
       <c r="E59" s="16"/>
       <c r="F59" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="52"/>
-      <c r="H59" s="41"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="101"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
       <c r="K59" s="18"/>
@@ -3901,15 +2777,15 @@
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
-      <c r="D60" s="41"/>
+      <c r="D60" s="101"/>
       <c r="E60" s="16"/>
       <c r="F60" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="H60" s="41"/>
+      <c r="G60" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="H60" s="101"/>
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
       <c r="K60" s="18"/>
@@ -3923,7 +2799,7 @@
       <c r="F61" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="52"/>
+      <c r="G61" s="107"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
@@ -3933,7 +2809,7 @@
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
-      <c r="D62" s="41"/>
+      <c r="D62" s="101"/>
       <c r="E62" s="16"/>
       <c r="F62" s="27" t="s">
         <v>14</v>
@@ -3948,7 +2824,7 @@
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
-      <c r="D63" s="41"/>
+      <c r="D63" s="101"/>
       <c r="E63" s="16"/>
       <c r="F63" s="27" t="s">
         <v>15</v>
@@ -3965,7 +2841,7 @@
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
-      <c r="F64" s="50" t="s">
+      <c r="F64" s="105" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="18"/>
@@ -3980,7 +2856,7 @@
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
-      <c r="F65" s="50"/>
+      <c r="F65" s="105"/>
       <c r="G65" s="18"/>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
@@ -4038,7 +2914,7 @@
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
-      <c r="F69" s="50" t="s">
+      <c r="F69" s="105" t="s">
         <v>19</v>
       </c>
       <c r="G69" s="18"/>
@@ -4053,7 +2929,7 @@
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
-      <c r="F70" s="50"/>
+      <c r="F70" s="105"/>
       <c r="G70" s="18"/>
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
@@ -4066,7 +2942,7 @@
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
-      <c r="F71" s="50"/>
+      <c r="F71" s="105"/>
       <c r="G71" s="18"/>
       <c r="H71" s="16"/>
       <c r="I71" s="16"/>
@@ -4080,7 +2956,7 @@
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G72" s="21"/>
       <c r="H72" s="19"/>
@@ -4090,15 +2966,15 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73" s="44" t="s">
-        <v>82</v>
+        <v>101</v>
+      </c>
+      <c r="B73" s="102" t="s">
+        <v>81</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="40" t="s">
+      <c r="D73" s="104" t="s">
         <v>39</v>
       </c>
       <c r="E73" s="22" t="s">
@@ -4107,10 +2983,10 @@
       <c r="F73" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="H73" s="40" t="s">
+      <c r="G73" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="H73" s="104" t="s">
         <v>58</v>
       </c>
       <c r="I73" s="14"/>
@@ -4119,15 +2995,15 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
-      <c r="B74" s="45"/>
+      <c r="B74" s="103"/>
       <c r="C74" s="16"/>
-      <c r="D74" s="41"/>
+      <c r="D74" s="101"/>
       <c r="E74" s="16"/>
       <c r="F74" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G74" s="45"/>
-      <c r="H74" s="41"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="101"/>
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
       <c r="K74" s="18"/>
@@ -4136,15 +3012,15 @@
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
-      <c r="D75" s="41"/>
+      <c r="D75" s="101"/>
       <c r="E75" s="16"/>
       <c r="F75" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="H75" s="41"/>
+      <c r="G75" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" s="101"/>
       <c r="I75" s="16"/>
       <c r="J75" s="16"/>
       <c r="K75" s="18"/>
@@ -4158,7 +3034,7 @@
       <c r="F76" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G76" s="45"/>
+      <c r="G76" s="103"/>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
@@ -4173,7 +3049,7 @@
       <c r="F77" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="45"/>
+      <c r="G77" s="103"/>
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
@@ -4200,7 +3076,7 @@
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
-      <c r="F79" s="50" t="s">
+      <c r="F79" s="105" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="16"/>
@@ -4215,7 +3091,7 @@
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
-      <c r="F80" s="50"/>
+      <c r="F80" s="105"/>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
       <c r="I80" s="16"/>
@@ -4273,7 +3149,7 @@
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
-      <c r="F84" s="50" t="s">
+      <c r="F84" s="105" t="s">
         <v>19</v>
       </c>
       <c r="G84" s="16"/>
@@ -4288,7 +3164,7 @@
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
-      <c r="F85" s="50"/>
+      <c r="F85" s="105"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
       <c r="I85" s="16"/>
@@ -4301,7 +3177,7 @@
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
-      <c r="F86" s="50"/>
+      <c r="F86" s="105"/>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
       <c r="I86" s="16"/>
@@ -4315,7 +3191,7 @@
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
@@ -4330,7 +3206,7 @@
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
@@ -4340,15 +3216,15 @@
     </row>
     <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D89" s="40" t="s">
+      <c r="D89" s="104" t="s">
         <v>39</v>
       </c>
       <c r="E89" s="22" t="s">
@@ -4357,10 +3233,10 @@
       <c r="F89" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="H89" s="40" t="s">
+      <c r="G89" s="106" t="s">
+        <v>89</v>
+      </c>
+      <c r="H89" s="104" t="s">
         <v>58</v>
       </c>
       <c r="I89" s="14"/>
@@ -4371,13 +3247,13 @@
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
-      <c r="D90" s="41"/>
+      <c r="D90" s="101"/>
       <c r="E90" s="16"/>
       <c r="F90" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G90" s="52"/>
-      <c r="H90" s="41"/>
+      <c r="G90" s="107"/>
+      <c r="H90" s="101"/>
       <c r="I90" s="16"/>
       <c r="J90" s="16"/>
       <c r="K90" s="18"/>
@@ -4386,15 +3262,15 @@
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
-      <c r="D91" s="41"/>
+      <c r="D91" s="101"/>
       <c r="E91" s="16"/>
       <c r="F91" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G91" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="H91" s="41"/>
+      <c r="G91" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="H91" s="101"/>
       <c r="I91" s="16"/>
       <c r="J91" s="16"/>
       <c r="K91" s="18"/>
@@ -4408,7 +3284,7 @@
       <c r="F92" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G92" s="52"/>
+      <c r="G92" s="107"/>
       <c r="H92" s="16"/>
       <c r="I92" s="16"/>
       <c r="J92" s="16"/>
@@ -4418,7 +3294,7 @@
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
-      <c r="D93" s="41"/>
+      <c r="D93" s="101"/>
       <c r="E93" s="16"/>
       <c r="F93" s="27" t="s">
         <v>14</v>
@@ -4433,7 +3309,7 @@
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
-      <c r="D94" s="41"/>
+      <c r="D94" s="101"/>
       <c r="E94" s="16"/>
       <c r="F94" s="27" t="s">
         <v>15</v>
@@ -4450,7 +3326,7 @@
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
-      <c r="F95" s="50" t="s">
+      <c r="F95" s="105" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="18"/>
@@ -4465,7 +3341,7 @@
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
-      <c r="F96" s="50"/>
+      <c r="F96" s="105"/>
       <c r="G96" s="18"/>
       <c r="H96" s="16"/>
       <c r="I96" s="16"/>
@@ -4523,7 +3399,7 @@
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
-      <c r="F100" s="50" t="s">
+      <c r="F100" s="105" t="s">
         <v>19</v>
       </c>
       <c r="G100" s="18"/>
@@ -4538,7 +3414,7 @@
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
-      <c r="F101" s="50"/>
+      <c r="F101" s="105"/>
       <c r="G101" s="18"/>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
@@ -4551,7 +3427,7 @@
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
-      <c r="F102" s="50"/>
+      <c r="F102" s="105"/>
       <c r="G102" s="18"/>
       <c r="H102" s="16"/>
       <c r="I102" s="16"/>
@@ -4565,7 +3441,7 @@
       <c r="D103" s="19"/>
       <c r="E103" s="19"/>
       <c r="F103" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G103" s="21"/>
       <c r="H103" s="19"/>
@@ -4575,15 +3451,15 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" s="44" t="s">
-        <v>88</v>
+        <v>103</v>
+      </c>
+      <c r="B104" s="102" t="s">
+        <v>87</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D104" s="40" t="s">
+      <c r="D104" s="104" t="s">
         <v>39</v>
       </c>
       <c r="E104" s="22" t="s">
@@ -4592,10 +3468,10 @@
       <c r="F104" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G104" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="H104" s="40" t="s">
+      <c r="G104" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="H104" s="104" t="s">
         <v>58</v>
       </c>
       <c r="I104" s="14"/>
@@ -4604,15 +3480,15 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
-      <c r="B105" s="45"/>
+      <c r="B105" s="103"/>
       <c r="C105" s="16"/>
-      <c r="D105" s="41"/>
+      <c r="D105" s="101"/>
       <c r="E105" s="16"/>
       <c r="F105" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G105" s="45"/>
-      <c r="H105" s="41"/>
+      <c r="G105" s="103"/>
+      <c r="H105" s="101"/>
       <c r="I105" s="16"/>
       <c r="J105" s="16"/>
       <c r="K105" s="18"/>
@@ -4621,15 +3497,15 @@
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
-      <c r="D106" s="41"/>
+      <c r="D106" s="101"/>
       <c r="E106" s="16"/>
       <c r="F106" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G106" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="H106" s="41"/>
+      <c r="G106" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="H106" s="101"/>
       <c r="I106" s="16"/>
       <c r="J106" s="16"/>
       <c r="K106" s="18"/>
@@ -4643,7 +3519,7 @@
       <c r="F107" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="45"/>
+      <c r="G107" s="103"/>
       <c r="H107" s="16"/>
       <c r="I107" s="16"/>
       <c r="J107" s="16"/>
@@ -4658,7 +3534,7 @@
       <c r="F108" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G108" s="45"/>
+      <c r="G108" s="103"/>
       <c r="H108" s="16"/>
       <c r="I108" s="16"/>
       <c r="J108" s="16"/>
@@ -4685,7 +3561,7 @@
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
-      <c r="F110" s="50" t="s">
+      <c r="F110" s="105" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="16"/>
@@ -4700,7 +3576,7 @@
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
-      <c r="F111" s="50"/>
+      <c r="F111" s="105"/>
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
@@ -4758,7 +3634,7 @@
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
-      <c r="F115" s="50" t="s">
+      <c r="F115" s="105" t="s">
         <v>19</v>
       </c>
       <c r="G115" s="16"/>
@@ -4773,7 +3649,7 @@
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
-      <c r="F116" s="50"/>
+      <c r="F116" s="105"/>
       <c r="G116" s="16"/>
       <c r="H116" s="16"/>
       <c r="I116" s="16"/>
@@ -4786,7 +3662,7 @@
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
-      <c r="F117" s="50"/>
+      <c r="F117" s="105"/>
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
@@ -4800,7 +3676,7 @@
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
       <c r="F118" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
@@ -4815,7 +3691,7 @@
       <c r="D119" s="19"/>
       <c r="E119" s="19"/>
       <c r="F119" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G119" s="19"/>
       <c r="H119" s="19"/>
@@ -4825,33 +3701,11 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F115:F117"/>
     <mergeCell ref="H73:H75"/>
     <mergeCell ref="F95:F96"/>
     <mergeCell ref="F100:F102"/>
@@ -4868,11 +3722,33 @@
     <mergeCell ref="G75:G77"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F115:F117"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4947,13 +3823,13 @@
       <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="104" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="104" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -4962,10 +3838,10 @@
       <c r="G2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="104" t="s">
         <v>34</v>
       </c>
       <c r="J2" s="2"/>
@@ -4975,15 +3851,15 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="41"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="41"/>
+      <c r="E3" s="101"/>
       <c r="F3" s="5"/>
       <c r="G3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
       <c r="L3" s="5"/>
@@ -4993,13 +3869,13 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="41"/>
+      <c r="E4" s="101"/>
       <c r="F4" s="5"/>
       <c r="G4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="5"/>
       <c r="K4" s="6"/>
       <c r="L4" s="5"/>
@@ -5014,7 +3890,7 @@
       <c r="G5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="41"/>
+      <c r="H5" s="101"/>
       <c r="I5" s="6"/>
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
@@ -5030,8 +3906,8 @@
       <c r="G6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="43" t="s">
+      <c r="H6" s="101"/>
+      <c r="I6" s="108" t="s">
         <v>59</v>
       </c>
       <c r="J6" s="5"/>
@@ -5049,7 +3925,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="43"/>
+      <c r="I7" s="108"/>
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
       <c r="L7" s="5"/>
@@ -5065,7 +3941,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="43"/>
+      <c r="I8" s="108"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="5"/>
@@ -5203,15 +4079,15 @@
         <v>11</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="C17" s="104" t="s">
+        <v>66</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="104" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="22" t="s">
@@ -5220,10 +4096,10 @@
       <c r="G17" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="40" t="s">
+      <c r="H17" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="104" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="22"/>
@@ -5233,15 +4109,15 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="41"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="41"/>
+      <c r="E18" s="101"/>
       <c r="F18" s="23"/>
       <c r="G18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
@@ -5251,13 +4127,13 @@
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
-      <c r="E19" s="41"/>
+      <c r="E19" s="101"/>
       <c r="F19" s="23"/>
       <c r="G19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
@@ -5272,7 +4148,7 @@
       <c r="G20" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="41"/>
+      <c r="H20" s="101"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
@@ -5288,8 +4164,8 @@
       <c r="G21" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="43" t="s">
+      <c r="H21" s="101"/>
+      <c r="I21" s="108" t="s">
         <v>59</v>
       </c>
       <c r="J21" s="23"/>
@@ -5307,7 +4183,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="43"/>
+      <c r="I22" s="108"/>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
@@ -5323,7 +4199,7 @@
         <v>16</v>
       </c>
       <c r="H23" s="23"/>
-      <c r="I23" s="43"/>
+      <c r="I23" s="108"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
@@ -5400,7 +4276,7 @@
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
@@ -5458,16 +4334,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I6:I8"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="H17:H21"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="I21:I23"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="I6:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5475,11 +4351,2311 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8614EB4E-DBD6-4335-8AC7-592BA2F011D7}">
+  <dimension ref="A1:L113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="39"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" customWidth="1"/>
+    <col min="12" max="12" width="41.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="109" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="109"/>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="81"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="84"/>
+      <c r="L3" s="110"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="83"/>
+      <c r="F4" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="110"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="86"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="84"/>
+      <c r="J5" s="111" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="84"/>
+      <c r="L5" s="86"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="83"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="86"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="83"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="86"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="86"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="112" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="118" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="127" t="s">
+        <v>167</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="L9" s="112" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="128"/>
+      <c r="J10" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="66"/>
+      <c r="L10" s="113"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="128"/>
+      <c r="J11" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="66"/>
+      <c r="L11" s="113"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="72"/>
+      <c r="F12" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="119"/>
+      <c r="H12" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="66"/>
+      <c r="J12" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="69"/>
+      <c r="L12" s="114"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="68"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="75"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="72"/>
+      <c r="F14" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="68"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="70"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="72"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="71"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="40"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="40"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="103"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="40"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="32"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="40"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="32"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="40"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="32"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="40"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="32"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="40"/>
+    </row>
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="32"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="40"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="32"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="40"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="32"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="40"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="32"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="32"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="40"/>
+    </row>
+    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="32"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="40"/>
+    </row>
+    <row r="40" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="32"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="40"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="37"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="40"/>
+    </row>
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="120" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="40"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="121"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="40"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="40"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="32"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="40"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="32"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="16"/>
+      <c r="H46" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="40"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="40"/>
+    </row>
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="40"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="40"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="40"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="40"/>
+    </row>
+    <row r="52" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="40"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="32"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="40"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="32"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="40"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="32"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="40"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="32"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="40"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="37"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="40"/>
+    </row>
+    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="30"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="40"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="32"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="101"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="40"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="32"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="101"/>
+      <c r="H60" s="101"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="40"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="101"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="40"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="32"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="31"/>
+      <c r="F62" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="101"/>
+      <c r="H62" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="I62" s="31"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="40"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="32"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="101"/>
+      <c r="H63" s="108"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="40"/>
+    </row>
+    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="32"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="101"/>
+      <c r="H64" s="108"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="40"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="32"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="101"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="40"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="32"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="101"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="40"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="32"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="101"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="40"/>
+    </row>
+    <row r="68" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="32"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="101"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="40"/>
+    </row>
+    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="32"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G69" s="101"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="40"/>
+    </row>
+    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="32"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G70" s="101"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="40"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="32"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="101"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="40"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="37"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" s="124"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="40"/>
+    </row>
+    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" s="30"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="40"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="32"/>
+      <c r="B74" s="101"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="101"/>
+      <c r="H74" s="101"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="40"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="32"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="101"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="101"/>
+      <c r="H75" s="101"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="40"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="32"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="101"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="40"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="32"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="31"/>
+      <c r="F77" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="101"/>
+      <c r="H77" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="I77" s="31"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="40"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="32"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="101"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="101"/>
+      <c r="H78" s="108"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="40"/>
+    </row>
+    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="32"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="101"/>
+      <c r="H79" s="108"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="40"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="32"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="101"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="40"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="32"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="101"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="40"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="32"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" s="101"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="40"/>
+    </row>
+    <row r="83" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="32"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="101"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="40"/>
+    </row>
+    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="32"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G84" s="101"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="40"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="32"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" s="101"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="40"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="32"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="101"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="40"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="37"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" s="124"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="40"/>
+    </row>
+    <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="I88" s="14"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="40"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="32"/>
+      <c r="B89" s="123"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="16"/>
+      <c r="H89" s="101"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="40"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="32"/>
+      <c r="B90" s="123"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="16"/>
+      <c r="H90" s="101"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="40"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="32"/>
+      <c r="B91" s="123"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="40"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="32"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="40"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="32"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="40"/>
+    </row>
+    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="32"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="40"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="32"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="40"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="32"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="40"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="32"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="40"/>
+    </row>
+    <row r="98" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="32"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="40"/>
+    </row>
+    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="32"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="40"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="37"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="40"/>
+    </row>
+    <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="H101" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="I101" s="14"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="40"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="32"/>
+      <c r="B102" s="103"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="101"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="103"/>
+      <c r="H102" s="101"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="40"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="32"/>
+      <c r="B103" s="103"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="101"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="32"/>
+      <c r="H103" s="101"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="40"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="32"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="32"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="40"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="32"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="32"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="40"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="32"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="32"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="40"/>
+    </row>
+    <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="32"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="32"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="40"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="32"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" s="32"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="40"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="32"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="32"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="40"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="32"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" s="32"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="40"/>
+    </row>
+    <row r="111" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="32"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" s="32"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="40"/>
+    </row>
+    <row r="112" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="32"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G112" s="32"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="40"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="37"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="21"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="55">
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="G73:G87"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="H88:H90"/>
+    <mergeCell ref="G58:G72"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="I9:I11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05760916-9E37-49D1-B48B-D94D47CC4A32}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="49.28515625" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="41">
+        <v>0</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="125" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="126"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="45"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="96"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J5:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B04E03A-7463-4C8E-ADAF-9D8D097F56C8}">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5537,23 +6713,23 @@
       <c r="A2" s="14">
         <v>21</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>96</v>
+      <c r="B2" s="102" t="s">
+        <v>95</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="104" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="40" t="s">
+      <c r="G2" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="104" t="s">
         <v>58</v>
       </c>
       <c r="I2" s="14"/>
@@ -5562,30 +6738,30 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
-      <c r="B3" s="45"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="41"/>
+      <c r="D3" s="101"/>
       <c r="E3" s="17"/>
       <c r="F3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="41"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="101"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
-      <c r="B4" s="45"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="41"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="17"/>
       <c r="F4" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="41"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -5610,7 +6786,7 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="27" t="s">
@@ -5643,7 +6819,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="105" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="18"/>
@@ -5658,7 +6834,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="50"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="18"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -5716,7 +6892,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="105" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="18"/>
@@ -5731,7 +6907,7 @@
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="50"/>
+      <c r="F14" s="105"/>
       <c r="G14" s="18"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -5744,7 +6920,7 @@
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="50"/>
+      <c r="F15" s="105"/>
       <c r="G15" s="18"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -5758,7 +6934,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
       <c r="F16" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="16"/>
@@ -5773,7 +6949,7 @@
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
       <c r="F17" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="19"/>

--- a/Requirements/Testing/Test Cases.xlsx
+++ b/Requirements/Testing/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caeta\Desktop\Documents\Proyectos\TimeAdministrator\TimeAdministrator\Requirements\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AF4260-9B13-4CA0-98D4-E72B0EA42BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDA0CC2-819E-4671-AFAF-6B962D620B0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20910" windowHeight="13740" tabRatio="696" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="181">
   <si>
     <t>Id</t>
   </si>
@@ -537,6 +537,42 @@
   </si>
   <si>
     <t>Program is stopped incorrectly  when click on window's close button</t>
+  </si>
+  <si>
+    <t>TC10.10</t>
+  </si>
+  <si>
+    <t>Modify a activity label after load he last workspace used in a previously execution</t>
+  </si>
+  <si>
+    <t>1. Folder of the project it must to has a .work workspace</t>
+  </si>
+  <si>
+    <t>2. Folder of the project it must to has a .csv file with data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Make double click in one of the visible activity labels </t>
+  </si>
+  <si>
+    <t>2. Press Enter</t>
+  </si>
+  <si>
+    <t>3. Press window's close button</t>
+  </si>
+  <si>
+    <t>1. Neither record it has to be changed</t>
+  </si>
+  <si>
+    <t>Descarted</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Don't tested</t>
+  </si>
+  <si>
+    <t>Bug ferreted out</t>
   </si>
 </sst>
 </file>
@@ -565,7 +601,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,13 +628,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7575"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7575"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -885,68 +927,86 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -987,17 +1047,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1007,14 +1067,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1022,37 +1094,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1061,12 +1121,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,8 +1142,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC99"/>
       <color rgb="FFFF7575"/>
-      <color rgb="FFFFCC99"/>
       <color rgb="FF99FF33"/>
     </mruColors>
   </colors>
@@ -1424,13 +1491,13 @@
       <c r="B2" s="41">
         <v>0</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="95" t="s">
         <v>133</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="97" t="s">
         <v>112</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -1439,13 +1506,13 @@
       <c r="G2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="99" t="s">
         <v>135</v>
       </c>
       <c r="I2" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="95" t="s">
+      <c r="J2" s="99" t="s">
         <v>135</v>
       </c>
       <c r="K2" s="44" t="s">
@@ -1459,18 +1526,18 @@
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="92"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="45"/>
-      <c r="E3" s="94"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="46"/>
       <c r="G3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="96"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="J3" s="96"/>
+      <c r="J3" s="100"/>
       <c r="K3" s="48" t="s">
         <v>138</v>
       </c>
@@ -1482,7 +1549,7 @@
       <c r="B4" s="45"/>
       <c r="C4" s="49"/>
       <c r="D4" s="45"/>
-      <c r="E4" s="94"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="46"/>
       <c r="G4" s="47" t="s">
         <v>12</v>
@@ -1503,7 +1570,7 @@
       <c r="B5" s="45"/>
       <c r="C5" s="49"/>
       <c r="D5" s="45"/>
-      <c r="E5" s="94"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="46"/>
       <c r="G5" s="47" t="s">
         <v>140</v>
@@ -1590,13 +1657,13 @@
       <c r="B10" s="54">
         <v>0</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="101" t="s">
         <v>143</v>
       </c>
       <c r="D10" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="103" t="s">
         <v>112</v>
       </c>
       <c r="F10" s="54" t="s">
@@ -1605,13 +1672,13 @@
       <c r="G10" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="97" t="s">
+      <c r="H10" s="101" t="s">
         <v>135</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="J10" s="97"/>
+      <c r="J10" s="101"/>
       <c r="K10" s="56"/>
       <c r="L10" s="54"/>
       <c r="M10" s="54"/>
@@ -1619,18 +1686,18 @@
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
       <c r="B11" s="57"/>
-      <c r="C11" s="98"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="57"/>
-      <c r="E11" s="100"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="57"/>
       <c r="G11" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="98"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="J11" s="98"/>
+      <c r="J11" s="102"/>
       <c r="K11" s="59"/>
       <c r="L11" s="57"/>
       <c r="M11" s="57"/>
@@ -1638,14 +1705,14 @@
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="57"/>
       <c r="B12" s="57"/>
-      <c r="C12" s="98"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="100"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="57"/>
       <c r="G12" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="98" t="s">
+      <c r="H12" s="102" t="s">
         <v>144</v>
       </c>
       <c r="I12" s="59" t="s">
@@ -1661,12 +1728,12 @@
       <c r="B13" s="57"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="100"/>
+      <c r="E13" s="104"/>
       <c r="F13" s="57"/>
       <c r="G13" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="98"/>
+      <c r="H13" s="102"/>
       <c r="I13" s="57"/>
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
@@ -1683,7 +1750,7 @@
       <c r="G14" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="98"/>
+      <c r="H14" s="102"/>
       <c r="I14" s="57"/>
       <c r="J14" s="57"/>
       <c r="K14" s="57"/>
@@ -1700,7 +1767,7 @@
       <c r="G15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="98"/>
+      <c r="H15" s="102"/>
       <c r="I15" s="57"/>
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
@@ -1717,7 +1784,7 @@
       <c r="G16" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="89" t="s">
+      <c r="H16" s="93" t="s">
         <v>146</v>
       </c>
       <c r="I16" s="57"/>
@@ -1734,7 +1801,7 @@
       <c r="E17" s="57"/>
       <c r="F17" s="57"/>
       <c r="G17" s="58"/>
-      <c r="H17" s="89"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="57"/>
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
@@ -1749,7 +1816,7 @@
       <c r="E18" s="60"/>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
-      <c r="H18" s="90"/>
+      <c r="H18" s="94"/>
       <c r="I18" s="60"/>
       <c r="J18" s="60"/>
       <c r="K18" s="60"/>
@@ -1837,13 +1904,13 @@
       <c r="A2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="109" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="106" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1852,10 +1919,10 @@
       <c r="F2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="102" t="s">
+      <c r="G2" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="104" t="s">
+      <c r="H2" s="106" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="14"/>
@@ -1864,30 +1931,30 @@
     </row>
     <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
-      <c r="B3" s="103"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="101"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="17"/>
       <c r="F3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="101"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="105"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
-      <c r="B4" s="103"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="101"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="17"/>
       <c r="F4" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="101"/>
+      <c r="H4" s="105"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="18"/>
@@ -1911,7 +1978,7 @@
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="101"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="17"/>
       <c r="F6" s="27" t="s">
         <v>14</v>
@@ -1926,7 +1993,7 @@
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="101"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="17"/>
       <c r="F7" s="27" t="s">
         <v>15</v>
@@ -2046,13 +2113,13 @@
       <c r="A15" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="109" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="106" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2061,10 +2128,10 @@
       <c r="F15" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="102" t="s">
+      <c r="G15" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="104" t="s">
+      <c r="H15" s="106" t="s">
         <v>34</v>
       </c>
       <c r="I15" s="14"/>
@@ -2073,37 +2140,37 @@
     </row>
     <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
-      <c r="B16" s="103"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="101"/>
+      <c r="D16" s="105"/>
       <c r="E16" s="16"/>
       <c r="F16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="103"/>
-      <c r="H16" s="101"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="105"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
-      <c r="B17" s="103"/>
+      <c r="B17" s="107"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="101"/>
+      <c r="D17" s="105"/>
       <c r="E17" s="16"/>
       <c r="F17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="103"/>
-      <c r="H17" s="101"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="105"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
-      <c r="B18" s="103"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="16"/>
       <c r="D18" s="6"/>
       <c r="E18" s="16"/>
@@ -2118,9 +2185,9 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
-      <c r="B19" s="103"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="101"/>
+      <c r="D19" s="105"/>
       <c r="E19" s="16"/>
       <c r="F19" s="27" t="s">
         <v>14</v>
@@ -2133,9 +2200,9 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
-      <c r="B20" s="103"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="101"/>
+      <c r="D20" s="105"/>
       <c r="E20" s="16"/>
       <c r="F20" s="27" t="s">
         <v>15</v>
@@ -2285,13 +2352,13 @@
       <c r="A30" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="109" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="104" t="s">
+      <c r="D30" s="106" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -2300,10 +2367,10 @@
       <c r="F30" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="102" t="s">
+      <c r="G30" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="104" t="s">
+      <c r="H30" s="106" t="s">
         <v>34</v>
       </c>
       <c r="I30" s="14"/>
@@ -2312,30 +2379,30 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
-      <c r="B31" s="103"/>
+      <c r="B31" s="107"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="101"/>
+      <c r="D31" s="105"/>
       <c r="E31" s="17"/>
       <c r="F31" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="103"/>
-      <c r="H31" s="101"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="105"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="18"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
-      <c r="B32" s="103"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="16"/>
-      <c r="D32" s="101"/>
+      <c r="D32" s="105"/>
       <c r="E32" s="17"/>
       <c r="F32" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="18"/>
-      <c r="H32" s="101"/>
+      <c r="H32" s="105"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="18"/>
@@ -2359,7 +2426,7 @@
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="101"/>
+      <c r="D34" s="105"/>
       <c r="E34" s="17"/>
       <c r="F34" s="27" t="s">
         <v>14</v>
@@ -2374,7 +2441,7 @@
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="101"/>
+      <c r="D35" s="105"/>
       <c r="E35" s="17"/>
       <c r="F35" s="27" t="s">
         <v>15</v>
@@ -2494,13 +2561,13 @@
       <c r="A43" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="102" t="s">
+      <c r="B43" s="109" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="104" t="s">
+      <c r="D43" s="106" t="s">
         <v>39</v>
       </c>
       <c r="E43" s="22" t="s">
@@ -2509,10 +2576,10 @@
       <c r="F43" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="102" t="s">
+      <c r="G43" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="104" t="s">
+      <c r="H43" s="106" t="s">
         <v>34</v>
       </c>
       <c r="I43" s="14"/>
@@ -2521,37 +2588,37 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
-      <c r="B44" s="103"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="101"/>
+      <c r="D44" s="105"/>
       <c r="E44" s="16"/>
       <c r="F44" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="103"/>
-      <c r="H44" s="101"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="105"/>
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
-      <c r="B45" s="103"/>
+      <c r="B45" s="107"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="101"/>
+      <c r="D45" s="105"/>
       <c r="E45" s="16"/>
       <c r="F45" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="103"/>
-      <c r="H45" s="101"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="105"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
-      <c r="B46" s="103"/>
+      <c r="B46" s="107"/>
       <c r="C46" s="16"/>
       <c r="D46" s="23"/>
       <c r="E46" s="16"/>
@@ -2566,9 +2633,9 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
-      <c r="B47" s="103"/>
+      <c r="B47" s="107"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="101"/>
+      <c r="D47" s="105"/>
       <c r="E47" s="16"/>
       <c r="F47" s="27" t="s">
         <v>14</v>
@@ -2581,9 +2648,9 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
-      <c r="B48" s="103"/>
+      <c r="B48" s="107"/>
       <c r="C48" s="16"/>
-      <c r="D48" s="101"/>
+      <c r="D48" s="105"/>
       <c r="E48" s="16"/>
       <c r="F48" s="27" t="s">
         <v>15</v>
@@ -2739,7 +2806,7 @@
       <c r="C58" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="104" t="s">
+      <c r="D58" s="106" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="22" t="s">
@@ -2748,10 +2815,10 @@
       <c r="F58" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="106" t="s">
+      <c r="G58" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="H58" s="104" t="s">
+      <c r="H58" s="106" t="s">
         <v>58</v>
       </c>
       <c r="I58" s="14"/>
@@ -2762,13 +2829,13 @@
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
-      <c r="D59" s="101"/>
+      <c r="D59" s="105"/>
       <c r="E59" s="16"/>
       <c r="F59" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="107"/>
-      <c r="H59" s="101"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="105"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
       <c r="K59" s="18"/>
@@ -2777,15 +2844,15 @@
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
-      <c r="D60" s="101"/>
+      <c r="D60" s="105"/>
       <c r="E60" s="16"/>
       <c r="F60" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="107" t="s">
+      <c r="G60" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="H60" s="101"/>
+      <c r="H60" s="105"/>
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
       <c r="K60" s="18"/>
@@ -2799,7 +2866,7 @@
       <c r="F61" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="107"/>
+      <c r="G61" s="111"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
@@ -2809,7 +2876,7 @@
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
-      <c r="D62" s="101"/>
+      <c r="D62" s="105"/>
       <c r="E62" s="16"/>
       <c r="F62" s="27" t="s">
         <v>14</v>
@@ -2824,7 +2891,7 @@
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
-      <c r="D63" s="101"/>
+      <c r="D63" s="105"/>
       <c r="E63" s="16"/>
       <c r="F63" s="27" t="s">
         <v>15</v>
@@ -2841,7 +2908,7 @@
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
-      <c r="F64" s="105" t="s">
+      <c r="F64" s="108" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="18"/>
@@ -2856,7 +2923,7 @@
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
-      <c r="F65" s="105"/>
+      <c r="F65" s="108"/>
       <c r="G65" s="18"/>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
@@ -2914,7 +2981,7 @@
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
-      <c r="F69" s="105" t="s">
+      <c r="F69" s="108" t="s">
         <v>19</v>
       </c>
       <c r="G69" s="18"/>
@@ -2929,7 +2996,7 @@
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
-      <c r="F70" s="105"/>
+      <c r="F70" s="108"/>
       <c r="G70" s="18"/>
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
@@ -2942,7 +3009,7 @@
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
-      <c r="F71" s="105"/>
+      <c r="F71" s="108"/>
       <c r="G71" s="18"/>
       <c r="H71" s="16"/>
       <c r="I71" s="16"/>
@@ -2968,13 +3035,13 @@
       <c r="A73" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="102" t="s">
+      <c r="B73" s="109" t="s">
         <v>81</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="104" t="s">
+      <c r="D73" s="106" t="s">
         <v>39</v>
       </c>
       <c r="E73" s="22" t="s">
@@ -2983,10 +3050,10 @@
       <c r="F73" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="102" t="s">
+      <c r="G73" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="H73" s="104" t="s">
+      <c r="H73" s="106" t="s">
         <v>58</v>
       </c>
       <c r="I73" s="14"/>
@@ -2995,15 +3062,15 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
-      <c r="B74" s="103"/>
+      <c r="B74" s="107"/>
       <c r="C74" s="16"/>
-      <c r="D74" s="101"/>
+      <c r="D74" s="105"/>
       <c r="E74" s="16"/>
       <c r="F74" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G74" s="103"/>
-      <c r="H74" s="101"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="105"/>
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
       <c r="K74" s="18"/>
@@ -3012,15 +3079,15 @@
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
-      <c r="D75" s="101"/>
+      <c r="D75" s="105"/>
       <c r="E75" s="16"/>
       <c r="F75" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="103" t="s">
+      <c r="G75" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="H75" s="101"/>
+      <c r="H75" s="105"/>
       <c r="I75" s="16"/>
       <c r="J75" s="16"/>
       <c r="K75" s="18"/>
@@ -3034,7 +3101,7 @@
       <c r="F76" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G76" s="103"/>
+      <c r="G76" s="107"/>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
@@ -3049,7 +3116,7 @@
       <c r="F77" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="103"/>
+      <c r="G77" s="107"/>
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
@@ -3076,7 +3143,7 @@
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
-      <c r="F79" s="105" t="s">
+      <c r="F79" s="108" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="16"/>
@@ -3091,7 +3158,7 @@
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
-      <c r="F80" s="105"/>
+      <c r="F80" s="108"/>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
       <c r="I80" s="16"/>
@@ -3149,7 +3216,7 @@
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
-      <c r="F84" s="105" t="s">
+      <c r="F84" s="108" t="s">
         <v>19</v>
       </c>
       <c r="G84" s="16"/>
@@ -3164,7 +3231,7 @@
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
-      <c r="F85" s="105"/>
+      <c r="F85" s="108"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
       <c r="I85" s="16"/>
@@ -3177,7 +3244,7 @@
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
-      <c r="F86" s="105"/>
+      <c r="F86" s="108"/>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
       <c r="I86" s="16"/>
@@ -3224,7 +3291,7 @@
       <c r="C89" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D89" s="104" t="s">
+      <c r="D89" s="106" t="s">
         <v>39</v>
       </c>
       <c r="E89" s="22" t="s">
@@ -3233,10 +3300,10 @@
       <c r="F89" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="106" t="s">
+      <c r="G89" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="H89" s="104" t="s">
+      <c r="H89" s="106" t="s">
         <v>58</v>
       </c>
       <c r="I89" s="14"/>
@@ -3247,13 +3314,13 @@
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
-      <c r="D90" s="101"/>
+      <c r="D90" s="105"/>
       <c r="E90" s="16"/>
       <c r="F90" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G90" s="107"/>
-      <c r="H90" s="101"/>
+      <c r="G90" s="111"/>
+      <c r="H90" s="105"/>
       <c r="I90" s="16"/>
       <c r="J90" s="16"/>
       <c r="K90" s="18"/>
@@ -3262,15 +3329,15 @@
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
-      <c r="D91" s="101"/>
+      <c r="D91" s="105"/>
       <c r="E91" s="16"/>
       <c r="F91" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G91" s="107" t="s">
+      <c r="G91" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="H91" s="101"/>
+      <c r="H91" s="105"/>
       <c r="I91" s="16"/>
       <c r="J91" s="16"/>
       <c r="K91" s="18"/>
@@ -3284,7 +3351,7 @@
       <c r="F92" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G92" s="107"/>
+      <c r="G92" s="111"/>
       <c r="H92" s="16"/>
       <c r="I92" s="16"/>
       <c r="J92" s="16"/>
@@ -3294,7 +3361,7 @@
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
-      <c r="D93" s="101"/>
+      <c r="D93" s="105"/>
       <c r="E93" s="16"/>
       <c r="F93" s="27" t="s">
         <v>14</v>
@@ -3309,7 +3376,7 @@
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
-      <c r="D94" s="101"/>
+      <c r="D94" s="105"/>
       <c r="E94" s="16"/>
       <c r="F94" s="27" t="s">
         <v>15</v>
@@ -3326,7 +3393,7 @@
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
-      <c r="F95" s="105" t="s">
+      <c r="F95" s="108" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="18"/>
@@ -3341,7 +3408,7 @@
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
-      <c r="F96" s="105"/>
+      <c r="F96" s="108"/>
       <c r="G96" s="18"/>
       <c r="H96" s="16"/>
       <c r="I96" s="16"/>
@@ -3399,7 +3466,7 @@
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
-      <c r="F100" s="105" t="s">
+      <c r="F100" s="108" t="s">
         <v>19</v>
       </c>
       <c r="G100" s="18"/>
@@ -3414,7 +3481,7 @@
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
-      <c r="F101" s="105"/>
+      <c r="F101" s="108"/>
       <c r="G101" s="18"/>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
@@ -3427,7 +3494,7 @@
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
-      <c r="F102" s="105"/>
+      <c r="F102" s="108"/>
       <c r="G102" s="18"/>
       <c r="H102" s="16"/>
       <c r="I102" s="16"/>
@@ -3453,13 +3520,13 @@
       <c r="A104" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="102" t="s">
+      <c r="B104" s="109" t="s">
         <v>87</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D104" s="104" t="s">
+      <c r="D104" s="106" t="s">
         <v>39</v>
       </c>
       <c r="E104" s="22" t="s">
@@ -3468,10 +3535,10 @@
       <c r="F104" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G104" s="102" t="s">
+      <c r="G104" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="H104" s="104" t="s">
+      <c r="H104" s="106" t="s">
         <v>58</v>
       </c>
       <c r="I104" s="14"/>
@@ -3480,15 +3547,15 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
-      <c r="B105" s="103"/>
+      <c r="B105" s="107"/>
       <c r="C105" s="16"/>
-      <c r="D105" s="101"/>
+      <c r="D105" s="105"/>
       <c r="E105" s="16"/>
       <c r="F105" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G105" s="103"/>
-      <c r="H105" s="101"/>
+      <c r="G105" s="107"/>
+      <c r="H105" s="105"/>
       <c r="I105" s="16"/>
       <c r="J105" s="16"/>
       <c r="K105" s="18"/>
@@ -3497,15 +3564,15 @@
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
-      <c r="D106" s="101"/>
+      <c r="D106" s="105"/>
       <c r="E106" s="16"/>
       <c r="F106" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G106" s="103" t="s">
+      <c r="G106" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="H106" s="101"/>
+      <c r="H106" s="105"/>
       <c r="I106" s="16"/>
       <c r="J106" s="16"/>
       <c r="K106" s="18"/>
@@ -3519,7 +3586,7 @@
       <c r="F107" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="103"/>
+      <c r="G107" s="107"/>
       <c r="H107" s="16"/>
       <c r="I107" s="16"/>
       <c r="J107" s="16"/>
@@ -3534,7 +3601,7 @@
       <c r="F108" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G108" s="103"/>
+      <c r="G108" s="107"/>
       <c r="H108" s="16"/>
       <c r="I108" s="16"/>
       <c r="J108" s="16"/>
@@ -3561,7 +3628,7 @@
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
-      <c r="F110" s="105" t="s">
+      <c r="F110" s="108" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="16"/>
@@ -3576,7 +3643,7 @@
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
-      <c r="F111" s="105"/>
+      <c r="F111" s="108"/>
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
@@ -3634,7 +3701,7 @@
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
-      <c r="F115" s="105" t="s">
+      <c r="F115" s="108" t="s">
         <v>19</v>
       </c>
       <c r="G115" s="16"/>
@@ -3649,7 +3716,7 @@
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
-      <c r="F116" s="105"/>
+      <c r="F116" s="108"/>
       <c r="G116" s="16"/>
       <c r="H116" s="16"/>
       <c r="I116" s="16"/>
@@ -3662,7 +3729,7 @@
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
-      <c r="F117" s="105"/>
+      <c r="F117" s="108"/>
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
@@ -3701,11 +3768,33 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F115:F117"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G60:G61"/>
     <mergeCell ref="H73:H75"/>
     <mergeCell ref="F95:F96"/>
     <mergeCell ref="F100:F102"/>
@@ -3722,33 +3811,11 @@
     <mergeCell ref="G75:G77"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F115:F117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3823,13 +3890,13 @@
       <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="106" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="106" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -3838,10 +3905,10 @@
       <c r="G2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="104" t="s">
+      <c r="H2" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="106" t="s">
         <v>34</v>
       </c>
       <c r="J2" s="2"/>
@@ -3851,15 +3918,15 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="101"/>
+      <c r="C3" s="105"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="101"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="5"/>
       <c r="G3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
       <c r="L3" s="5"/>
@@ -3869,13 +3936,13 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="101"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="5"/>
       <c r="G4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
       <c r="J4" s="5"/>
       <c r="K4" s="6"/>
       <c r="L4" s="5"/>
@@ -3890,7 +3957,7 @@
       <c r="G5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="101"/>
+      <c r="H5" s="105"/>
       <c r="I5" s="6"/>
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
@@ -3906,8 +3973,8 @@
       <c r="G6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="101"/>
-      <c r="I6" s="108" t="s">
+      <c r="H6" s="105"/>
+      <c r="I6" s="112" t="s">
         <v>59</v>
       </c>
       <c r="J6" s="5"/>
@@ -3925,7 +3992,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="108"/>
+      <c r="I7" s="112"/>
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
       <c r="L7" s="5"/>
@@ -3941,7 +4008,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="108"/>
+      <c r="I8" s="112"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="5"/>
@@ -4081,13 +4148,13 @@
       <c r="B17" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="106" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="E17" s="106" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="22" t="s">
@@ -4096,10 +4163,10 @@
       <c r="G17" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="104" t="s">
+      <c r="H17" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="104" t="s">
+      <c r="I17" s="106" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="22"/>
@@ -4109,15 +4176,15 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="101"/>
+      <c r="C18" s="105"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="101"/>
+      <c r="E18" s="105"/>
       <c r="F18" s="23"/>
       <c r="G18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
@@ -4127,13 +4194,13 @@
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
-      <c r="E19" s="101"/>
+      <c r="E19" s="105"/>
       <c r="F19" s="23"/>
       <c r="G19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
@@ -4148,7 +4215,7 @@
       <c r="G20" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="101"/>
+      <c r="H20" s="105"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
@@ -4164,8 +4231,8 @@
       <c r="G21" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="101"/>
-      <c r="I21" s="108" t="s">
+      <c r="H21" s="105"/>
+      <c r="I21" s="112" t="s">
         <v>59</v>
       </c>
       <c r="J21" s="23"/>
@@ -4183,7 +4250,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="108"/>
+      <c r="I22" s="112"/>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
@@ -4199,7 +4266,7 @@
         <v>16</v>
       </c>
       <c r="H23" s="23"/>
-      <c r="I23" s="108"/>
+      <c r="I23" s="112"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
@@ -4334,16 +4401,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I21:I23"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="H2:H6"/>
     <mergeCell ref="I6:I8"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I21:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4352,10 +4419,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8614EB4E-DBD6-4335-8AC7-592BA2F011D7}">
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4370,9 +4437,10 @@
     <col min="9" max="9" width="31.140625" customWidth="1"/>
     <col min="10" max="10" width="34.42578125" customWidth="1"/>
     <col min="12" max="12" width="41.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -4388,7 +4456,7 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -4410,335 +4478,353 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+    <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="115" t="s">
+      <c r="G2" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="120" t="s">
         <v>160</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="109"/>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110" t="s">
+      <c r="L2" s="120"/>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="84"/>
-      <c r="L3" s="110"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="110" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="121"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="85" t="s">
+      <c r="E4" s="70"/>
+      <c r="F4" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="111" t="s">
+      <c r="G4" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="86"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="85" t="s">
+      <c r="H4" s="121"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="73"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111" t="s">
+      <c r="G5" s="124"/>
+      <c r="H5" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="111" t="s">
+      <c r="I5" s="71"/>
+      <c r="J5" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="84"/>
-      <c r="L5" s="86"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="82" t="s">
+      <c r="K5" s="71"/>
+      <c r="L5" s="73"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="86"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="82" t="s">
+      <c r="G6" s="70"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="73"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="86"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="86"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="G7" s="70"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="73"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="73"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="112" t="s">
+      <c r="D9" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="112" t="s">
+      <c r="F9" s="97" t="s">
         <v>164</v>
       </c>
       <c r="G9" s="118" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="I9" s="127" t="s">
+      <c r="I9" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="64" t="s">
+      <c r="K9" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="L9" s="112" t="s">
+      <c r="L9" s="97" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="113"/>
+    <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="83"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="119"/>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="I10" s="128"/>
-      <c r="J10" s="66" t="s">
+      <c r="I10" s="100"/>
+      <c r="J10" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="K10" s="66"/>
-      <c r="L10" s="113"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="66" t="s">
+      <c r="K10" s="81"/>
+      <c r="L10" s="98"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="83"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="81" t="s">
         <v>165</v>
       </c>
       <c r="G11" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="128"/>
-      <c r="J11" s="66" t="s">
+      <c r="I11" s="100"/>
+      <c r="J11" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="66"/>
-      <c r="L11" s="113"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="113" t="s">
+      <c r="K11" s="81"/>
+      <c r="L11" s="98"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="83"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="66" t="s">
+      <c r="E12" s="89"/>
+      <c r="F12" s="81" t="s">
         <v>161</v>
       </c>
       <c r="G12" s="119"/>
-      <c r="H12" s="113" t="s">
+      <c r="H12" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="113" t="s">
+      <c r="I12" s="81"/>
+      <c r="J12" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="K12" s="69"/>
-      <c r="L12" s="114"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="66" t="s">
+      <c r="K12" s="90"/>
+      <c r="L12" s="126"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="83"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="75"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66" t="s">
+      <c r="G13" s="91"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="41"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="83"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="74" t="s">
+      <c r="E14" s="89"/>
+      <c r="F14" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="70"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66" t="s">
+      <c r="G14" s="91"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="83"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="71"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="89"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="50"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="109" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="106" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>10</v>
+      <c r="F16" s="131" t="s">
+        <v>173</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="104" t="s">
-        <v>34</v>
+        <v>176</v>
+      </c>
+      <c r="H16" s="87" t="s">
+        <v>136</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
-      <c r="B17" s="103"/>
+      <c r="B17" s="107"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="101"/>
+      <c r="D17" s="105"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="101"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="85" t="s">
+        <v>138</v>
+      </c>
       <c r="I17" s="16"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
@@ -4746,15 +4832,17 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
-      <c r="B18" s="103"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="101"/>
+      <c r="D18" s="105"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="101"/>
+      <c r="F18" s="133" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="105"/>
+      <c r="H18" s="85" t="s">
+        <v>139</v>
+      </c>
       <c r="I18" s="16"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
@@ -4762,14 +4850,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
-      <c r="B19" s="103"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="D19" s="105" t="s">
+        <v>40</v>
+      </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="16"/>
+      <c r="F19" s="133" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" s="86"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="18"/>
@@ -4780,11 +4870,9 @@
       <c r="A20" s="32"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="D20" s="105"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="35" t="s">
-        <v>14</v>
-      </c>
+      <c r="F20" s="35"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
@@ -4796,11 +4884,11 @@
       <c r="A21" s="32"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="D21" s="85" t="s">
+        <v>149</v>
+      </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="35" t="s">
-        <v>15</v>
-      </c>
+      <c r="F21" s="35"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
@@ -4808,15 +4896,15 @@
       <c r="K21" s="18"/>
       <c r="L21" s="16"/>
     </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="D22" s="85" t="s">
+        <v>150</v>
+      </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="35" t="s">
-        <v>16</v>
-      </c>
+      <c r="F22" s="35"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -4824,143 +4912,143 @@
       <c r="K22" s="18"/>
       <c r="L22" s="16"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="16"/>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="40"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
-      <c r="B24" s="16"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="D24" s="105"/>
       <c r="E24" s="17"/>
       <c r="F24" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="G24" s="107"/>
+      <c r="H24" s="105"/>
       <c r="I24" s="16"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="16"/>
+      <c r="L24" s="40"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
-      <c r="B25" s="16"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="D25" s="105"/>
       <c r="E25" s="17"/>
       <c r="F25" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+        <v>12</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="105"/>
       <c r="I25" s="16"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
-      <c r="L25" s="16"/>
-    </row>
-    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="L25" s="40"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
       <c r="F26" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="G26" s="32"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
-      <c r="L26" s="16"/>
-    </row>
-    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L26" s="40"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="16"/>
+      <c r="F27" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="32"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
-      <c r="L27" s="16"/>
+      <c r="L27" s="40"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="40"/>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="104" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="104" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
       <c r="L29" s="40"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
-      <c r="B30" s="103"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="101"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="17"/>
       <c r="F30" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="103"/>
-      <c r="H30" s="101"/>
+        <v>17</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
@@ -4968,15 +5056,15 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
-      <c r="B31" s="103"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="101"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="17"/>
       <c r="F31" s="35" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G31" s="32"/>
-      <c r="H31" s="101"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
@@ -4989,7 +5077,7 @@
       <c r="D32" s="16"/>
       <c r="E32" s="17"/>
       <c r="F32" s="35" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="16"/>
@@ -4998,14 +5086,14 @@
       <c r="K32" s="18"/>
       <c r="L32" s="40"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
       <c r="F33" s="35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G33" s="32"/>
       <c r="H33" s="16"/>
@@ -5014,14 +5102,14 @@
       <c r="K33" s="18"/>
       <c r="L33" s="40"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="35" t="s">
-        <v>15</v>
+      <c r="F34" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="G34" s="32"/>
       <c r="H34" s="16"/>
@@ -5030,159 +5118,163 @@
       <c r="K34" s="18"/>
       <c r="L34" s="40"/>
     </row>
-    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
       <c r="L35" s="40"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
       <c r="L36" s="40"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
-      <c r="B37" s="16"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="G37" s="117"/>
+      <c r="H37" s="105"/>
       <c r="I37" s="16"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
       <c r="L37" s="40"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="18"/>
       <c r="F38" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="16"/>
+        <v>12</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="105"/>
       <c r="I38" s="16"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
       <c r="L38" s="40"/>
     </row>
-    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="18"/>
       <c r="F39" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="32"/>
+        <v>13</v>
+      </c>
+      <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
       <c r="L39" s="40"/>
     </row>
-    <row r="40" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="32"/>
-      <c r="H40" s="16"/>
+      <c r="D40" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="107" t="s">
+        <v>59</v>
+      </c>
       <c r="I40" s="16"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
       <c r="L40" s="40"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
       <c r="L41" s="40"/>
     </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="120" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="104" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="H42" s="104" t="s">
-        <v>58</v>
-      </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
       <c r="L42" s="40"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
-      <c r="B43" s="121"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="101"/>
+      <c r="D43" s="16"/>
       <c r="E43" s="18"/>
       <c r="F43" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="121"/>
-      <c r="H43" s="101"/>
+        <v>17</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
@@ -5192,13 +5284,13 @@
       <c r="A44" s="32"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="101"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="18"/>
       <c r="F44" s="35" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G44" s="16"/>
-      <c r="H44" s="101"/>
+      <c r="H44" s="16"/>
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
@@ -5208,10 +5300,10 @@
       <c r="A45" s="32"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="31"/>
+      <c r="D45" s="16"/>
       <c r="E45" s="18"/>
       <c r="F45" s="35" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
@@ -5220,21 +5312,17 @@
       <c r="K45" s="16"/>
       <c r="L45" s="40"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
-      <c r="D46" s="101" t="s">
-        <v>40</v>
-      </c>
+      <c r="D46" s="16"/>
       <c r="E46" s="18"/>
       <c r="F46" s="35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G46" s="16"/>
-      <c r="H46" s="103" t="s">
-        <v>59</v>
-      </c>
+      <c r="H46" s="16"/>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
@@ -5244,29 +5332,29 @@
       <c r="A47" s="32"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="101"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="18"/>
-      <c r="F47" s="35" t="s">
-        <v>15</v>
+      <c r="F47" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="G47" s="16"/>
-      <c r="H47" s="103"/>
+      <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
       <c r="L47" s="40"/>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="32"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="35" t="s">
-        <v>16</v>
+      <c r="F48" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="G48" s="16"/>
-      <c r="H48" s="103"/>
+      <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
       <c r="K48" s="16"/>
@@ -5278,8 +5366,8 @@
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="18"/>
-      <c r="F49" s="35" t="s">
-        <v>17</v>
+      <c r="F49" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
@@ -5294,8 +5382,8 @@
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="18"/>
-      <c r="F50" s="35" t="s">
-        <v>18</v>
+      <c r="F50" s="28" t="s">
+        <v>54</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
@@ -5305,158 +5393,162 @@
       <c r="L50" s="40"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
       <c r="L51" s="40"/>
     </row>
-    <row r="52" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
+    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" s="30"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
       <c r="L52" s="40"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
       <c r="L53" s="40"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
       <c r="L54" s="40"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="105"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
       <c r="L55" s="40"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="32"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="31"/>
+      <c r="F56" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="105"/>
+      <c r="H56" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="I56" s="31"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
       <c r="L56" s="40"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="105"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
       <c r="L57" s="40"/>
     </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" s="104" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="104" t="s">
-        <v>112</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="I58" s="30"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
+    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="32"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="105"/>
+      <c r="H58" s="112"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
       <c r="L58" s="40"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
-      <c r="B59" s="101"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="31"/>
-      <c r="D59" s="101"/>
+      <c r="D59" s="31"/>
       <c r="E59" s="31"/>
       <c r="F59" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="101"/>
-      <c r="H59" s="101"/>
+        <v>17</v>
+      </c>
+      <c r="G59" s="105"/>
+      <c r="H59" s="31"/>
       <c r="I59" s="31"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
@@ -5466,13 +5558,13 @@
       <c r="A60" s="32"/>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
-      <c r="D60" s="101"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="31"/>
       <c r="F60" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="101"/>
-      <c r="H60" s="101"/>
+        <v>18</v>
+      </c>
+      <c r="G60" s="105"/>
+      <c r="H60" s="31"/>
       <c r="I60" s="31"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -5485,46 +5577,42 @@
       <c r="D61" s="31"/>
       <c r="E61" s="31"/>
       <c r="F61" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="101"/>
+        <v>21</v>
+      </c>
+      <c r="G61" s="105"/>
       <c r="H61" s="31"/>
       <c r="I61" s="31"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="40"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
-      <c r="D62" s="101" t="s">
-        <v>40</v>
-      </c>
+      <c r="D62" s="31"/>
       <c r="E62" s="31"/>
       <c r="F62" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="101"/>
-      <c r="H62" s="108" t="s">
-        <v>59</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G62" s="105"/>
+      <c r="H62" s="31"/>
       <c r="I62" s="31"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="40"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
       <c r="B63" s="31"/>
       <c r="C63" s="31"/>
-      <c r="D63" s="101"/>
+      <c r="D63" s="31"/>
       <c r="E63" s="31"/>
-      <c r="F63" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="101"/>
-      <c r="H63" s="108"/>
+      <c r="F63" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" s="105"/>
+      <c r="H63" s="31"/>
       <c r="I63" s="31"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -5536,11 +5624,11 @@
       <c r="C64" s="31"/>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
-      <c r="F64" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="101"/>
-      <c r="H64" s="108"/>
+      <c r="F64" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" s="105"/>
+      <c r="H64" s="31"/>
       <c r="I64" s="31"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -5552,10 +5640,10 @@
       <c r="C65" s="31"/>
       <c r="D65" s="31"/>
       <c r="E65" s="31"/>
-      <c r="F65" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" s="101"/>
+      <c r="F65" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="105"/>
       <c r="H65" s="31"/>
       <c r="I65" s="31"/>
       <c r="J65" s="7"/>
@@ -5563,79 +5651,93 @@
       <c r="L65" s="40"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="101"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="113"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
       <c r="L66" s="40"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" s="101"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
+    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="30"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
       <c r="L67" s="40"/>
     </row>
-    <row r="68" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
-      <c r="B68" s="31"/>
+      <c r="B68" s="105"/>
       <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
+      <c r="D68" s="105"/>
       <c r="E68" s="31"/>
       <c r="F68" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="101"/>
-      <c r="H68" s="31"/>
+        <v>11</v>
+      </c>
+      <c r="G68" s="105"/>
+      <c r="H68" s="105"/>
       <c r="I68" s="31"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="40"/>
     </row>
-    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
       <c r="B69" s="31"/>
       <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
+      <c r="D69" s="105"/>
       <c r="E69" s="31"/>
-      <c r="F69" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G69" s="101"/>
-      <c r="H69" s="31"/>
+      <c r="F69" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
       <c r="I69" s="31"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="40"/>
     </row>
-    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
       <c r="B70" s="31"/>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
       <c r="E70" s="31"/>
-      <c r="F70" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G70" s="101"/>
+      <c r="F70" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="105"/>
       <c r="H70" s="31"/>
       <c r="I70" s="31"/>
       <c r="J70" s="7"/>
@@ -5646,75 +5748,65 @@
       <c r="A71" s="32"/>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
+      <c r="D71" s="105" t="s">
+        <v>40</v>
+      </c>
       <c r="E71" s="31"/>
-      <c r="F71" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="101"/>
-      <c r="H71" s="31"/>
+      <c r="F71" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="105"/>
+      <c r="H71" s="112" t="s">
+        <v>59</v>
+      </c>
       <c r="I71" s="31"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="40"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G72" s="124"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="105"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="105"/>
+      <c r="H72" s="112"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
       <c r="L72" s="40"/>
     </row>
-    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B73" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="104" t="s">
-        <v>112</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F73" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="104" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="I73" s="30"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
+    <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="32"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="105"/>
+      <c r="H73" s="112"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
       <c r="L73" s="40"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="32"/>
-      <c r="B74" s="101"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="31"/>
-      <c r="D74" s="101"/>
+      <c r="D74" s="31"/>
       <c r="E74" s="31"/>
       <c r="F74" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="101"/>
-      <c r="H74" s="101"/>
+        <v>17</v>
+      </c>
+      <c r="G74" s="105"/>
+      <c r="H74" s="31"/>
       <c r="I74" s="31"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -5724,13 +5816,13 @@
       <c r="A75" s="32"/>
       <c r="B75" s="31"/>
       <c r="C75" s="31"/>
-      <c r="D75" s="101"/>
+      <c r="D75" s="31"/>
       <c r="E75" s="31"/>
       <c r="F75" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="101"/>
-      <c r="H75" s="101"/>
+        <v>18</v>
+      </c>
+      <c r="G75" s="105"/>
+      <c r="H75" s="31"/>
       <c r="I75" s="31"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
@@ -5743,62 +5835,58 @@
       <c r="D76" s="31"/>
       <c r="E76" s="31"/>
       <c r="F76" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="101"/>
+        <v>21</v>
+      </c>
+      <c r="G76" s="105"/>
       <c r="H76" s="31"/>
       <c r="I76" s="31"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="40"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
       <c r="B77" s="31"/>
       <c r="C77" s="31"/>
-      <c r="D77" s="101" t="s">
-        <v>40</v>
-      </c>
+      <c r="D77" s="31"/>
       <c r="E77" s="31"/>
       <c r="F77" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="101"/>
-      <c r="H77" s="108" t="s">
-        <v>59</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G77" s="105"/>
+      <c r="H77" s="31"/>
       <c r="I77" s="31"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="40"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
-      <c r="D78" s="101"/>
+      <c r="D78" s="31"/>
       <c r="E78" s="31"/>
-      <c r="F78" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="101"/>
-      <c r="H78" s="108"/>
+      <c r="F78" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G78" s="105"/>
+      <c r="H78" s="31"/>
       <c r="I78" s="31"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="40"/>
     </row>
-    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31"/>
       <c r="D79" s="31"/>
       <c r="E79" s="31"/>
-      <c r="F79" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="101"/>
-      <c r="H79" s="108"/>
+      <c r="F79" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G79" s="105"/>
+      <c r="H79" s="31"/>
       <c r="I79" s="31"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
@@ -5810,10 +5898,10 @@
       <c r="C80" s="31"/>
       <c r="D80" s="31"/>
       <c r="E80" s="31"/>
-      <c r="F80" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" s="101"/>
+      <c r="F80" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="105"/>
       <c r="H80" s="31"/>
       <c r="I80" s="31"/>
       <c r="J80" s="7"/>
@@ -5821,158 +5909,158 @@
       <c r="L80" s="40"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" s="101"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="113"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
       <c r="L81" s="40"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" s="101"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
+    <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="I82" s="14"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
       <c r="L82" s="40"/>
     </row>
-    <row r="83" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="105"/>
+      <c r="E83" s="17"/>
       <c r="F83" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" s="101"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="G83" s="16"/>
+      <c r="H83" s="105"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
       <c r="L83" s="40"/>
     </row>
-    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G84" s="101"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="105"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="16"/>
+      <c r="H84" s="105"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
       <c r="L84" s="40"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="32"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G85" s="101"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
+      <c r="B85" s="115"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
       <c r="L85" s="40"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="32"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="101"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
       <c r="L86" s="40"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G87" s="124"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
       <c r="L87" s="40"/>
     </row>
-    <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B88" s="122" t="s">
-        <v>70</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D88" s="104" t="s">
-        <v>112</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F88" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H88" s="104" t="s">
-        <v>34</v>
-      </c>
-      <c r="I88" s="14"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
+    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="32"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
       <c r="L88" s="40"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
-      <c r="B89" s="123"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="16"/>
-      <c r="D89" s="101"/>
+      <c r="D89" s="16"/>
       <c r="E89" s="17"/>
       <c r="F89" s="35" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G89" s="16"/>
-      <c r="H89" s="101"/>
+      <c r="H89" s="16"/>
       <c r="I89" s="16"/>
       <c r="J89" s="18"/>
       <c r="K89" s="18"/>
@@ -5980,15 +6068,15 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="32"/>
-      <c r="B90" s="123"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="16"/>
-      <c r="D90" s="101"/>
+      <c r="D90" s="16"/>
       <c r="E90" s="17"/>
       <c r="F90" s="35" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G90" s="16"/>
-      <c r="H90" s="101"/>
+      <c r="H90" s="16"/>
       <c r="I90" s="16"/>
       <c r="J90" s="18"/>
       <c r="K90" s="18"/>
@@ -5996,12 +6084,12 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
-      <c r="B91" s="123"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="17"/>
       <c r="F91" s="35" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
@@ -6010,14 +6098,14 @@
       <c r="K91" s="18"/>
       <c r="L91" s="40"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="17"/>
       <c r="F92" s="35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
@@ -6026,14 +6114,14 @@
       <c r="K92" s="18"/>
       <c r="L92" s="40"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="17"/>
-      <c r="F93" s="35" t="s">
-        <v>15</v>
+      <c r="F93" s="31" t="s">
+        <v>63</v>
       </c>
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
@@ -6042,49 +6130,63 @@
       <c r="K93" s="18"/>
       <c r="L93" s="40"/>
     </row>
-    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="37"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
       <c r="L94" s="40"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
+    <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="H95" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" s="14"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
       <c r="L95" s="40"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="32"/>
-      <c r="B96" s="16"/>
+      <c r="B96" s="107"/>
       <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
+      <c r="D96" s="105"/>
       <c r="E96" s="17"/>
       <c r="F96" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="G96" s="107"/>
+      <c r="H96" s="105"/>
       <c r="I96" s="16"/>
       <c r="J96" s="18"/>
       <c r="K96" s="18"/>
@@ -6092,46 +6194,46 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="32"/>
-      <c r="B97" s="16"/>
+      <c r="B97" s="107"/>
       <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
+      <c r="D97" s="105"/>
       <c r="E97" s="17"/>
       <c r="F97" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
+        <v>12</v>
+      </c>
+      <c r="G97" s="32"/>
+      <c r="H97" s="105"/>
       <c r="I97" s="16"/>
       <c r="J97" s="18"/>
       <c r="K97" s="18"/>
       <c r="L97" s="40"/>
     </row>
-    <row r="98" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="32"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
       <c r="E98" s="17"/>
       <c r="F98" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="G98" s="32"/>
       <c r="H98" s="16"/>
       <c r="I98" s="16"/>
       <c r="J98" s="18"/>
       <c r="K98" s="18"/>
       <c r="L98" s="40"/>
     </row>
-    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="32"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="17"/>
-      <c r="F99" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G99" s="16"/>
+      <c r="F99" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="32"/>
       <c r="H99" s="16"/>
       <c r="I99" s="16"/>
       <c r="J99" s="18"/>
@@ -6139,62 +6241,48 @@
       <c r="L99" s="40"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="21"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="32"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
       <c r="L100" s="40"/>
     </row>
-    <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B101" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D101" s="104" t="s">
-        <v>112</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F101" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="H101" s="104" t="s">
-        <v>34</v>
-      </c>
-      <c r="I101" s="14"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
+    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="32"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="32"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
       <c r="L101" s="40"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="32"/>
-      <c r="B102" s="103"/>
+      <c r="B102" s="16"/>
       <c r="C102" s="16"/>
-      <c r="D102" s="101"/>
+      <c r="D102" s="16"/>
       <c r="E102" s="17"/>
       <c r="F102" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="103"/>
-      <c r="H102" s="101"/>
+        <v>17</v>
+      </c>
+      <c r="G102" s="32"/>
+      <c r="H102" s="16"/>
       <c r="I102" s="16"/>
       <c r="J102" s="18"/>
       <c r="K102" s="18"/>
@@ -6202,15 +6290,15 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="32"/>
-      <c r="B103" s="103"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="16"/>
-      <c r="D103" s="101"/>
+      <c r="D103" s="16"/>
       <c r="E103" s="17"/>
       <c r="F103" s="35" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G103" s="32"/>
-      <c r="H103" s="101"/>
+      <c r="H103" s="16"/>
       <c r="I103" s="16"/>
       <c r="J103" s="18"/>
       <c r="K103" s="18"/>
@@ -6223,7 +6311,7 @@
       <c r="D104" s="16"/>
       <c r="E104" s="17"/>
       <c r="F104" s="35" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G104" s="32"/>
       <c r="H104" s="16"/>
@@ -6232,14 +6320,14 @@
       <c r="K104" s="18"/>
       <c r="L104" s="40"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="32"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="E105" s="17"/>
       <c r="F105" s="35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G105" s="32"/>
       <c r="H105" s="16"/>
@@ -6248,14 +6336,14 @@
       <c r="K105" s="18"/>
       <c r="L105" s="40"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="32"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
       <c r="E106" s="17"/>
-      <c r="F106" s="35" t="s">
-        <v>15</v>
+      <c r="F106" s="31" t="s">
+        <v>63</v>
       </c>
       <c r="G106" s="32"/>
       <c r="H106" s="16"/>
@@ -6264,101 +6352,123 @@
       <c r="K106" s="18"/>
       <c r="L106" s="40"/>
     </row>
-    <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="32"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" s="32"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="40"/>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="37"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="62"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="32"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" s="32"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="40"/>
+      <c r="A108" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="B108" s="109" t="s">
+        <v>170</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="E108" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="G108" s="127" t="s">
+        <v>147</v>
+      </c>
+      <c r="H108" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="I108" s="14"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="15"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="32"/>
-      <c r="B109" s="16"/>
+      <c r="A109" s="78"/>
+      <c r="B109" s="107"/>
       <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
+      <c r="D109" s="107"/>
       <c r="E109" s="17"/>
-      <c r="F109" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" s="32"/>
-      <c r="H109" s="16"/>
+      <c r="F109" s="105"/>
+      <c r="G109" s="128"/>
+      <c r="H109" s="76" t="s">
+        <v>138</v>
+      </c>
       <c r="I109" s="16"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="40"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="18"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="32"/>
-      <c r="B110" s="16"/>
+      <c r="A110" s="78"/>
+      <c r="B110" s="107"/>
       <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
+      <c r="D110" s="107" t="s">
+        <v>172</v>
+      </c>
       <c r="E110" s="17"/>
-      <c r="F110" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" s="32"/>
-      <c r="H110" s="16"/>
+      <c r="F110" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="G110" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="H110" s="76" t="s">
+        <v>139</v>
+      </c>
       <c r="I110" s="16"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="40"/>
-    </row>
-    <row r="111" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="32"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="18"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="78"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
+      <c r="D111" s="107"/>
       <c r="E111" s="17"/>
-      <c r="F111" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" s="32"/>
-      <c r="H111" s="16"/>
+      <c r="F111" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="G111" s="128"/>
+      <c r="H111" s="105" t="s">
+        <v>148</v>
+      </c>
       <c r="I111" s="16"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="40"/>
-    </row>
-    <row r="112" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="32"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="18"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="78"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="17"/>
-      <c r="F112" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G112" s="32"/>
-      <c r="H112" s="16"/>
+      <c r="F112" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="G112" s="17"/>
+      <c r="H112" s="105"/>
       <c r="I112" s="16"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="40"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="18"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="37"/>
@@ -6366,55 +6476,30 @@
       <c r="C113" s="19"/>
       <c r="D113" s="19"/>
       <c r="E113" s="20"/>
-      <c r="F113" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
+      <c r="F113" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="G113" s="20"/>
+      <c r="H113" s="113"/>
       <c r="I113" s="19"/>
-      <c r="J113" s="21"/>
-      <c r="K113" s="21"/>
-      <c r="L113" s="62"/>
+      <c r="J113" s="20"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="G73:G87"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="H88:H90"/>
-    <mergeCell ref="G58:G72"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H12:H14"/>
+  <mergeCells count="64">
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="I9:I11"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="G2:G3"/>
@@ -6428,11 +6513,45 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="G52:G66"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="G67:G81"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="H71:H73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6512,7 +6631,7 @@
       <c r="B2" s="41">
         <v>0</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="99" t="s">
         <v>131</v>
       </c>
       <c r="D2" s="41" t="s">
@@ -6530,7 +6649,7 @@
       <c r="H2" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="99" t="s">
         <v>118</v>
       </c>
       <c r="J2" s="41" t="s">
@@ -6540,14 +6659,14 @@
       <c r="L2" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="125" t="s">
+      <c r="M2" s="129" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
-      <c r="C3" s="96"/>
+      <c r="C3" s="100"/>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
       <c r="F3" s="45"/>
@@ -6557,13 +6676,13 @@
       <c r="H3" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96" t="s">
+      <c r="I3" s="100"/>
+      <c r="J3" s="100" t="s">
         <v>124</v>
       </c>
       <c r="K3" s="45"/>
       <c r="L3" s="45"/>
-      <c r="M3" s="126"/>
+      <c r="M3" s="130"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
@@ -6575,11 +6694,11 @@
       <c r="G4" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="100" t="s">
         <v>126</v>
       </c>
       <c r="I4" s="45"/>
-      <c r="J4" s="96"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="45"/>
       <c r="L4" s="45"/>
       <c r="M4" s="45"/>
@@ -6594,9 +6713,9 @@
       <c r="G5" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="96"/>
+      <c r="H5" s="100"/>
       <c r="I5" s="45"/>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="100" t="s">
         <v>128</v>
       </c>
       <c r="K5" s="45"/>
@@ -6615,7 +6734,7 @@
       </c>
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
-      <c r="J6" s="96"/>
+      <c r="J6" s="100"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
       <c r="M6" s="45"/>
@@ -6713,23 +6832,23 @@
       <c r="A2" s="14">
         <v>21</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="109" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="106" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="102" t="s">
+      <c r="G2" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="104" t="s">
+      <c r="H2" s="106" t="s">
         <v>58</v>
       </c>
       <c r="I2" s="14"/>
@@ -6738,30 +6857,30 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
-      <c r="B3" s="103"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="101"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="17"/>
       <c r="F3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="101"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="105"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
-      <c r="B4" s="103"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="101"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="17"/>
       <c r="F4" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="101"/>
+      <c r="H4" s="105"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -6819,7 +6938,7 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="105" t="s">
+      <c r="F8" s="108" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="18"/>
@@ -6834,7 +6953,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="105"/>
+      <c r="F9" s="108"/>
       <c r="G9" s="18"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -6892,7 +7011,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="108" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="18"/>
@@ -6907,7 +7026,7 @@
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="105"/>
+      <c r="F14" s="108"/>
       <c r="G14" s="18"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -6920,7 +7039,7 @@
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="105"/>
+      <c r="F15" s="108"/>
       <c r="G15" s="18"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>

--- a/Requirements/Testing/Test Cases.xlsx
+++ b/Requirements/Testing/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caeta\Desktop\Documents\Proyectos\TimeAdministrator\TimeAdministrator\Requirements\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0352CA-3139-4C78-81CF-8324D8028AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7799BA1-9436-4639-ADB9-04F6C3D9CF75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20910" windowHeight="13740" tabRatio="696" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="236">
   <si>
     <t>Id</t>
   </si>
@@ -700,6 +700,45 @@
   </si>
   <si>
     <t>2. Add "TC10.11" string in the selected label</t>
+  </si>
+  <si>
+    <t>TC10.12</t>
+  </si>
+  <si>
+    <t>2. Data imported</t>
+  </si>
+  <si>
+    <t>1. Make double click on the activity label "Work"</t>
+  </si>
+  <si>
+    <t>2. Delete the string selected</t>
+  </si>
+  <si>
+    <t>TC10.13</t>
+  </si>
+  <si>
+    <t>Delete a label which removes a record</t>
+  </si>
+  <si>
+    <t>Delete a label which don't removes a record</t>
+  </si>
+  <si>
+    <t>Example data (13 records).csv</t>
+  </si>
+  <si>
+    <t>1. All records that contains only the label deleted must to be removed</t>
+  </si>
+  <si>
+    <t>1. Make double click on the "Cook" activity label</t>
+  </si>
+  <si>
+    <t>1. The label must to be deleted from all records which contains it</t>
+  </si>
+  <si>
+    <t>1. The records that contains the selected label are removed</t>
+  </si>
+  <si>
+    <t>1. The label is removed without delete the record</t>
   </si>
 </sst>
 </file>
@@ -929,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1180,152 +1219,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1335,25 +1230,172 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1365,9 +1407,9 @@
   <colors>
     <mruColors>
       <color rgb="FF99FF33"/>
+      <color rgb="FFFF7575"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFFFFF00"/>
-      <color rgb="FFFF7575"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1714,13 +1756,13 @@
       <c r="B2" s="32">
         <v>0</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="127" t="s">
         <v>122</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="129" t="s">
         <v>101</v>
       </c>
       <c r="F2" s="33" t="s">
@@ -1729,13 +1771,13 @@
       <c r="G2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="131" t="s">
         <v>124</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="122" t="s">
+      <c r="J2" s="131" t="s">
         <v>124</v>
       </c>
       <c r="K2" s="35" t="s">
@@ -1749,18 +1791,18 @@
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
-      <c r="C3" s="119"/>
+      <c r="C3" s="128"/>
       <c r="D3" s="36"/>
-      <c r="E3" s="121"/>
+      <c r="E3" s="130"/>
       <c r="F3" s="37"/>
       <c r="G3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="123"/>
+      <c r="H3" s="132"/>
       <c r="I3" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="123"/>
+      <c r="J3" s="132"/>
       <c r="K3" s="39" t="s">
         <v>127</v>
       </c>
@@ -1772,7 +1814,7 @@
       <c r="B4" s="36"/>
       <c r="C4" s="40"/>
       <c r="D4" s="36"/>
-      <c r="E4" s="121"/>
+      <c r="E4" s="130"/>
       <c r="F4" s="37"/>
       <c r="G4" s="38" t="s">
         <v>12</v>
@@ -1793,7 +1835,7 @@
       <c r="B5" s="36"/>
       <c r="C5" s="40"/>
       <c r="D5" s="36"/>
-      <c r="E5" s="121"/>
+      <c r="E5" s="130"/>
       <c r="F5" s="37"/>
       <c r="G5" s="38" t="s">
         <v>129</v>
@@ -1880,13 +1922,13 @@
       <c r="B10" s="45">
         <v>0</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="133" t="s">
         <v>132</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="126" t="s">
+      <c r="E10" s="135" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="45" t="s">
@@ -1895,13 +1937,13 @@
       <c r="G10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="124" t="s">
+      <c r="H10" s="133" t="s">
         <v>124</v>
       </c>
       <c r="I10" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="J10" s="124"/>
+      <c r="J10" s="133"/>
       <c r="K10" s="47"/>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
@@ -1909,18 +1951,18 @@
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
-      <c r="C11" s="125"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="48"/>
-      <c r="E11" s="127"/>
+      <c r="E11" s="136"/>
       <c r="F11" s="48"/>
       <c r="G11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="125"/>
+      <c r="H11" s="134"/>
       <c r="I11" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="125"/>
+      <c r="J11" s="134"/>
       <c r="K11" s="50"/>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
@@ -1928,14 +1970,14 @@
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="48"/>
-      <c r="C12" s="125"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="48"/>
-      <c r="E12" s="127"/>
+      <c r="E12" s="136"/>
       <c r="F12" s="48"/>
       <c r="G12" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="125" t="s">
+      <c r="H12" s="134" t="s">
         <v>133</v>
       </c>
       <c r="I12" s="50" t="s">
@@ -1951,12 +1993,12 @@
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
-      <c r="E13" s="127"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="48"/>
       <c r="G13" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="125"/>
+      <c r="H13" s="134"/>
       <c r="I13" s="48"/>
       <c r="J13" s="48"/>
       <c r="K13" s="48"/>
@@ -1973,7 +2015,7 @@
       <c r="G14" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="125"/>
+      <c r="H14" s="134"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
@@ -1990,7 +2032,7 @@
       <c r="G15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="125"/>
+      <c r="H15" s="134"/>
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
       <c r="K15" s="48"/>
@@ -2007,7 +2049,7 @@
       <c r="G16" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="116" t="s">
+      <c r="H16" s="125" t="s">
         <v>135</v>
       </c>
       <c r="I16" s="48"/>
@@ -2024,7 +2066,7 @@
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
       <c r="G17" s="49"/>
-      <c r="H17" s="116"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
       <c r="K17" s="48"/>
@@ -2039,7 +2081,7 @@
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
-      <c r="H18" s="117"/>
+      <c r="H18" s="126"/>
       <c r="I18" s="51"/>
       <c r="J18" s="51"/>
       <c r="K18" s="51"/>
@@ -2127,13 +2169,13 @@
       <c r="A2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="141" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="138" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2142,10 +2184,10 @@
       <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="132" t="s">
+      <c r="G2" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="138" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="12"/>
@@ -2154,30 +2196,30 @@
     </row>
     <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="130"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="128"/>
+      <c r="D3" s="137"/>
       <c r="E3" s="15"/>
       <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="130"/>
-      <c r="H3" s="128"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="137"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="B4" s="130"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="128"/>
+      <c r="D4" s="137"/>
       <c r="E4" s="15"/>
       <c r="F4" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="128"/>
+      <c r="H4" s="137"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="16"/>
@@ -2201,7 +2243,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="128"/>
+      <c r="D6" s="137"/>
       <c r="E6" s="15"/>
       <c r="F6" s="25" t="s">
         <v>14</v>
@@ -2216,7 +2258,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="128"/>
+      <c r="D7" s="137"/>
       <c r="E7" s="15"/>
       <c r="F7" s="25" t="s">
         <v>15</v>
@@ -2336,13 +2378,13 @@
       <c r="A15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="141" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="129" t="s">
+      <c r="D15" s="138" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2351,10 +2393,10 @@
       <c r="F15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="132" t="s">
+      <c r="G15" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="129" t="s">
+      <c r="H15" s="138" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="12"/>
@@ -2363,37 +2405,37 @@
     </row>
     <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="130"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="128"/>
+      <c r="D16" s="137"/>
       <c r="E16" s="14"/>
       <c r="F16" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="128"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="137"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="130"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="128"/>
+      <c r="D17" s="137"/>
       <c r="E17" s="14"/>
       <c r="F17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="128"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="137"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="130"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="14"/>
       <c r="D18" s="6"/>
       <c r="E18" s="14"/>
@@ -2408,9 +2450,9 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="130"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="128"/>
+      <c r="D19" s="137"/>
       <c r="E19" s="14"/>
       <c r="F19" s="25" t="s">
         <v>14</v>
@@ -2423,9 +2465,9 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="130"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="128"/>
+      <c r="D20" s="137"/>
       <c r="E20" s="14"/>
       <c r="F20" s="25" t="s">
         <v>15</v>
@@ -2575,13 +2617,13 @@
       <c r="A30" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="132" t="s">
+      <c r="B30" s="141" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="129" t="s">
+      <c r="D30" s="138" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -2590,10 +2632,10 @@
       <c r="F30" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="132" t="s">
+      <c r="G30" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="129" t="s">
+      <c r="H30" s="138" t="s">
         <v>33</v>
       </c>
       <c r="I30" s="12"/>
@@ -2602,30 +2644,30 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
-      <c r="B31" s="130"/>
+      <c r="B31" s="139"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="128"/>
+      <c r="D31" s="137"/>
       <c r="E31" s="15"/>
       <c r="F31" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="130"/>
-      <c r="H31" s="128"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="137"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="130"/>
+      <c r="B32" s="139"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="128"/>
+      <c r="D32" s="137"/>
       <c r="E32" s="15"/>
       <c r="F32" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="16"/>
-      <c r="H32" s="128"/>
+      <c r="H32" s="137"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="16"/>
@@ -2649,7 +2691,7 @@
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="128"/>
+      <c r="D34" s="137"/>
       <c r="E34" s="15"/>
       <c r="F34" s="25" t="s">
         <v>14</v>
@@ -2664,7 +2706,7 @@
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="128"/>
+      <c r="D35" s="137"/>
       <c r="E35" s="15"/>
       <c r="F35" s="25" t="s">
         <v>15</v>
@@ -2784,13 +2826,13 @@
       <c r="A43" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="132" t="s">
+      <c r="B43" s="141" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="129" t="s">
+      <c r="D43" s="138" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="20" t="s">
@@ -2799,10 +2841,10 @@
       <c r="F43" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="132" t="s">
+      <c r="G43" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="129" t="s">
+      <c r="H43" s="138" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="12"/>
@@ -2811,37 +2853,37 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
-      <c r="B44" s="130"/>
+      <c r="B44" s="139"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="128"/>
+      <c r="D44" s="137"/>
       <c r="E44" s="14"/>
       <c r="F44" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="130"/>
-      <c r="H44" s="128"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="137"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
-      <c r="B45" s="130"/>
+      <c r="B45" s="139"/>
       <c r="C45" s="14"/>
-      <c r="D45" s="128"/>
+      <c r="D45" s="137"/>
       <c r="E45" s="14"/>
       <c r="F45" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="130"/>
-      <c r="H45" s="128"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="137"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
-      <c r="B46" s="130"/>
+      <c r="B46" s="139"/>
       <c r="C46" s="14"/>
       <c r="D46" s="21"/>
       <c r="E46" s="14"/>
@@ -2856,9 +2898,9 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
-      <c r="B47" s="130"/>
+      <c r="B47" s="139"/>
       <c r="C47" s="14"/>
-      <c r="D47" s="128"/>
+      <c r="D47" s="137"/>
       <c r="E47" s="14"/>
       <c r="F47" s="25" t="s">
         <v>14</v>
@@ -2871,9 +2913,9 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
-      <c r="B48" s="130"/>
+      <c r="B48" s="139"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="128"/>
+      <c r="D48" s="137"/>
       <c r="E48" s="14"/>
       <c r="F48" s="25" t="s">
         <v>15</v>
@@ -3029,7 +3071,7 @@
       <c r="C58" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="129" t="s">
+      <c r="D58" s="138" t="s">
         <v>36</v>
       </c>
       <c r="E58" s="20" t="s">
@@ -3038,10 +3080,10 @@
       <c r="F58" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="133" t="s">
+      <c r="G58" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="H58" s="129" t="s">
+      <c r="H58" s="138" t="s">
         <v>51</v>
       </c>
       <c r="I58" s="12"/>
@@ -3052,13 +3094,13 @@
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
-      <c r="D59" s="128"/>
+      <c r="D59" s="137"/>
       <c r="E59" s="14"/>
       <c r="F59" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="134"/>
-      <c r="H59" s="128"/>
+      <c r="G59" s="143"/>
+      <c r="H59" s="137"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
       <c r="K59" s="16"/>
@@ -3067,15 +3109,15 @@
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="128"/>
+      <c r="D60" s="137"/>
       <c r="E60" s="14"/>
       <c r="F60" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="134" t="s">
+      <c r="G60" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="H60" s="128"/>
+      <c r="H60" s="137"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
       <c r="K60" s="16"/>
@@ -3089,7 +3131,7 @@
       <c r="F61" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="134"/>
+      <c r="G61" s="143"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
@@ -3099,7 +3141,7 @@
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="128"/>
+      <c r="D62" s="137"/>
       <c r="E62" s="14"/>
       <c r="F62" s="25" t="s">
         <v>14</v>
@@ -3114,7 +3156,7 @@
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="128"/>
+      <c r="D63" s="137"/>
       <c r="E63" s="14"/>
       <c r="F63" s="25" t="s">
         <v>15</v>
@@ -3131,7 +3173,7 @@
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
-      <c r="F64" s="131" t="s">
+      <c r="F64" s="140" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="16"/>
@@ -3146,7 +3188,7 @@
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
-      <c r="F65" s="131"/>
+      <c r="F65" s="140"/>
       <c r="G65" s="16"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
@@ -3204,7 +3246,7 @@
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
-      <c r="F69" s="131" t="s">
+      <c r="F69" s="140" t="s">
         <v>19</v>
       </c>
       <c r="G69" s="16"/>
@@ -3219,7 +3261,7 @@
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
-      <c r="F70" s="131"/>
+      <c r="F70" s="140"/>
       <c r="G70" s="16"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
@@ -3232,7 +3274,7 @@
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
-      <c r="F71" s="131"/>
+      <c r="F71" s="140"/>
       <c r="G71" s="16"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
@@ -3258,13 +3300,13 @@
       <c r="A73" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B73" s="132" t="s">
+      <c r="B73" s="141" t="s">
         <v>70</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="129" t="s">
+      <c r="D73" s="138" t="s">
         <v>36</v>
       </c>
       <c r="E73" s="20" t="s">
@@ -3273,10 +3315,10 @@
       <c r="F73" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="132" t="s">
+      <c r="G73" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="H73" s="129" t="s">
+      <c r="H73" s="138" t="s">
         <v>51</v>
       </c>
       <c r="I73" s="12"/>
@@ -3285,15 +3327,15 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
-      <c r="B74" s="130"/>
+      <c r="B74" s="139"/>
       <c r="C74" s="14"/>
-      <c r="D74" s="128"/>
+      <c r="D74" s="137"/>
       <c r="E74" s="14"/>
       <c r="F74" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G74" s="130"/>
-      <c r="H74" s="128"/>
+      <c r="G74" s="139"/>
+      <c r="H74" s="137"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
       <c r="K74" s="16"/>
@@ -3302,15 +3344,15 @@
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
-      <c r="D75" s="128"/>
+      <c r="D75" s="137"/>
       <c r="E75" s="14"/>
       <c r="F75" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="130" t="s">
+      <c r="G75" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="H75" s="128"/>
+      <c r="H75" s="137"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
       <c r="K75" s="16"/>
@@ -3324,7 +3366,7 @@
       <c r="F76" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G76" s="130"/>
+      <c r="G76" s="139"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
@@ -3339,7 +3381,7 @@
       <c r="F77" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="130"/>
+      <c r="G77" s="139"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
@@ -3366,7 +3408,7 @@
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
-      <c r="F79" s="131" t="s">
+      <c r="F79" s="140" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="14"/>
@@ -3381,7 +3423,7 @@
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
-      <c r="F80" s="131"/>
+      <c r="F80" s="140"/>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
@@ -3439,7 +3481,7 @@
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
-      <c r="F84" s="131" t="s">
+      <c r="F84" s="140" t="s">
         <v>19</v>
       </c>
       <c r="G84" s="14"/>
@@ -3454,7 +3496,7 @@
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
-      <c r="F85" s="131"/>
+      <c r="F85" s="140"/>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
@@ -3467,7 +3509,7 @@
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
-      <c r="F86" s="131"/>
+      <c r="F86" s="140"/>
       <c r="G86" s="14"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
@@ -3514,7 +3556,7 @@
       <c r="C89" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D89" s="129" t="s">
+      <c r="D89" s="138" t="s">
         <v>36</v>
       </c>
       <c r="E89" s="20" t="s">
@@ -3523,10 +3565,10 @@
       <c r="F89" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="133" t="s">
+      <c r="G89" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="H89" s="129" t="s">
+      <c r="H89" s="138" t="s">
         <v>51</v>
       </c>
       <c r="I89" s="12"/>
@@ -3537,13 +3579,13 @@
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
-      <c r="D90" s="128"/>
+      <c r="D90" s="137"/>
       <c r="E90" s="14"/>
       <c r="F90" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G90" s="134"/>
-      <c r="H90" s="128"/>
+      <c r="G90" s="143"/>
+      <c r="H90" s="137"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
       <c r="K90" s="16"/>
@@ -3552,15 +3594,15 @@
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
-      <c r="D91" s="128"/>
+      <c r="D91" s="137"/>
       <c r="E91" s="14"/>
       <c r="F91" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G91" s="134" t="s">
+      <c r="G91" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="H91" s="128"/>
+      <c r="H91" s="137"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
       <c r="K91" s="16"/>
@@ -3574,7 +3616,7 @@
       <c r="F92" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G92" s="134"/>
+      <c r="G92" s="143"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
@@ -3584,7 +3626,7 @@
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
-      <c r="D93" s="128"/>
+      <c r="D93" s="137"/>
       <c r="E93" s="14"/>
       <c r="F93" s="25" t="s">
         <v>14</v>
@@ -3599,7 +3641,7 @@
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
-      <c r="D94" s="128"/>
+      <c r="D94" s="137"/>
       <c r="E94" s="14"/>
       <c r="F94" s="25" t="s">
         <v>15</v>
@@ -3616,7 +3658,7 @@
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
-      <c r="F95" s="131" t="s">
+      <c r="F95" s="140" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="16"/>
@@ -3631,7 +3673,7 @@
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
-      <c r="F96" s="131"/>
+      <c r="F96" s="140"/>
       <c r="G96" s="16"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
@@ -3689,7 +3731,7 @@
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
-      <c r="F100" s="131" t="s">
+      <c r="F100" s="140" t="s">
         <v>19</v>
       </c>
       <c r="G100" s="16"/>
@@ -3704,7 +3746,7 @@
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
-      <c r="F101" s="131"/>
+      <c r="F101" s="140"/>
       <c r="G101" s="16"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
@@ -3717,7 +3759,7 @@
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
-      <c r="F102" s="131"/>
+      <c r="F102" s="140"/>
       <c r="G102" s="16"/>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
@@ -3743,13 +3785,13 @@
       <c r="A104" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B104" s="132" t="s">
+      <c r="B104" s="141" t="s">
         <v>76</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D104" s="129" t="s">
+      <c r="D104" s="138" t="s">
         <v>36</v>
       </c>
       <c r="E104" s="20" t="s">
@@ -3758,10 +3800,10 @@
       <c r="F104" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G104" s="132" t="s">
+      <c r="G104" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="H104" s="129" t="s">
+      <c r="H104" s="138" t="s">
         <v>51</v>
       </c>
       <c r="I104" s="12"/>
@@ -3770,15 +3812,15 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
-      <c r="B105" s="130"/>
+      <c r="B105" s="139"/>
       <c r="C105" s="14"/>
-      <c r="D105" s="128"/>
+      <c r="D105" s="137"/>
       <c r="E105" s="14"/>
       <c r="F105" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G105" s="130"/>
-      <c r="H105" s="128"/>
+      <c r="G105" s="139"/>
+      <c r="H105" s="137"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
       <c r="K105" s="16"/>
@@ -3787,15 +3829,15 @@
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
-      <c r="D106" s="128"/>
+      <c r="D106" s="137"/>
       <c r="E106" s="14"/>
       <c r="F106" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G106" s="130" t="s">
+      <c r="G106" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="H106" s="128"/>
+      <c r="H106" s="137"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
       <c r="K106" s="16"/>
@@ -3809,7 +3851,7 @@
       <c r="F107" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="130"/>
+      <c r="G107" s="139"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
@@ -3824,7 +3866,7 @@
       <c r="F108" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G108" s="130"/>
+      <c r="G108" s="139"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="14"/>
@@ -3851,7 +3893,7 @@
       <c r="C110" s="14"/>
       <c r="D110" s="14"/>
       <c r="E110" s="14"/>
-      <c r="F110" s="131" t="s">
+      <c r="F110" s="140" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="14"/>
@@ -3866,7 +3908,7 @@
       <c r="C111" s="14"/>
       <c r="D111" s="14"/>
       <c r="E111" s="14"/>
-      <c r="F111" s="131"/>
+      <c r="F111" s="140"/>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
@@ -3924,7 +3966,7 @@
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
-      <c r="F115" s="131" t="s">
+      <c r="F115" s="140" t="s">
         <v>19</v>
       </c>
       <c r="G115" s="14"/>
@@ -3939,7 +3981,7 @@
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
-      <c r="F116" s="131"/>
+      <c r="F116" s="140"/>
       <c r="G116" s="14"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
@@ -3952,7 +3994,7 @@
       <c r="C117" s="14"/>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
-      <c r="F117" s="131"/>
+      <c r="F117" s="140"/>
       <c r="G117" s="14"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
@@ -4113,13 +4155,13 @@
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="138" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="129" t="s">
+      <c r="E2" s="138" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -4128,10 +4170,10 @@
       <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="129" t="s">
+      <c r="I2" s="138" t="s">
         <v>33</v>
       </c>
       <c r="J2" s="2"/>
@@ -4141,15 +4183,15 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="128"/>
+      <c r="C3" s="137"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="128"/>
+      <c r="E3" s="137"/>
       <c r="F3" s="5"/>
       <c r="G3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
       <c r="L3" s="5"/>
@@ -4159,13 +4201,13 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="128"/>
+      <c r="E4" s="137"/>
       <c r="F4" s="5"/>
       <c r="G4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
       <c r="J4" s="5"/>
       <c r="K4" s="6"/>
       <c r="L4" s="5"/>
@@ -4180,7 +4222,7 @@
       <c r="G5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="128"/>
+      <c r="H5" s="137"/>
       <c r="I5" s="6"/>
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
@@ -4196,8 +4238,8 @@
       <c r="G6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="128"/>
-      <c r="I6" s="135" t="s">
+      <c r="H6" s="137"/>
+      <c r="I6" s="144" t="s">
         <v>52</v>
       </c>
       <c r="J6" s="5"/>
@@ -4215,7 +4257,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="135"/>
+      <c r="I7" s="144"/>
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
       <c r="L7" s="5"/>
@@ -4231,7 +4273,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="135"/>
+      <c r="I8" s="144"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="5"/>
@@ -4371,13 +4413,13 @@
       <c r="B17" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="138" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="129" t="s">
+      <c r="E17" s="138" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="20" t="s">
@@ -4386,10 +4428,10 @@
       <c r="G17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="129" t="s">
+      <c r="H17" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="129" t="s">
+      <c r="I17" s="138" t="s">
         <v>33</v>
       </c>
       <c r="J17" s="20"/>
@@ -4399,15 +4441,15 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="21"/>
-      <c r="C18" s="128"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="128"/>
+      <c r="E18" s="137"/>
       <c r="F18" s="21"/>
       <c r="G18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
@@ -4417,13 +4459,13 @@
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="128"/>
+      <c r="E19" s="137"/>
       <c r="F19" s="21"/>
       <c r="G19" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
@@ -4438,7 +4480,7 @@
       <c r="G20" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="128"/>
+      <c r="H20" s="137"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
@@ -4454,8 +4496,8 @@
       <c r="G21" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="128"/>
-      <c r="I21" s="135" t="s">
+      <c r="H21" s="137"/>
+      <c r="I21" s="144" t="s">
         <v>52</v>
       </c>
       <c r="J21" s="21"/>
@@ -4473,7 +4515,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="21"/>
-      <c r="I22" s="135"/>
+      <c r="I22" s="144"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
@@ -4489,7 +4531,7 @@
         <v>16</v>
       </c>
       <c r="H23" s="21"/>
-      <c r="I23" s="135"/>
+      <c r="I23" s="144"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
@@ -4642,10 +4684,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8614EB4E-DBD6-4335-8AC7-592BA2F011D7}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4713,28 +4755,28 @@
       <c r="A2" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="153" t="s">
         <v>144</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="153" t="s">
         <v>145</v>
       </c>
       <c r="E2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="145" t="s">
+      <c r="F2" s="153" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="163" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="145" t="s">
+      <c r="I2" s="153" t="s">
         <v>149</v>
       </c>
       <c r="J2" s="57" t="s">
@@ -4743,47 +4785,47 @@
       <c r="K2" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="145"/>
-      <c r="M2" s="138" t="s">
+      <c r="L2" s="153"/>
+      <c r="M2" s="147" t="s">
         <v>149</v>
       </c>
       <c r="N2" s="99"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
-      <c r="B3" s="142"/>
+      <c r="B3" s="154"/>
       <c r="C3" s="59"/>
-      <c r="D3" s="142"/>
+      <c r="D3" s="154"/>
       <c r="E3" s="60"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142" t="s">
+      <c r="F3" s="154"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154" t="s">
         <v>147</v>
       </c>
       <c r="K3" s="61"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="139"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="148"/>
       <c r="N3" s="61"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="154" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="60"/>
       <c r="F4" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="148" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="142"/>
+      <c r="H4" s="154"/>
       <c r="I4" s="59"/>
-      <c r="J4" s="142"/>
+      <c r="J4" s="154"/>
       <c r="K4" s="61"/>
       <c r="L4" s="63"/>
       <c r="M4" s="61"/>
@@ -4793,17 +4835,17 @@
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
-      <c r="D5" s="142"/>
+      <c r="D5" s="154"/>
       <c r="E5" s="60"/>
       <c r="F5" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139" t="s">
+      <c r="G5" s="148"/>
+      <c r="H5" s="148" t="s">
         <v>52</v>
       </c>
       <c r="I5" s="61"/>
-      <c r="J5" s="139" t="s">
+      <c r="J5" s="148" t="s">
         <v>148</v>
       </c>
       <c r="K5" s="61"/>
@@ -4815,15 +4857,15 @@
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="60"/>
-      <c r="D6" s="142"/>
+      <c r="D6" s="154"/>
       <c r="E6" s="60"/>
       <c r="F6" s="59" t="s">
         <v>151</v>
       </c>
       <c r="G6" s="60"/>
-      <c r="H6" s="139"/>
+      <c r="H6" s="148"/>
       <c r="I6" s="61"/>
-      <c r="J6" s="139"/>
+      <c r="J6" s="148"/>
       <c r="K6" s="61"/>
       <c r="L6" s="63"/>
       <c r="M6" s="61"/>
@@ -4833,13 +4875,13 @@
       <c r="A7" s="58"/>
       <c r="B7" s="59"/>
       <c r="C7" s="60"/>
-      <c r="D7" s="142"/>
+      <c r="D7" s="154"/>
       <c r="E7" s="60"/>
       <c r="F7" s="59" t="s">
         <v>152</v>
       </c>
       <c r="G7" s="60"/>
-      <c r="H7" s="139"/>
+      <c r="H7" s="148"/>
       <c r="I7" s="61"/>
       <c r="J7" s="64"/>
       <c r="K7" s="61"/>
@@ -4851,11 +4893,11 @@
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="60"/>
-      <c r="D8" s="142"/>
+      <c r="D8" s="154"/>
       <c r="E8" s="60"/>
       <c r="F8" s="65"/>
       <c r="G8" s="60"/>
-      <c r="H8" s="150"/>
+      <c r="H8" s="165"/>
       <c r="I8" s="65"/>
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
@@ -4867,81 +4909,81 @@
       <c r="A9" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="129" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="129" t="s">
         <v>101</v>
       </c>
       <c r="E9" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F9" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="146" t="s">
+      <c r="G9" s="161" t="s">
         <v>136</v>
       </c>
       <c r="H9" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="122" t="s">
+      <c r="I9" s="131" t="s">
         <v>155</v>
       </c>
       <c r="J9" s="70" t="s">
         <v>125</v>
       </c>
       <c r="K9" s="70"/>
-      <c r="L9" s="120"/>
+      <c r="L9" s="129"/>
       <c r="M9" s="32"/>
-      <c r="N9" s="122" t="s">
+      <c r="N9" s="131" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="69"/>
-      <c r="B10" s="121"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="67"/>
-      <c r="D10" s="121"/>
+      <c r="D10" s="130"/>
       <c r="E10" s="71"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="147"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="162"/>
       <c r="H10" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="123"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="71" t="s">
         <v>127</v>
       </c>
       <c r="K10" s="71"/>
-      <c r="L10" s="121"/>
+      <c r="L10" s="130"/>
       <c r="M10" s="36"/>
-      <c r="N10" s="123"/>
+      <c r="N10" s="132"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="69"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
-      <c r="D11" s="121"/>
+      <c r="D11" s="130"/>
       <c r="E11" s="71"/>
       <c r="F11" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="147" t="s">
+      <c r="G11" s="162" t="s">
         <v>140</v>
       </c>
       <c r="H11" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="123"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="71" t="s">
         <v>128</v>
       </c>
       <c r="K11" s="71"/>
-      <c r="L11" s="121"/>
+      <c r="L11" s="130"/>
       <c r="M11" s="36"/>
       <c r="N11" s="36" t="s">
         <v>200</v>
@@ -4951,23 +4993,23 @@
       <c r="A12" s="69"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
-      <c r="D12" s="121" t="s">
+      <c r="D12" s="130" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="71"/>
       <c r="F12" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="G12" s="147"/>
-      <c r="H12" s="121" t="s">
+      <c r="G12" s="162"/>
+      <c r="H12" s="130" t="s">
         <v>137</v>
       </c>
       <c r="I12" s="67"/>
-      <c r="J12" s="151" t="s">
+      <c r="J12" s="167" t="s">
         <v>137</v>
       </c>
       <c r="K12" s="71"/>
-      <c r="L12" s="121"/>
+      <c r="L12" s="130"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
     </row>
@@ -4975,15 +5017,15 @@
       <c r="A13" s="69"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
-      <c r="D13" s="121"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="71"/>
       <c r="F13" s="67" t="s">
         <v>151</v>
       </c>
       <c r="G13" s="72"/>
-      <c r="H13" s="121"/>
+      <c r="H13" s="130"/>
       <c r="I13" s="67"/>
-      <c r="J13" s="151"/>
+      <c r="J13" s="167"/>
       <c r="K13" s="71"/>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
@@ -5001,9 +5043,9 @@
         <v>152</v>
       </c>
       <c r="G14" s="72"/>
-      <c r="H14" s="121"/>
+      <c r="H14" s="130"/>
       <c r="I14" s="67"/>
-      <c r="J14" s="151"/>
+      <c r="J14" s="167"/>
       <c r="K14" s="71"/>
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
@@ -5031,19 +5073,19 @@
       <c r="A16" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="147" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="145" t="s">
+      <c r="D16" s="153" t="s">
         <v>187</v>
       </c>
       <c r="E16" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="140" t="s">
+      <c r="F16" s="149" t="s">
         <v>158</v>
       </c>
       <c r="G16" s="99" t="s">
@@ -5060,19 +5102,19 @@
       </c>
       <c r="K16" s="101"/>
       <c r="L16" s="99"/>
-      <c r="M16" s="138" t="s">
+      <c r="M16" s="147" t="s">
         <v>191</v>
       </c>
       <c r="N16" s="99"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="79"/>
-      <c r="B17" s="139"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="61"/>
-      <c r="D17" s="142"/>
+      <c r="D17" s="154"/>
       <c r="E17" s="60"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="142" t="s">
+      <c r="F17" s="150"/>
+      <c r="G17" s="154" t="s">
         <v>140</v>
       </c>
       <c r="H17" s="78" t="s">
@@ -5084,12 +5126,12 @@
       </c>
       <c r="K17" s="63"/>
       <c r="L17" s="61"/>
-      <c r="M17" s="139"/>
+      <c r="M17" s="148"/>
       <c r="N17" s="61"/>
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="79"/>
-      <c r="B18" s="139"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="61"/>
       <c r="D18" s="78" t="s">
         <v>188</v>
@@ -5098,7 +5140,7 @@
       <c r="F18" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="G18" s="142"/>
+      <c r="G18" s="154"/>
       <c r="H18" s="78" t="s">
         <v>128</v>
       </c>
@@ -5108,12 +5150,12 @@
       </c>
       <c r="K18" s="63"/>
       <c r="L18" s="61"/>
-      <c r="M18" s="139"/>
+      <c r="M18" s="148"/>
       <c r="N18" s="61"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="79"/>
-      <c r="B19" s="139"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="61"/>
       <c r="D19" s="78" t="s">
         <v>189</v>
@@ -5185,57 +5227,57 @@
       <c r="A23" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="131" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="129" t="s">
         <v>187</v>
       </c>
       <c r="E23" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="143" t="s">
+      <c r="F23" s="159" t="s">
         <v>153</v>
       </c>
-      <c r="G23" s="122" t="s">
+      <c r="G23" s="131" t="s">
         <v>184</v>
       </c>
       <c r="H23" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="I23" s="122"/>
+      <c r="I23" s="131"/>
       <c r="J23" s="52"/>
       <c r="K23" s="52"/>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
-      <c r="N23" s="122" t="s">
+      <c r="N23" s="131" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="95"/>
-      <c r="B24" s="123"/>
+      <c r="B24" s="132"/>
       <c r="C24" s="36"/>
-      <c r="D24" s="121"/>
+      <c r="D24" s="130"/>
       <c r="E24" s="115"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="123"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="132"/>
       <c r="H24" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="I24" s="123"/>
+      <c r="I24" s="132"/>
       <c r="J24" s="40"/>
       <c r="K24" s="40"/>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
-      <c r="N24" s="123"/>
+      <c r="N24" s="132"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="95"/>
-      <c r="B25" s="123"/>
+      <c r="B25" s="132"/>
       <c r="C25" s="36"/>
       <c r="D25" s="93" t="s">
         <v>188</v>
@@ -5244,7 +5286,7 @@
       <c r="F25" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="G25" s="123"/>
+      <c r="G25" s="132"/>
       <c r="H25" s="93" t="s">
         <v>128</v>
       </c>
@@ -5253,7 +5295,7 @@
       <c r="K25" s="40"/>
       <c r="L25" s="36"/>
       <c r="M25" s="36"/>
-      <c r="N25" s="123"/>
+      <c r="N25" s="132"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="95"/>
@@ -5266,7 +5308,7 @@
       <c r="F26" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="G26" s="123" t="s">
+      <c r="G26" s="132" t="s">
         <v>140</v>
       </c>
       <c r="H26" s="36"/>
@@ -5275,7 +5317,7 @@
       <c r="K26" s="40"/>
       <c r="L26" s="36"/>
       <c r="M26" s="36"/>
-      <c r="N26" s="123"/>
+      <c r="N26" s="132"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="95"/>
@@ -5284,7 +5326,7 @@
       <c r="D27" s="95"/>
       <c r="E27" s="115"/>
       <c r="F27" s="73"/>
-      <c r="G27" s="123"/>
+      <c r="G27" s="132"/>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="40"/>
@@ -5297,13 +5339,13 @@
       <c r="A28" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="157" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="120" t="s">
+      <c r="D28" s="129" t="s">
         <v>187</v>
       </c>
       <c r="E28" s="96" t="s">
@@ -5312,7 +5354,7 @@
       <c r="F28" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="G28" s="136" t="s">
+      <c r="G28" s="157" t="s">
         <v>202</v>
       </c>
       <c r="H28" s="92" t="s">
@@ -5323,18 +5365,18 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
       <c r="M28" s="32"/>
-      <c r="N28" s="122"/>
+      <c r="N28" s="131"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="95"/>
-      <c r="B29" s="137"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="36"/>
-      <c r="D29" s="121"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="40"/>
       <c r="F29" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="G29" s="137"/>
+      <c r="G29" s="158"/>
       <c r="H29" s="93" t="s">
         <v>127</v>
       </c>
@@ -5343,7 +5385,7 @@
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
-      <c r="N29" s="123"/>
+      <c r="N29" s="132"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="95"/>
@@ -5379,7 +5421,7 @@
         <v>201</v>
       </c>
       <c r="G31" s="36"/>
-      <c r="H31" s="123" t="s">
+      <c r="H31" s="132" t="s">
         <v>203</v>
       </c>
       <c r="I31" s="36"/>
@@ -5399,7 +5441,7 @@
         <v>196</v>
       </c>
       <c r="G32" s="36"/>
-      <c r="H32" s="123"/>
+      <c r="H32" s="132"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
@@ -5417,7 +5459,7 @@
         <v>119</v>
       </c>
       <c r="G33" s="36"/>
-      <c r="H33" s="123"/>
+      <c r="H33" s="132"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
@@ -5445,28 +5487,28 @@
       <c r="A35" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="120" t="s">
+      <c r="B35" s="129" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="120" t="s">
+      <c r="D35" s="129" t="s">
         <v>187</v>
       </c>
-      <c r="E35" s="120" t="s">
+      <c r="E35" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="F35" s="160" t="s">
+      <c r="F35" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="G35" s="120" t="s">
+      <c r="G35" s="129" t="s">
         <v>202</v>
       </c>
       <c r="H35" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="I35" s="120" t="s">
+      <c r="I35" s="129" t="s">
         <v>217</v>
       </c>
       <c r="J35" s="105" t="s">
@@ -5479,16 +5521,16 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="108"/>
-      <c r="B36" s="121"/>
+      <c r="B36" s="130"/>
       <c r="C36" s="106"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="121"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="130"/>
       <c r="H36" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="I36" s="121"/>
+      <c r="I36" s="130"/>
       <c r="J36" s="106" t="s">
         <v>127</v>
       </c>
@@ -5508,7 +5550,7 @@
       <c r="F37" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="G37" s="121"/>
+      <c r="G37" s="130"/>
       <c r="H37" s="106" t="s">
         <v>128</v>
       </c>
@@ -5532,12 +5574,12 @@
       <c r="F38" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121" t="s">
+      <c r="G38" s="130"/>
+      <c r="H38" s="130" t="s">
         <v>203</v>
       </c>
       <c r="I38" s="106"/>
-      <c r="J38" s="121" t="s">
+      <c r="J38" s="130" t="s">
         <v>203</v>
       </c>
       <c r="K38" s="114"/>
@@ -5549,17 +5591,17 @@
       <c r="A39" s="108"/>
       <c r="B39" s="106"/>
       <c r="C39" s="106"/>
-      <c r="D39" s="121" t="s">
+      <c r="D39" s="130" t="s">
         <v>204</v>
       </c>
       <c r="E39" s="106"/>
       <c r="F39" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
       <c r="I39" s="106"/>
-      <c r="J39" s="121"/>
+      <c r="J39" s="130"/>
       <c r="K39" s="114"/>
       <c r="L39" s="36"/>
       <c r="M39" s="36"/>
@@ -5569,15 +5611,15 @@
       <c r="A40" s="108"/>
       <c r="B40" s="106"/>
       <c r="C40" s="106"/>
-      <c r="D40" s="121"/>
+      <c r="D40" s="130"/>
       <c r="E40" s="106"/>
       <c r="F40" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
       <c r="I40" s="106"/>
-      <c r="J40" s="121"/>
+      <c r="J40" s="130"/>
       <c r="K40" s="114"/>
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
@@ -5587,25 +5629,25 @@
       <c r="A41" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="162" t="s">
+      <c r="B41" s="151" t="s">
         <v>60</v>
       </c>
       <c r="C41" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="145" t="s">
+      <c r="D41" s="153" t="s">
         <v>101</v>
       </c>
       <c r="E41" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="163" t="s">
+      <c r="F41" s="116" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="145" t="s">
+      <c r="H41" s="153" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="99"/>
@@ -5613,39 +5655,39 @@
       <c r="K41" s="101"/>
       <c r="L41" s="99"/>
       <c r="M41" s="99"/>
-      <c r="N41" s="138" t="s">
+      <c r="N41" s="147" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
-      <c r="B42" s="164"/>
+      <c r="B42" s="152"/>
       <c r="C42" s="61"/>
-      <c r="D42" s="142"/>
+      <c r="D42" s="154"/>
       <c r="E42" s="60"/>
       <c r="F42" s="103" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="61"/>
-      <c r="H42" s="142"/>
+      <c r="H42" s="154"/>
       <c r="I42" s="61"/>
       <c r="J42" s="63"/>
       <c r="K42" s="63"/>
       <c r="L42" s="61"/>
       <c r="M42" s="61"/>
-      <c r="N42" s="139"/>
+      <c r="N42" s="148"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="110"/>
-      <c r="B43" s="164"/>
+      <c r="B43" s="152"/>
       <c r="C43" s="61"/>
-      <c r="D43" s="142"/>
+      <c r="D43" s="154"/>
       <c r="E43" s="60"/>
       <c r="F43" s="103" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="61"/>
-      <c r="H43" s="142"/>
+      <c r="H43" s="154"/>
       <c r="I43" s="61"/>
       <c r="J43" s="63"/>
       <c r="K43" s="63"/>
@@ -5655,7 +5697,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
-      <c r="B44" s="164"/>
+      <c r="B44" s="152"/>
       <c r="C44" s="61"/>
       <c r="D44" s="61"/>
       <c r="E44" s="60"/>
@@ -5820,15 +5862,15 @@
       <c r="B53" s="65"/>
       <c r="C53" s="65"/>
       <c r="D53" s="65"/>
-      <c r="E53" s="165"/>
-      <c r="F53" s="166" t="s">
+      <c r="E53" s="117"/>
+      <c r="F53" s="118" t="s">
         <v>31</v>
       </c>
       <c r="G53" s="65"/>
       <c r="H53" s="65"/>
       <c r="I53" s="65"/>
-      <c r="J53" s="167"/>
-      <c r="K53" s="167"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="119"/>
       <c r="L53" s="65"/>
       <c r="M53" s="65"/>
       <c r="N53" s="65"/>
@@ -5837,28 +5879,28 @@
       <c r="A54" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="122" t="s">
+      <c r="B54" s="131" t="s">
         <v>61</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="120" t="s">
+      <c r="D54" s="129" t="s">
         <v>187</v>
       </c>
-      <c r="E54" s="120" t="s">
+      <c r="E54" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="F54" s="160" t="s">
+      <c r="F54" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="G54" s="122" t="s">
+      <c r="G54" s="131" t="s">
         <v>184</v>
       </c>
       <c r="H54" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="I54" s="122" t="s">
+      <c r="I54" s="131" t="s">
         <v>211</v>
       </c>
       <c r="J54" s="105" t="s">
@@ -5871,16 +5913,16 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="108"/>
-      <c r="B55" s="123"/>
+      <c r="B55" s="132"/>
       <c r="C55" s="36"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="121"/>
-      <c r="F55" s="161"/>
-      <c r="G55" s="123"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="156"/>
+      <c r="G55" s="132"/>
       <c r="H55" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="I55" s="123"/>
+      <c r="I55" s="132"/>
       <c r="J55" s="106" t="s">
         <v>127</v>
       </c>
@@ -5891,7 +5933,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="108"/>
-      <c r="B56" s="123"/>
+      <c r="B56" s="132"/>
       <c r="C56" s="36"/>
       <c r="D56" s="106" t="s">
         <v>188</v>
@@ -5900,7 +5942,7 @@
       <c r="F56" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="G56" s="123"/>
+      <c r="G56" s="132"/>
       <c r="H56" s="106" t="s">
         <v>128</v>
       </c>
@@ -5927,11 +5969,11 @@
       <c r="G57" s="108" t="s">
         <v>210</v>
       </c>
-      <c r="H57" s="123" t="s">
+      <c r="H57" s="132" t="s">
         <v>203</v>
       </c>
       <c r="I57" s="36"/>
-      <c r="J57" s="123" t="s">
+      <c r="J57" s="132" t="s">
         <v>203</v>
       </c>
       <c r="K57" s="40"/>
@@ -5943,13 +5985,13 @@
       <c r="A58" s="108"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
-      <c r="D58" s="123"/>
+      <c r="D58" s="132"/>
       <c r="E58" s="115"/>
       <c r="F58" s="73"/>
       <c r="G58" s="108"/>
-      <c r="H58" s="123"/>
+      <c r="H58" s="132"/>
       <c r="I58" s="36"/>
-      <c r="J58" s="123"/>
+      <c r="J58" s="132"/>
       <c r="K58" s="40"/>
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
@@ -5959,13 +6001,13 @@
       <c r="A59" s="108"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
-      <c r="D59" s="123"/>
+      <c r="D59" s="132"/>
       <c r="E59" s="115"/>
       <c r="F59" s="73"/>
       <c r="G59" s="108"/>
-      <c r="H59" s="123"/>
+      <c r="H59" s="132"/>
       <c r="I59" s="36"/>
-      <c r="J59" s="123"/>
+      <c r="J59" s="132"/>
       <c r="K59" s="40"/>
       <c r="L59" s="36"/>
       <c r="M59" s="41"/>
@@ -5975,28 +6017,28 @@
       <c r="A60" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="122" t="s">
+      <c r="B60" s="131" t="s">
         <v>212</v>
       </c>
       <c r="C60" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="122" t="s">
+      <c r="D60" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="122" t="s">
+      <c r="E60" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="F60" s="120" t="s">
+      <c r="F60" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="G60" s="146" t="s">
+      <c r="G60" s="161" t="s">
         <v>136</v>
       </c>
       <c r="H60" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="I60" s="122" t="s">
+      <c r="I60" s="131" t="s">
         <v>217</v>
       </c>
       <c r="J60" s="105" t="s">
@@ -6009,16 +6051,16 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="108"/>
-      <c r="B61" s="123"/>
+      <c r="B61" s="132"/>
       <c r="C61" s="36"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="123"/>
-      <c r="F61" s="121"/>
-      <c r="G61" s="147"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="132"/>
+      <c r="F61" s="130"/>
+      <c r="G61" s="162"/>
       <c r="H61" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="I61" s="123"/>
+      <c r="I61" s="132"/>
       <c r="J61" s="106" t="s">
         <v>127</v>
       </c>
@@ -6029,16 +6071,16 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="108"/>
-      <c r="B62" s="123"/>
+      <c r="B62" s="132"/>
       <c r="C62" s="36"/>
-      <c r="D62" s="123" t="s">
+      <c r="D62" s="132" t="s">
         <v>157</v>
       </c>
       <c r="E62" s="115"/>
       <c r="F62" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="G62" s="147" t="s">
+      <c r="G62" s="162" t="s">
         <v>140</v>
       </c>
       <c r="H62" s="106" t="s">
@@ -6057,17 +6099,17 @@
       <c r="A63" s="108"/>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
-      <c r="D63" s="123"/>
+      <c r="D63" s="132"/>
       <c r="E63" s="115"/>
       <c r="F63" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="G63" s="147"/>
-      <c r="H63" s="121" t="s">
+      <c r="G63" s="162"/>
+      <c r="H63" s="130" t="s">
         <v>203</v>
       </c>
       <c r="I63" s="36"/>
-      <c r="J63" s="121" t="s">
+      <c r="J63" s="130" t="s">
         <v>203</v>
       </c>
       <c r="K63" s="36"/>
@@ -6085,16 +6127,16 @@
         <v>151</v>
       </c>
       <c r="G64" s="115"/>
-      <c r="H64" s="121"/>
+      <c r="H64" s="130"/>
       <c r="I64" s="36"/>
-      <c r="J64" s="121"/>
+      <c r="J64" s="130"/>
       <c r="K64" s="36"/>
       <c r="L64" s="40"/>
       <c r="M64" s="36"/>
       <c r="N64" s="36"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="168"/>
+      <c r="A65" s="120"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
       <c r="D65" s="41"/>
@@ -6103,40 +6145,40 @@
         <v>152</v>
       </c>
       <c r="G65" s="43"/>
-      <c r="H65" s="169"/>
+      <c r="H65" s="166"/>
       <c r="I65" s="41"/>
-      <c r="J65" s="169"/>
+      <c r="J65" s="166"/>
       <c r="K65" s="41"/>
       <c r="L65" s="42"/>
       <c r="M65" s="41"/>
       <c r="N65" s="41"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="170" t="s">
+      <c r="A66" s="121" t="s">
         <v>214</v>
       </c>
-      <c r="B66" s="122" t="s">
+      <c r="B66" s="131" t="s">
         <v>215</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="122" t="s">
+      <c r="D66" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="171" t="s">
+      <c r="E66" s="168" t="s">
         <v>207</v>
       </c>
-      <c r="F66" s="122" t="s">
+      <c r="F66" s="131" t="s">
         <v>205</v>
       </c>
-      <c r="G66" s="171" t="s">
+      <c r="G66" s="168" t="s">
         <v>136</v>
       </c>
       <c r="H66" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="I66" s="122" t="s">
+      <c r="I66" s="131" t="s">
         <v>217</v>
       </c>
       <c r="J66" s="32" t="s">
@@ -6148,17 +6190,17 @@
       <c r="N66" s="32"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="172"/>
-      <c r="B67" s="123"/>
+      <c r="A67" s="122"/>
+      <c r="B67" s="132"/>
       <c r="C67" s="115"/>
-      <c r="D67" s="123"/>
-      <c r="E67" s="173"/>
-      <c r="F67" s="123"/>
-      <c r="G67" s="173"/>
+      <c r="D67" s="132"/>
+      <c r="E67" s="169"/>
+      <c r="F67" s="132"/>
+      <c r="G67" s="169"/>
       <c r="H67" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="I67" s="123"/>
+      <c r="I67" s="132"/>
       <c r="J67" s="36" t="s">
         <v>127</v>
       </c>
@@ -6168,17 +6210,17 @@
       <c r="N67" s="36"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="172"/>
-      <c r="B68" s="123"/>
+      <c r="A68" s="122"/>
+      <c r="B68" s="132"/>
       <c r="C68" s="115"/>
-      <c r="D68" s="123" t="s">
+      <c r="D68" s="132" t="s">
         <v>157</v>
       </c>
       <c r="E68" s="115"/>
       <c r="F68" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="G68" s="173" t="s">
+      <c r="G68" s="169" t="s">
         <v>140</v>
       </c>
       <c r="H68" s="36" t="s">
@@ -6194,20 +6236,20 @@
       <c r="N68" s="36"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="172"/>
+      <c r="A69" s="122"/>
       <c r="B69" s="36"/>
       <c r="C69" s="115"/>
-      <c r="D69" s="123"/>
+      <c r="D69" s="132"/>
       <c r="E69" s="115"/>
       <c r="F69" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="G69" s="173"/>
-      <c r="H69" s="123" t="s">
+      <c r="G69" s="169"/>
+      <c r="H69" s="132" t="s">
         <v>203</v>
       </c>
       <c r="I69" s="115"/>
-      <c r="J69" s="123" t="s">
+      <c r="J69" s="132" t="s">
         <v>203</v>
       </c>
       <c r="K69" s="115"/>
@@ -6216,7 +6258,7 @@
       <c r="N69" s="36"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="172"/>
+      <c r="A70" s="122"/>
       <c r="B70" s="36"/>
       <c r="C70" s="115"/>
       <c r="D70" s="36"/>
@@ -6225,16 +6267,16 @@
         <v>151</v>
       </c>
       <c r="G70" s="115"/>
-      <c r="H70" s="123"/>
+      <c r="H70" s="132"/>
       <c r="I70" s="115"/>
-      <c r="J70" s="123"/>
+      <c r="J70" s="132"/>
       <c r="K70" s="115"/>
       <c r="L70" s="36"/>
       <c r="M70" s="115"/>
       <c r="N70" s="36"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="174"/>
+      <c r="A71" s="123"/>
       <c r="B71" s="41"/>
       <c r="C71" s="43"/>
       <c r="D71" s="41"/>
@@ -6243,40 +6285,40 @@
         <v>152</v>
       </c>
       <c r="G71" s="43"/>
-      <c r="H71" s="175"/>
+      <c r="H71" s="170"/>
       <c r="I71" s="43"/>
-      <c r="J71" s="175"/>
+      <c r="J71" s="170"/>
       <c r="K71" s="43"/>
       <c r="L71" s="41"/>
       <c r="M71" s="43"/>
       <c r="N71" s="41"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="170" t="s">
+      <c r="A72" s="121" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="122" t="s">
+      <c r="B72" s="131" t="s">
         <v>219</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="122" t="s">
+      <c r="D72" s="131" t="s">
         <v>220</v>
       </c>
-      <c r="E72" s="171" t="s">
+      <c r="E72" s="168" t="s">
         <v>207</v>
       </c>
-      <c r="F72" s="122" t="s">
+      <c r="F72" s="131" t="s">
         <v>221</v>
       </c>
-      <c r="G72" s="171" t="s">
+      <c r="G72" s="168" t="s">
         <v>136</v>
       </c>
       <c r="H72" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="I72" s="122" t="s">
+      <c r="I72" s="131" t="s">
         <v>217</v>
       </c>
       <c r="J72" s="32" t="s">
@@ -6288,17 +6330,17 @@
       <c r="N72" s="32"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="172"/>
-      <c r="B73" s="123"/>
+      <c r="A73" s="122"/>
+      <c r="B73" s="132"/>
       <c r="C73" s="115"/>
-      <c r="D73" s="123"/>
-      <c r="E73" s="173"/>
-      <c r="F73" s="123"/>
-      <c r="G73" s="173"/>
+      <c r="D73" s="132"/>
+      <c r="E73" s="169"/>
+      <c r="F73" s="132"/>
+      <c r="G73" s="169"/>
       <c r="H73" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="I73" s="123"/>
+      <c r="I73" s="132"/>
       <c r="J73" s="36" t="s">
         <v>127</v>
       </c>
@@ -6308,7 +6350,7 @@
       <c r="N73" s="36"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="172"/>
+      <c r="A74" s="122"/>
       <c r="B74" s="36"/>
       <c r="C74" s="115"/>
       <c r="D74" s="36" t="s">
@@ -6318,7 +6360,7 @@
       <c r="F74" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="G74" s="173" t="s">
+      <c r="G74" s="169" t="s">
         <v>140</v>
       </c>
       <c r="H74" s="36" t="s">
@@ -6334,7 +6376,7 @@
       <c r="N74" s="36"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="172"/>
+      <c r="A75" s="122"/>
       <c r="B75" s="36"/>
       <c r="C75" s="115"/>
       <c r="D75" s="36" t="s">
@@ -6344,12 +6386,12 @@
       <c r="F75" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="G75" s="173"/>
-      <c r="H75" s="123" t="s">
+      <c r="G75" s="169"/>
+      <c r="H75" s="132" t="s">
         <v>203</v>
       </c>
       <c r="I75" s="115"/>
-      <c r="J75" s="123" t="s">
+      <c r="J75" s="132" t="s">
         <v>203</v>
       </c>
       <c r="K75" s="115"/>
@@ -6358,7 +6400,7 @@
       <c r="N75" s="36"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="172"/>
+      <c r="A76" s="122"/>
       <c r="B76" s="36"/>
       <c r="C76" s="115"/>
       <c r="D76" s="36"/>
@@ -6367,16 +6409,16 @@
         <v>151</v>
       </c>
       <c r="G76" s="115"/>
-      <c r="H76" s="123"/>
+      <c r="H76" s="132"/>
       <c r="I76" s="115"/>
-      <c r="J76" s="123"/>
+      <c r="J76" s="132"/>
       <c r="K76" s="115"/>
       <c r="L76" s="36"/>
       <c r="M76" s="115"/>
       <c r="N76" s="36"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="174"/>
+      <c r="A77" s="123"/>
       <c r="B77" s="41"/>
       <c r="C77" s="43"/>
       <c r="D77" s="41"/>
@@ -6385,51 +6427,308 @@
         <v>152</v>
       </c>
       <c r="G77" s="43"/>
-      <c r="H77" s="175"/>
+      <c r="H77" s="170"/>
       <c r="I77" s="43"/>
-      <c r="J77" s="175"/>
+      <c r="J77" s="170"/>
       <c r="K77" s="43"/>
       <c r="L77" s="41"/>
       <c r="M77" s="43"/>
       <c r="N77" s="41"/>
     </row>
+    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="121" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" s="131" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78" s="168" t="s">
+        <v>230</v>
+      </c>
+      <c r="F78" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G78" s="131" t="s">
+        <v>231</v>
+      </c>
+      <c r="H78" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I78" s="131" t="s">
+        <v>234</v>
+      </c>
+      <c r="J78" s="32"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="32"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="122"/>
+      <c r="B79" s="132"/>
+      <c r="C79" s="115"/>
+      <c r="D79" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="E79" s="169"/>
+      <c r="F79" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G79" s="132"/>
+      <c r="H79" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="I79" s="132"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="115"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="115"/>
+      <c r="N79" s="36"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="122"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="115"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="115"/>
+      <c r="F80" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G80" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="H80" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I80" s="115"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="115"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="115"/>
+      <c r="N80" s="36"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="122"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="115"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="115"/>
+      <c r="F81" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="G81" s="132"/>
+      <c r="H81" s="132" t="s">
+        <v>203</v>
+      </c>
+      <c r="I81" s="115"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="115"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="115"/>
+      <c r="N81" s="36"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="122"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="115"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="115"/>
+      <c r="F82" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="G82" s="124"/>
+      <c r="H82" s="132"/>
+      <c r="I82" s="115"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="115"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="115"/>
+      <c r="N82" s="36"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="123"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="170"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="41"/>
+      <c r="M83" s="43"/>
+      <c r="N83" s="41"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="121" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" s="131" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" s="168" t="s">
+        <v>230</v>
+      </c>
+      <c r="F84" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G84" s="168" t="s">
+        <v>233</v>
+      </c>
+      <c r="H84" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I84" s="131" t="s">
+        <v>235</v>
+      </c>
+      <c r="J84" s="32"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="32"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="122"/>
+      <c r="B85" s="132"/>
+      <c r="C85" s="115"/>
+      <c r="D85" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="E85" s="169"/>
+      <c r="F85" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G85" s="169"/>
+      <c r="H85" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="I85" s="132"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="115"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="115"/>
+      <c r="N85" s="36"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="122"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G86" s="169" t="s">
+        <v>140</v>
+      </c>
+      <c r="H86" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I86" s="132"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="115"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="115"/>
+      <c r="N86" s="36"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="122"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="115"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="115"/>
+      <c r="F87" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="G87" s="169"/>
+      <c r="H87" s="132" t="s">
+        <v>203</v>
+      </c>
+      <c r="I87" s="132"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="115"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="115"/>
+      <c r="N87" s="36"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="122"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="115"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="115"/>
+      <c r="F88" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="G88" s="115"/>
+      <c r="H88" s="132"/>
+      <c r="I88" s="115"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="115"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="115"/>
+      <c r="N88" s="36"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="123"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="170"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="41"/>
+    </row>
   </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J57:J59"/>
-    <mergeCell ref="J63:J65"/>
+  <mergeCells count="106">
     <mergeCell ref="J69:J71"/>
     <mergeCell ref="J75:J77"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="I66:I67"/>
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="E72:E73"/>
     <mergeCell ref="F72:F73"/>
     <mergeCell ref="G72:G73"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="I23:I24"/>
     <mergeCell ref="G54:G56"/>
     <mergeCell ref="H57:H59"/>
     <mergeCell ref="I35:I36"/>
     <mergeCell ref="I54:I55"/>
     <mergeCell ref="E35:E36"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J57:J59"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="M16:M18"/>
     <mergeCell ref="H63:H65"/>
@@ -6446,6 +6745,11 @@
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D6:D8"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J63:J65"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="L2:L3"/>
@@ -6457,21 +6761,6 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="H41:H43"/>
     <mergeCell ref="N23:N26"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="N28:N29"/>
@@ -6485,9 +6774,39 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="G80:G81"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H69:H71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6560,7 +6879,7 @@
       <c r="A2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="131" t="s">
         <v>120</v>
       </c>
       <c r="C2" s="32" t="s">
@@ -6578,7 +6897,7 @@
       <c r="G2" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="131" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="32" t="s">
@@ -6588,13 +6907,13 @@
       <c r="K2" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="136" t="s">
+      <c r="L2" s="157" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
-      <c r="B3" s="123"/>
+      <c r="B3" s="132"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
@@ -6604,13 +6923,13 @@
       <c r="G3" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123" t="s">
+      <c r="H3" s="132"/>
+      <c r="I3" s="132" t="s">
         <v>113</v>
       </c>
       <c r="J3" s="36"/>
       <c r="K3" s="36"/>
-      <c r="L3" s="137"/>
+      <c r="L3" s="158"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
@@ -6621,11 +6940,11 @@
       <c r="F4" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="123" t="s">
+      <c r="G4" s="132" t="s">
         <v>115</v>
       </c>
       <c r="H4" s="36"/>
-      <c r="I4" s="123"/>
+      <c r="I4" s="132"/>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
@@ -6639,9 +6958,9 @@
       <c r="F5" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="123"/>
+      <c r="G5" s="132"/>
       <c r="H5" s="36"/>
-      <c r="I5" s="123" t="s">
+      <c r="I5" s="132" t="s">
         <v>117</v>
       </c>
       <c r="J5" s="36"/>
@@ -6659,7 +6978,7 @@
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
-      <c r="I6" s="123"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
@@ -6684,7 +7003,7 @@
       <c r="A8" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="146" t="s">
         <v>181</v>
       </c>
       <c r="C8" t="s">
@@ -6698,7 +7017,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="153"/>
+      <c r="B9" s="145"/>
       <c r="E9" t="s">
         <v>182</v>
       </c>
@@ -6783,23 +7102,23 @@
       <c r="A2" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="141" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="138" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="132" t="s">
+      <c r="G2" s="141" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="138" t="s">
         <v>51</v>
       </c>
       <c r="I2" s="12"/>
@@ -6809,15 +7128,15 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="130"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="128"/>
+      <c r="D3" s="137"/>
       <c r="E3" s="15"/>
       <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="130"/>
-      <c r="H3" s="128"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="137"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
@@ -6825,15 +7144,15 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="B4" s="130"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="128"/>
+      <c r="D4" s="137"/>
       <c r="E4" s="15"/>
       <c r="F4" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="128"/>
+      <c r="H4" s="137"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -6895,7 +7214,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="131" t="s">
+      <c r="F8" s="140" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="16"/>
@@ -6911,7 +7230,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="131"/>
+      <c r="F9" s="140"/>
       <c r="G9" s="16"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -6973,7 +7292,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="131" t="s">
+      <c r="F13" s="140" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="16"/>
@@ -6989,7 +7308,7 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="131"/>
+      <c r="F14" s="140"/>
       <c r="G14" s="16"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -7003,7 +7322,7 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="131"/>
+      <c r="F15" s="140"/>
       <c r="G15" s="16"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -7047,13 +7366,13 @@
       <c r="A18" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="154" t="s">
+      <c r="B18" s="171" t="s">
         <v>166</v>
       </c>
       <c r="C18" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="154" t="s">
+      <c r="D18" s="171" t="s">
         <v>168</v>
       </c>
       <c r="E18" s="83" t="s">
@@ -7062,72 +7381,72 @@
       <c r="F18" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="158" t="s">
+      <c r="G18" s="175" t="s">
         <v>172</v>
       </c>
-      <c r="H18" s="154" t="s">
+      <c r="H18" s="171" t="s">
         <v>168</v>
       </c>
-      <c r="I18" s="154" t="s">
+      <c r="I18" s="171" t="s">
         <v>173</v>
       </c>
-      <c r="J18" s="154" t="s">
+      <c r="J18" s="171" t="s">
         <v>175</v>
       </c>
       <c r="K18" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="L18" s="154" t="s">
+      <c r="L18" s="171" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
-      <c r="B19" s="155"/>
+      <c r="B19" s="172"/>
       <c r="C19" s="85"/>
-      <c r="D19" s="155"/>
+      <c r="D19" s="172"/>
       <c r="E19" s="85"/>
       <c r="F19" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="G19" s="159"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
       <c r="K19" s="84"/>
-      <c r="L19" s="155"/>
+      <c r="L19" s="172"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
       <c r="B20" s="84"/>
       <c r="C20" s="85"/>
-      <c r="D20" s="157" t="s">
+      <c r="D20" s="174" t="s">
         <v>169</v>
       </c>
       <c r="E20" s="85"/>
       <c r="F20" s="84"/>
       <c r="G20" s="88"/>
-      <c r="H20" s="155" t="s">
+      <c r="H20" s="172" t="s">
         <v>169</v>
       </c>
       <c r="I20" s="84"/>
       <c r="J20" s="84"/>
       <c r="K20" s="84"/>
-      <c r="L20" s="155"/>
+      <c r="L20" s="172"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="84"/>
       <c r="B21" s="84"/>
       <c r="C21" s="85"/>
-      <c r="D21" s="157"/>
+      <c r="D21" s="174"/>
       <c r="E21" s="85"/>
       <c r="F21" s="84"/>
       <c r="G21" s="88"/>
-      <c r="H21" s="155"/>
+      <c r="H21" s="172"/>
       <c r="I21" s="84"/>
       <c r="J21" s="84"/>
       <c r="K21" s="84"/>
-      <c r="L21" s="155"/>
+      <c r="L21" s="172"/>
     </row>
     <row r="22" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="84"/>
@@ -7137,7 +7456,7 @@
       <c r="E22" s="85"/>
       <c r="F22" s="84"/>
       <c r="G22" s="88"/>
-      <c r="H22" s="155" t="s">
+      <c r="H22" s="172" t="s">
         <v>174</v>
       </c>
       <c r="I22" s="84"/>
@@ -7153,7 +7472,7 @@
       <c r="E23" s="87"/>
       <c r="F23" s="86"/>
       <c r="G23" s="89"/>
-      <c r="H23" s="156"/>
+      <c r="H23" s="173"/>
       <c r="I23" s="86"/>
       <c r="J23" s="86"/>
       <c r="K23" s="86"/>

--- a/Requirements/Testing/Test Cases.xlsx
+++ b/Requirements/Testing/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caeta\Desktop\Documents\Proyectos\TimeAdministrator\TimeAdministrator\Requirements\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7799BA1-9436-4639-ADB9-04F6C3D9CF75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7605BF-02B3-44DD-8EF6-78F07EAE4678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20910" windowHeight="13740" tabRatio="696" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20910" windowHeight="13740" tabRatio="696" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6. Register New Workspace" sheetId="7" r:id="rId1"/>
@@ -968,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,14 +1145,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1282,17 +1274,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1302,100 +1294,82 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1756,13 +1730,13 @@
       <c r="B2" s="32">
         <v>0</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="119" t="s">
         <v>122</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="129" t="s">
+      <c r="E2" s="121" t="s">
         <v>101</v>
       </c>
       <c r="F2" s="33" t="s">
@@ -1771,13 +1745,13 @@
       <c r="G2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="123" t="s">
         <v>124</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="131" t="s">
+      <c r="J2" s="123" t="s">
         <v>124</v>
       </c>
       <c r="K2" s="35" t="s">
@@ -1791,18 +1765,18 @@
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
-      <c r="C3" s="128"/>
+      <c r="C3" s="120"/>
       <c r="D3" s="36"/>
-      <c r="E3" s="130"/>
+      <c r="E3" s="122"/>
       <c r="F3" s="37"/>
       <c r="G3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="132"/>
+      <c r="H3" s="124"/>
       <c r="I3" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="132"/>
+      <c r="J3" s="124"/>
       <c r="K3" s="39" t="s">
         <v>127</v>
       </c>
@@ -1814,7 +1788,7 @@
       <c r="B4" s="36"/>
       <c r="C4" s="40"/>
       <c r="D4" s="36"/>
-      <c r="E4" s="130"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="37"/>
       <c r="G4" s="38" t="s">
         <v>12</v>
@@ -1835,7 +1809,7 @@
       <c r="B5" s="36"/>
       <c r="C5" s="40"/>
       <c r="D5" s="36"/>
-      <c r="E5" s="130"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="37"/>
       <c r="G5" s="38" t="s">
         <v>129</v>
@@ -1922,13 +1896,13 @@
       <c r="B10" s="45">
         <v>0</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="125" t="s">
         <v>132</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="135" t="s">
+      <c r="E10" s="127" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="45" t="s">
@@ -1937,13 +1911,13 @@
       <c r="G10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="133" t="s">
+      <c r="H10" s="125" t="s">
         <v>124</v>
       </c>
       <c r="I10" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="J10" s="133"/>
+      <c r="J10" s="125"/>
       <c r="K10" s="47"/>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
@@ -1951,18 +1925,18 @@
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
-      <c r="C11" s="134"/>
+      <c r="C11" s="126"/>
       <c r="D11" s="48"/>
-      <c r="E11" s="136"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="48"/>
       <c r="G11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="134"/>
+      <c r="H11" s="126"/>
       <c r="I11" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="134"/>
+      <c r="J11" s="126"/>
       <c r="K11" s="50"/>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
@@ -1970,14 +1944,14 @@
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="48"/>
-      <c r="C12" s="134"/>
+      <c r="C12" s="126"/>
       <c r="D12" s="48"/>
-      <c r="E12" s="136"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="48"/>
       <c r="G12" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="134" t="s">
+      <c r="H12" s="126" t="s">
         <v>133</v>
       </c>
       <c r="I12" s="50" t="s">
@@ -1993,12 +1967,12 @@
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
-      <c r="E13" s="136"/>
+      <c r="E13" s="128"/>
       <c r="F13" s="48"/>
       <c r="G13" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="134"/>
+      <c r="H13" s="126"/>
       <c r="I13" s="48"/>
       <c r="J13" s="48"/>
       <c r="K13" s="48"/>
@@ -2015,7 +1989,7 @@
       <c r="G14" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="134"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
@@ -2032,7 +2006,7 @@
       <c r="G15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="134"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
       <c r="K15" s="48"/>
@@ -2049,7 +2023,7 @@
       <c r="G16" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="125" t="s">
+      <c r="H16" s="117" t="s">
         <v>135</v>
       </c>
       <c r="I16" s="48"/>
@@ -2066,7 +2040,7 @@
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
       <c r="G17" s="49"/>
-      <c r="H17" s="125"/>
+      <c r="H17" s="117"/>
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
       <c r="K17" s="48"/>
@@ -2081,7 +2055,7 @@
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
-      <c r="H18" s="126"/>
+      <c r="H18" s="118"/>
       <c r="I18" s="51"/>
       <c r="J18" s="51"/>
       <c r="K18" s="51"/>
@@ -2169,13 +2143,13 @@
       <c r="A2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="130" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="138" t="s">
+      <c r="D2" s="132" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2184,10 +2158,10 @@
       <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="141" t="s">
+      <c r="G2" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="138" t="s">
+      <c r="H2" s="132" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="12"/>
@@ -2196,30 +2170,30 @@
     </row>
     <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="139"/>
+      <c r="B3" s="131"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="137"/>
+      <c r="D3" s="129"/>
       <c r="E3" s="15"/>
       <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="137"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="129"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="B4" s="139"/>
+      <c r="B4" s="131"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="137"/>
+      <c r="D4" s="129"/>
       <c r="E4" s="15"/>
       <c r="F4" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="137"/>
+      <c r="H4" s="129"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="16"/>
@@ -2243,7 +2217,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="137"/>
+      <c r="D6" s="129"/>
       <c r="E6" s="15"/>
       <c r="F6" s="25" t="s">
         <v>14</v>
@@ -2258,7 +2232,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="137"/>
+      <c r="D7" s="129"/>
       <c r="E7" s="15"/>
       <c r="F7" s="25" t="s">
         <v>15</v>
@@ -2378,13 +2352,13 @@
       <c r="A15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="130" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="138" t="s">
+      <c r="D15" s="132" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2393,10 +2367,10 @@
       <c r="F15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="141" t="s">
+      <c r="G15" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="138" t="s">
+      <c r="H15" s="132" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="12"/>
@@ -2405,37 +2379,37 @@
     </row>
     <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="139"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="137"/>
+      <c r="D16" s="129"/>
       <c r="E16" s="14"/>
       <c r="F16" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="139"/>
-      <c r="H16" s="137"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="129"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="139"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="137"/>
+      <c r="D17" s="129"/>
       <c r="E17" s="14"/>
       <c r="F17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="139"/>
-      <c r="H17" s="137"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="129"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="139"/>
+      <c r="B18" s="131"/>
       <c r="C18" s="14"/>
       <c r="D18" s="6"/>
       <c r="E18" s="14"/>
@@ -2450,9 +2424,9 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="139"/>
+      <c r="B19" s="131"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="137"/>
+      <c r="D19" s="129"/>
       <c r="E19" s="14"/>
       <c r="F19" s="25" t="s">
         <v>14</v>
@@ -2465,9 +2439,9 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="139"/>
+      <c r="B20" s="131"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="137"/>
+      <c r="D20" s="129"/>
       <c r="E20" s="14"/>
       <c r="F20" s="25" t="s">
         <v>15</v>
@@ -2617,13 +2591,13 @@
       <c r="A30" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="141" t="s">
+      <c r="B30" s="130" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="138" t="s">
+      <c r="D30" s="132" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -2632,10 +2606,10 @@
       <c r="F30" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="141" t="s">
+      <c r="G30" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="138" t="s">
+      <c r="H30" s="132" t="s">
         <v>33</v>
       </c>
       <c r="I30" s="12"/>
@@ -2644,30 +2618,30 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
-      <c r="B31" s="139"/>
+      <c r="B31" s="131"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="137"/>
+      <c r="D31" s="129"/>
       <c r="E31" s="15"/>
       <c r="F31" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="139"/>
-      <c r="H31" s="137"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="129"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="139"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="137"/>
+      <c r="D32" s="129"/>
       <c r="E32" s="15"/>
       <c r="F32" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="16"/>
-      <c r="H32" s="137"/>
+      <c r="H32" s="129"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="16"/>
@@ -2691,7 +2665,7 @@
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="137"/>
+      <c r="D34" s="129"/>
       <c r="E34" s="15"/>
       <c r="F34" s="25" t="s">
         <v>14</v>
@@ -2706,7 +2680,7 @@
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="137"/>
+      <c r="D35" s="129"/>
       <c r="E35" s="15"/>
       <c r="F35" s="25" t="s">
         <v>15</v>
@@ -2826,13 +2800,13 @@
       <c r="A43" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="141" t="s">
+      <c r="B43" s="130" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="138" t="s">
+      <c r="D43" s="132" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="20" t="s">
@@ -2841,10 +2815,10 @@
       <c r="F43" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="141" t="s">
+      <c r="G43" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="138" t="s">
+      <c r="H43" s="132" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="12"/>
@@ -2853,37 +2827,37 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
-      <c r="B44" s="139"/>
+      <c r="B44" s="131"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="137"/>
+      <c r="D44" s="129"/>
       <c r="E44" s="14"/>
       <c r="F44" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="139"/>
-      <c r="H44" s="137"/>
+      <c r="G44" s="131"/>
+      <c r="H44" s="129"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
-      <c r="B45" s="139"/>
+      <c r="B45" s="131"/>
       <c r="C45" s="14"/>
-      <c r="D45" s="137"/>
+      <c r="D45" s="129"/>
       <c r="E45" s="14"/>
       <c r="F45" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="139"/>
-      <c r="H45" s="137"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="129"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
-      <c r="B46" s="139"/>
+      <c r="B46" s="131"/>
       <c r="C46" s="14"/>
       <c r="D46" s="21"/>
       <c r="E46" s="14"/>
@@ -2898,9 +2872,9 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
-      <c r="B47" s="139"/>
+      <c r="B47" s="131"/>
       <c r="C47" s="14"/>
-      <c r="D47" s="137"/>
+      <c r="D47" s="129"/>
       <c r="E47" s="14"/>
       <c r="F47" s="25" t="s">
         <v>14</v>
@@ -2913,9 +2887,9 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
-      <c r="B48" s="139"/>
+      <c r="B48" s="131"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="137"/>
+      <c r="D48" s="129"/>
       <c r="E48" s="14"/>
       <c r="F48" s="25" t="s">
         <v>15</v>
@@ -3071,7 +3045,7 @@
       <c r="C58" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="138" t="s">
+      <c r="D58" s="132" t="s">
         <v>36</v>
       </c>
       <c r="E58" s="20" t="s">
@@ -3080,10 +3054,10 @@
       <c r="F58" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="142" t="s">
+      <c r="G58" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="H58" s="138" t="s">
+      <c r="H58" s="132" t="s">
         <v>51</v>
       </c>
       <c r="I58" s="12"/>
@@ -3094,13 +3068,13 @@
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
-      <c r="D59" s="137"/>
+      <c r="D59" s="129"/>
       <c r="E59" s="14"/>
       <c r="F59" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="143"/>
-      <c r="H59" s="137"/>
+      <c r="G59" s="135"/>
+      <c r="H59" s="129"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
       <c r="K59" s="16"/>
@@ -3109,15 +3083,15 @@
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="137"/>
+      <c r="D60" s="129"/>
       <c r="E60" s="14"/>
       <c r="F60" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="143" t="s">
+      <c r="G60" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="H60" s="137"/>
+      <c r="H60" s="129"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
       <c r="K60" s="16"/>
@@ -3131,7 +3105,7 @@
       <c r="F61" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="143"/>
+      <c r="G61" s="135"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
@@ -3141,7 +3115,7 @@
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="137"/>
+      <c r="D62" s="129"/>
       <c r="E62" s="14"/>
       <c r="F62" s="25" t="s">
         <v>14</v>
@@ -3156,7 +3130,7 @@
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="137"/>
+      <c r="D63" s="129"/>
       <c r="E63" s="14"/>
       <c r="F63" s="25" t="s">
         <v>15</v>
@@ -3173,7 +3147,7 @@
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
-      <c r="F64" s="140" t="s">
+      <c r="F64" s="133" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="16"/>
@@ -3188,7 +3162,7 @@
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
-      <c r="F65" s="140"/>
+      <c r="F65" s="133"/>
       <c r="G65" s="16"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
@@ -3246,7 +3220,7 @@
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
-      <c r="F69" s="140" t="s">
+      <c r="F69" s="133" t="s">
         <v>19</v>
       </c>
       <c r="G69" s="16"/>
@@ -3261,7 +3235,7 @@
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
-      <c r="F70" s="140"/>
+      <c r="F70" s="133"/>
       <c r="G70" s="16"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
@@ -3274,7 +3248,7 @@
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
-      <c r="F71" s="140"/>
+      <c r="F71" s="133"/>
       <c r="G71" s="16"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
@@ -3300,13 +3274,13 @@
       <c r="A73" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B73" s="141" t="s">
+      <c r="B73" s="130" t="s">
         <v>70</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="138" t="s">
+      <c r="D73" s="132" t="s">
         <v>36</v>
       </c>
       <c r="E73" s="20" t="s">
@@ -3315,10 +3289,10 @@
       <c r="F73" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="141" t="s">
+      <c r="G73" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="H73" s="138" t="s">
+      <c r="H73" s="132" t="s">
         <v>51</v>
       </c>
       <c r="I73" s="12"/>
@@ -3327,15 +3301,15 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
-      <c r="B74" s="139"/>
+      <c r="B74" s="131"/>
       <c r="C74" s="14"/>
-      <c r="D74" s="137"/>
+      <c r="D74" s="129"/>
       <c r="E74" s="14"/>
       <c r="F74" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G74" s="139"/>
-      <c r="H74" s="137"/>
+      <c r="G74" s="131"/>
+      <c r="H74" s="129"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
       <c r="K74" s="16"/>
@@ -3344,15 +3318,15 @@
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
-      <c r="D75" s="137"/>
+      <c r="D75" s="129"/>
       <c r="E75" s="14"/>
       <c r="F75" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="139" t="s">
+      <c r="G75" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H75" s="137"/>
+      <c r="H75" s="129"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
       <c r="K75" s="16"/>
@@ -3366,7 +3340,7 @@
       <c r="F76" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G76" s="139"/>
+      <c r="G76" s="131"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
@@ -3381,7 +3355,7 @@
       <c r="F77" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="139"/>
+      <c r="G77" s="131"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
@@ -3408,7 +3382,7 @@
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
-      <c r="F79" s="140" t="s">
+      <c r="F79" s="133" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="14"/>
@@ -3423,7 +3397,7 @@
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
-      <c r="F80" s="140"/>
+      <c r="F80" s="133"/>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
@@ -3481,7 +3455,7 @@
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
-      <c r="F84" s="140" t="s">
+      <c r="F84" s="133" t="s">
         <v>19</v>
       </c>
       <c r="G84" s="14"/>
@@ -3496,7 +3470,7 @@
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
-      <c r="F85" s="140"/>
+      <c r="F85" s="133"/>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
@@ -3509,7 +3483,7 @@
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
-      <c r="F86" s="140"/>
+      <c r="F86" s="133"/>
       <c r="G86" s="14"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
@@ -3556,7 +3530,7 @@
       <c r="C89" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D89" s="138" t="s">
+      <c r="D89" s="132" t="s">
         <v>36</v>
       </c>
       <c r="E89" s="20" t="s">
@@ -3565,10 +3539,10 @@
       <c r="F89" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="142" t="s">
+      <c r="G89" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="H89" s="138" t="s">
+      <c r="H89" s="132" t="s">
         <v>51</v>
       </c>
       <c r="I89" s="12"/>
@@ -3579,13 +3553,13 @@
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
-      <c r="D90" s="137"/>
+      <c r="D90" s="129"/>
       <c r="E90" s="14"/>
       <c r="F90" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G90" s="143"/>
-      <c r="H90" s="137"/>
+      <c r="G90" s="135"/>
+      <c r="H90" s="129"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
       <c r="K90" s="16"/>
@@ -3594,15 +3568,15 @@
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
-      <c r="D91" s="137"/>
+      <c r="D91" s="129"/>
       <c r="E91" s="14"/>
       <c r="F91" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G91" s="143" t="s">
+      <c r="G91" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="H91" s="137"/>
+      <c r="H91" s="129"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
       <c r="K91" s="16"/>
@@ -3616,7 +3590,7 @@
       <c r="F92" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G92" s="143"/>
+      <c r="G92" s="135"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
@@ -3626,7 +3600,7 @@
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
-      <c r="D93" s="137"/>
+      <c r="D93" s="129"/>
       <c r="E93" s="14"/>
       <c r="F93" s="25" t="s">
         <v>14</v>
@@ -3641,7 +3615,7 @@
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
-      <c r="D94" s="137"/>
+      <c r="D94" s="129"/>
       <c r="E94" s="14"/>
       <c r="F94" s="25" t="s">
         <v>15</v>
@@ -3658,7 +3632,7 @@
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
-      <c r="F95" s="140" t="s">
+      <c r="F95" s="133" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="16"/>
@@ -3673,7 +3647,7 @@
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
-      <c r="F96" s="140"/>
+      <c r="F96" s="133"/>
       <c r="G96" s="16"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
@@ -3731,7 +3705,7 @@
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
-      <c r="F100" s="140" t="s">
+      <c r="F100" s="133" t="s">
         <v>19</v>
       </c>
       <c r="G100" s="16"/>
@@ -3746,7 +3720,7 @@
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
-      <c r="F101" s="140"/>
+      <c r="F101" s="133"/>
       <c r="G101" s="16"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
@@ -3759,7 +3733,7 @@
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
-      <c r="F102" s="140"/>
+      <c r="F102" s="133"/>
       <c r="G102" s="16"/>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
@@ -3785,13 +3759,13 @@
       <c r="A104" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B104" s="141" t="s">
+      <c r="B104" s="130" t="s">
         <v>76</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D104" s="138" t="s">
+      <c r="D104" s="132" t="s">
         <v>36</v>
       </c>
       <c r="E104" s="20" t="s">
@@ -3800,10 +3774,10 @@
       <c r="F104" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G104" s="141" t="s">
+      <c r="G104" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="H104" s="138" t="s">
+      <c r="H104" s="132" t="s">
         <v>51</v>
       </c>
       <c r="I104" s="12"/>
@@ -3812,15 +3786,15 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
-      <c r="B105" s="139"/>
+      <c r="B105" s="131"/>
       <c r="C105" s="14"/>
-      <c r="D105" s="137"/>
+      <c r="D105" s="129"/>
       <c r="E105" s="14"/>
       <c r="F105" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G105" s="139"/>
-      <c r="H105" s="137"/>
+      <c r="G105" s="131"/>
+      <c r="H105" s="129"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
       <c r="K105" s="16"/>
@@ -3829,15 +3803,15 @@
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
-      <c r="D106" s="137"/>
+      <c r="D106" s="129"/>
       <c r="E106" s="14"/>
       <c r="F106" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G106" s="139" t="s">
+      <c r="G106" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H106" s="137"/>
+      <c r="H106" s="129"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
       <c r="K106" s="16"/>
@@ -3851,7 +3825,7 @@
       <c r="F107" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="139"/>
+      <c r="G107" s="131"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
@@ -3866,7 +3840,7 @@
       <c r="F108" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G108" s="139"/>
+      <c r="G108" s="131"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="14"/>
@@ -3893,7 +3867,7 @@
       <c r="C110" s="14"/>
       <c r="D110" s="14"/>
       <c r="E110" s="14"/>
-      <c r="F110" s="140" t="s">
+      <c r="F110" s="133" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="14"/>
@@ -3908,7 +3882,7 @@
       <c r="C111" s="14"/>
       <c r="D111" s="14"/>
       <c r="E111" s="14"/>
-      <c r="F111" s="140"/>
+      <c r="F111" s="133"/>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
@@ -3966,7 +3940,7 @@
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
-      <c r="F115" s="140" t="s">
+      <c r="F115" s="133" t="s">
         <v>19</v>
       </c>
       <c r="G115" s="14"/>
@@ -3981,7 +3955,7 @@
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
-      <c r="F116" s="140"/>
+      <c r="F116" s="133"/>
       <c r="G116" s="14"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
@@ -3994,7 +3968,7 @@
       <c r="C117" s="14"/>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
-      <c r="F117" s="140"/>
+      <c r="F117" s="133"/>
       <c r="G117" s="14"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
@@ -4033,33 +4007,11 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F115:F117"/>
     <mergeCell ref="H73:H75"/>
     <mergeCell ref="F95:F96"/>
     <mergeCell ref="F100:F102"/>
@@ -4076,11 +4028,33 @@
     <mergeCell ref="G75:G77"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F115:F117"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4155,13 +4129,13 @@
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="132" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="138" t="s">
+      <c r="E2" s="132" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -4170,10 +4144,10 @@
       <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="138" t="s">
+      <c r="H2" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="138" t="s">
+      <c r="I2" s="132" t="s">
         <v>33</v>
       </c>
       <c r="J2" s="2"/>
@@ -4183,15 +4157,15 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="137"/>
+      <c r="C3" s="129"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="137"/>
+      <c r="E3" s="129"/>
       <c r="F3" s="5"/>
       <c r="G3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
       <c r="L3" s="5"/>
@@ -4201,13 +4175,13 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="137"/>
+      <c r="E4" s="129"/>
       <c r="F4" s="5"/>
       <c r="G4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
       <c r="J4" s="5"/>
       <c r="K4" s="6"/>
       <c r="L4" s="5"/>
@@ -4222,7 +4196,7 @@
       <c r="G5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="137"/>
+      <c r="H5" s="129"/>
       <c r="I5" s="6"/>
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
@@ -4238,8 +4212,8 @@
       <c r="G6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="137"/>
-      <c r="I6" s="144" t="s">
+      <c r="H6" s="129"/>
+      <c r="I6" s="136" t="s">
         <v>52</v>
       </c>
       <c r="J6" s="5"/>
@@ -4257,7 +4231,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="144"/>
+      <c r="I7" s="136"/>
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
       <c r="L7" s="5"/>
@@ -4273,7 +4247,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="144"/>
+      <c r="I8" s="136"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="5"/>
@@ -4413,13 +4387,13 @@
       <c r="B17" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="138" t="s">
+      <c r="C17" s="132" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="138" t="s">
+      <c r="E17" s="132" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="20" t="s">
@@ -4428,10 +4402,10 @@
       <c r="G17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="138" t="s">
+      <c r="H17" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="138" t="s">
+      <c r="I17" s="132" t="s">
         <v>33</v>
       </c>
       <c r="J17" s="20"/>
@@ -4441,15 +4415,15 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="21"/>
-      <c r="C18" s="137"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="137"/>
+      <c r="E18" s="129"/>
       <c r="F18" s="21"/>
       <c r="G18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
@@ -4459,13 +4433,13 @@
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="137"/>
+      <c r="E19" s="129"/>
       <c r="F19" s="21"/>
       <c r="G19" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
@@ -4480,7 +4454,7 @@
       <c r="G20" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="137"/>
+      <c r="H20" s="129"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
@@ -4496,8 +4470,8 @@
       <c r="G21" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="137"/>
-      <c r="I21" s="144" t="s">
+      <c r="H21" s="129"/>
+      <c r="I21" s="136" t="s">
         <v>52</v>
       </c>
       <c r="J21" s="21"/>
@@ -4515,7 +4489,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="21"/>
-      <c r="I22" s="144"/>
+      <c r="I22" s="136"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
@@ -4531,7 +4505,7 @@
         <v>16</v>
       </c>
       <c r="H23" s="21"/>
-      <c r="I23" s="144"/>
+      <c r="I23" s="136"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
@@ -4666,16 +4640,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I6:I8"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="H17:H21"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="I21:I23"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="I6:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4686,7 +4660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8614EB4E-DBD6-4335-8AC7-592BA2F011D7}">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
@@ -4755,28 +4729,28 @@
       <c r="A2" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="148" t="s">
         <v>144</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="148" t="s">
         <v>145</v>
       </c>
       <c r="E2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="153" t="s">
+      <c r="F2" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="163" t="s">
+      <c r="G2" s="150" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="153" t="s">
+      <c r="H2" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="153" t="s">
+      <c r="I2" s="148" t="s">
         <v>149</v>
       </c>
       <c r="J2" s="57" t="s">
@@ -4785,47 +4759,47 @@
       <c r="K2" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="153"/>
-      <c r="M2" s="147" t="s">
+      <c r="L2" s="148"/>
+      <c r="M2" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="N2" s="99"/>
+      <c r="N2" s="91"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
-      <c r="B3" s="154"/>
+      <c r="B3" s="149"/>
       <c r="C3" s="59"/>
-      <c r="D3" s="154"/>
+      <c r="D3" s="149"/>
       <c r="E3" s="60"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154" t="s">
+      <c r="F3" s="149"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149" t="s">
         <v>147</v>
       </c>
       <c r="K3" s="61"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="148"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="141"/>
       <c r="N3" s="61"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="149" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="60"/>
       <c r="F4" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="148" t="s">
+      <c r="G4" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="154"/>
+      <c r="H4" s="149"/>
       <c r="I4" s="59"/>
-      <c r="J4" s="154"/>
+      <c r="J4" s="149"/>
       <c r="K4" s="61"/>
       <c r="L4" s="63"/>
       <c r="M4" s="61"/>
@@ -4835,17 +4809,17 @@
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
-      <c r="D5" s="154"/>
+      <c r="D5" s="149"/>
       <c r="E5" s="60"/>
       <c r="F5" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148" t="s">
+      <c r="G5" s="141"/>
+      <c r="H5" s="141" t="s">
         <v>52</v>
       </c>
       <c r="I5" s="61"/>
-      <c r="J5" s="148" t="s">
+      <c r="J5" s="141" t="s">
         <v>148</v>
       </c>
       <c r="K5" s="61"/>
@@ -4857,15 +4831,15 @@
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="60"/>
-      <c r="D6" s="154"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="60"/>
       <c r="F6" s="59" t="s">
         <v>151</v>
       </c>
       <c r="G6" s="60"/>
-      <c r="H6" s="148"/>
+      <c r="H6" s="141"/>
       <c r="I6" s="61"/>
-      <c r="J6" s="148"/>
+      <c r="J6" s="141"/>
       <c r="K6" s="61"/>
       <c r="L6" s="63"/>
       <c r="M6" s="61"/>
@@ -4875,13 +4849,13 @@
       <c r="A7" s="58"/>
       <c r="B7" s="59"/>
       <c r="C7" s="60"/>
-      <c r="D7" s="154"/>
+      <c r="D7" s="149"/>
       <c r="E7" s="60"/>
       <c r="F7" s="59" t="s">
         <v>152</v>
       </c>
       <c r="G7" s="60"/>
-      <c r="H7" s="148"/>
+      <c r="H7" s="141"/>
       <c r="I7" s="61"/>
       <c r="J7" s="64"/>
       <c r="K7" s="61"/>
@@ -4893,11 +4867,11 @@
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="60"/>
-      <c r="D8" s="154"/>
+      <c r="D8" s="149"/>
       <c r="E8" s="60"/>
       <c r="F8" s="65"/>
       <c r="G8" s="60"/>
-      <c r="H8" s="165"/>
+      <c r="H8" s="152"/>
       <c r="I8" s="65"/>
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
@@ -4909,81 +4883,81 @@
       <c r="A9" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="121" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="121" t="s">
         <v>101</v>
       </c>
       <c r="E9" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="129" t="s">
+      <c r="F9" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="161" t="s">
+      <c r="G9" s="145" t="s">
         <v>136</v>
       </c>
       <c r="H9" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="131" t="s">
+      <c r="I9" s="123" t="s">
         <v>155</v>
       </c>
       <c r="J9" s="70" t="s">
         <v>125</v>
       </c>
       <c r="K9" s="70"/>
-      <c r="L9" s="129"/>
+      <c r="L9" s="121"/>
       <c r="M9" s="32"/>
-      <c r="N9" s="131" t="s">
+      <c r="N9" s="123" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="69"/>
-      <c r="B10" s="130"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="67"/>
-      <c r="D10" s="130"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="71"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="162"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="146"/>
       <c r="H10" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="132"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="71" t="s">
         <v>127</v>
       </c>
       <c r="K10" s="71"/>
-      <c r="L10" s="130"/>
+      <c r="L10" s="122"/>
       <c r="M10" s="36"/>
-      <c r="N10" s="132"/>
+      <c r="N10" s="124"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="69"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
-      <c r="D11" s="130"/>
+      <c r="D11" s="122"/>
       <c r="E11" s="71"/>
       <c r="F11" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="162" t="s">
+      <c r="G11" s="146" t="s">
         <v>140</v>
       </c>
       <c r="H11" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="132"/>
+      <c r="I11" s="124"/>
       <c r="J11" s="71" t="s">
         <v>128</v>
       </c>
       <c r="K11" s="71"/>
-      <c r="L11" s="130"/>
+      <c r="L11" s="122"/>
       <c r="M11" s="36"/>
       <c r="N11" s="36" t="s">
         <v>200</v>
@@ -4993,23 +4967,23 @@
       <c r="A12" s="69"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="122" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="71"/>
       <c r="F12" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="G12" s="162"/>
-      <c r="H12" s="130" t="s">
+      <c r="G12" s="146"/>
+      <c r="H12" s="122" t="s">
         <v>137</v>
       </c>
       <c r="I12" s="67"/>
-      <c r="J12" s="167" t="s">
+      <c r="J12" s="147" t="s">
         <v>137</v>
       </c>
       <c r="K12" s="71"/>
-      <c r="L12" s="130"/>
+      <c r="L12" s="122"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
     </row>
@@ -5017,15 +4991,15 @@
       <c r="A13" s="69"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
-      <c r="D13" s="130"/>
+      <c r="D13" s="122"/>
       <c r="E13" s="71"/>
       <c r="F13" s="67" t="s">
         <v>151</v>
       </c>
       <c r="G13" s="72"/>
-      <c r="H13" s="130"/>
+      <c r="H13" s="122"/>
       <c r="I13" s="67"/>
-      <c r="J13" s="167"/>
+      <c r="J13" s="147"/>
       <c r="K13" s="71"/>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
@@ -5043,9 +5017,9 @@
         <v>152</v>
       </c>
       <c r="G14" s="72"/>
-      <c r="H14" s="130"/>
+      <c r="H14" s="122"/>
       <c r="I14" s="67"/>
-      <c r="J14" s="167"/>
+      <c r="J14" s="147"/>
       <c r="K14" s="71"/>
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
@@ -5063,8 +5037,8 @@
       <c r="G15" s="72"/>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="98"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
@@ -5073,22 +5047,22 @@
       <c r="A16" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="153" t="s">
+      <c r="D16" s="148" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="149" t="s">
+      <c r="F16" s="157" t="s">
         <v>158</v>
       </c>
-      <c r="G16" s="99" t="s">
+      <c r="G16" s="91" t="s">
         <v>160</v>
       </c>
       <c r="H16" s="77" t="s">
@@ -5100,21 +5074,21 @@
       <c r="J16" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="K16" s="101"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="147" t="s">
+      <c r="K16" s="93"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="140" t="s">
         <v>191</v>
       </c>
-      <c r="N16" s="99"/>
+      <c r="N16" s="91"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="79"/>
-      <c r="B17" s="148"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="61"/>
-      <c r="D17" s="154"/>
+      <c r="D17" s="149"/>
       <c r="E17" s="60"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="154" t="s">
+      <c r="F17" s="158"/>
+      <c r="G17" s="149" t="s">
         <v>140</v>
       </c>
       <c r="H17" s="78" t="s">
@@ -5126,21 +5100,21 @@
       </c>
       <c r="K17" s="63"/>
       <c r="L17" s="61"/>
-      <c r="M17" s="148"/>
+      <c r="M17" s="141"/>
       <c r="N17" s="61"/>
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="79"/>
-      <c r="B18" s="148"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="61"/>
       <c r="D18" s="78" t="s">
         <v>188</v>
       </c>
       <c r="E18" s="60"/>
-      <c r="F18" s="102" t="s">
+      <c r="F18" s="94" t="s">
         <v>178</v>
       </c>
-      <c r="G18" s="154"/>
+      <c r="G18" s="149"/>
       <c r="H18" s="78" t="s">
         <v>128</v>
       </c>
@@ -5150,18 +5124,18 @@
       </c>
       <c r="K18" s="63"/>
       <c r="L18" s="61"/>
-      <c r="M18" s="148"/>
+      <c r="M18" s="141"/>
       <c r="N18" s="61"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="79"/>
-      <c r="B19" s="148"/>
+      <c r="B19" s="141"/>
       <c r="C19" s="61"/>
       <c r="D19" s="78" t="s">
         <v>189</v>
       </c>
       <c r="E19" s="60"/>
-      <c r="F19" s="102" t="s">
+      <c r="F19" s="94" t="s">
         <v>159</v>
       </c>
       <c r="G19" s="79"/>
@@ -5181,7 +5155,7 @@
       <c r="C20" s="61"/>
       <c r="D20" s="78"/>
       <c r="E20" s="60"/>
-      <c r="F20" s="103"/>
+      <c r="F20" s="95"/>
       <c r="G20" s="61"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
@@ -5197,7 +5171,7 @@
       <c r="C21" s="61"/>
       <c r="D21" s="78"/>
       <c r="E21" s="60"/>
-      <c r="F21" s="103"/>
+      <c r="F21" s="95"/>
       <c r="G21" s="61"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
@@ -5213,7 +5187,7 @@
       <c r="C22" s="61"/>
       <c r="D22" s="78"/>
       <c r="E22" s="60"/>
-      <c r="F22" s="103"/>
+      <c r="F22" s="95"/>
       <c r="G22" s="61"/>
       <c r="H22" s="61"/>
       <c r="I22" s="61"/>
@@ -5224,70 +5198,70 @@
       <c r="N22" s="65"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="123" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="129" t="s">
+      <c r="D23" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="96" t="s">
+      <c r="E23" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="159" t="s">
+      <c r="F23" s="155" t="s">
         <v>153</v>
       </c>
-      <c r="G23" s="131" t="s">
+      <c r="G23" s="123" t="s">
         <v>184</v>
       </c>
-      <c r="H23" s="92" t="s">
+      <c r="H23" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="I23" s="131"/>
+      <c r="I23" s="123"/>
       <c r="J23" s="52"/>
       <c r="K23" s="52"/>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
-      <c r="N23" s="131" t="s">
+      <c r="N23" s="123" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="132"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="36"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="93" t="s">
+      <c r="D24" s="122"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="I24" s="132"/>
+      <c r="I24" s="124"/>
       <c r="J24" s="40"/>
       <c r="K24" s="40"/>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
-      <c r="N24" s="132"/>
+      <c r="N24" s="124"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="132"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="124"/>
       <c r="C25" s="36"/>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="115"/>
+      <c r="E25" s="107"/>
       <c r="F25" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="G25" s="132"/>
-      <c r="H25" s="93" t="s">
+      <c r="G25" s="124"/>
+      <c r="H25" s="85" t="s">
         <v>128</v>
       </c>
       <c r="I25" s="36"/>
@@ -5295,20 +5269,20 @@
       <c r="K25" s="40"/>
       <c r="L25" s="36"/>
       <c r="M25" s="36"/>
-      <c r="N25" s="132"/>
+      <c r="N25" s="124"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
+      <c r="A26" s="87"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
-      <c r="D26" s="93" t="s">
+      <c r="D26" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="E26" s="115"/>
+      <c r="E26" s="107"/>
       <c r="F26" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="G26" s="132" t="s">
+      <c r="G26" s="124" t="s">
         <v>140</v>
       </c>
       <c r="H26" s="36"/>
@@ -5317,16 +5291,16 @@
       <c r="K26" s="40"/>
       <c r="L26" s="36"/>
       <c r="M26" s="36"/>
-      <c r="N26" s="132"/>
+      <c r="N26" s="124"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
+      <c r="A27" s="87"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="115"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="107"/>
       <c r="F27" s="73"/>
-      <c r="G27" s="132"/>
+      <c r="G27" s="124"/>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="40"/>
@@ -5336,28 +5310,28 @@
       <c r="N27" s="41"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="153" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="129" t="s">
+      <c r="D28" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="96" t="s">
+      <c r="E28" s="88" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="G28" s="157" t="s">
+      <c r="G28" s="153" t="s">
         <v>202</v>
       </c>
-      <c r="H28" s="92" t="s">
+      <c r="H28" s="84" t="s">
         <v>125</v>
       </c>
       <c r="I28" s="32"/>
@@ -5365,19 +5339,19 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
       <c r="M28" s="32"/>
-      <c r="N28" s="131"/>
+      <c r="N28" s="123"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
-      <c r="B29" s="158"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="154"/>
       <c r="C29" s="36"/>
-      <c r="D29" s="130"/>
+      <c r="D29" s="122"/>
       <c r="E29" s="40"/>
       <c r="F29" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="G29" s="158"/>
-      <c r="H29" s="93" t="s">
+      <c r="G29" s="154"/>
+      <c r="H29" s="85" t="s">
         <v>127</v>
       </c>
       <c r="I29" s="36"/>
@@ -5385,13 +5359,13 @@
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
-      <c r="N29" s="132"/>
+      <c r="N29" s="124"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="95"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="85" t="s">
         <v>188</v>
       </c>
       <c r="E30" s="40"/>
@@ -5399,7 +5373,7 @@
         <v>195</v>
       </c>
       <c r="G30" s="36"/>
-      <c r="H30" s="93" t="s">
+      <c r="H30" s="85" t="s">
         <v>128</v>
       </c>
       <c r="I30" s="36"/>
@@ -5410,10 +5384,10 @@
       <c r="N30" s="36"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
-      <c r="D31" s="93" t="s">
+      <c r="D31" s="85" t="s">
         <v>189</v>
       </c>
       <c r="E31" s="40"/>
@@ -5421,7 +5395,7 @@
         <v>201</v>
       </c>
       <c r="G31" s="36"/>
-      <c r="H31" s="132" t="s">
+      <c r="H31" s="124" t="s">
         <v>203</v>
       </c>
       <c r="I31" s="36"/>
@@ -5432,16 +5406,16 @@
       <c r="N31" s="36"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
-      <c r="D32" s="93"/>
+      <c r="D32" s="85"/>
       <c r="E32" s="40"/>
       <c r="F32" s="38" t="s">
         <v>196</v>
       </c>
       <c r="G32" s="36"/>
-      <c r="H32" s="132"/>
+      <c r="H32" s="124"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
@@ -5450,16 +5424,16 @@
       <c r="N32" s="36"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
-      <c r="D33" s="93"/>
+      <c r="D33" s="85"/>
       <c r="E33" s="40"/>
       <c r="F33" s="38" t="s">
         <v>119</v>
       </c>
       <c r="G33" s="36"/>
-      <c r="H33" s="132"/>
+      <c r="H33" s="124"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
@@ -5468,14 +5442,14 @@
       <c r="N33" s="36"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
+      <c r="A34" s="87"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
       <c r="E34" s="40"/>
       <c r="F34" s="73"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="95"/>
+      <c r="H34" s="87"/>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
       <c r="K34" s="36"/>
@@ -5484,210 +5458,210 @@
       <c r="N34" s="41"/>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="107" t="s">
+      <c r="A35" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="129" t="s">
+      <c r="B35" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="105" t="s">
+      <c r="C35" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="129" t="s">
+      <c r="D35" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="E35" s="129" t="s">
+      <c r="E35" s="121" t="s">
         <v>207</v>
       </c>
-      <c r="F35" s="155" t="s">
+      <c r="F35" s="142" t="s">
         <v>205</v>
       </c>
-      <c r="G35" s="129" t="s">
+      <c r="G35" s="121" t="s">
         <v>202</v>
       </c>
-      <c r="H35" s="105" t="s">
+      <c r="H35" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="I35" s="129" t="s">
+      <c r="I35" s="121" t="s">
         <v>217</v>
       </c>
-      <c r="J35" s="105" t="s">
+      <c r="J35" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="K35" s="113"/>
+      <c r="K35" s="105"/>
       <c r="L35" s="32"/>
       <c r="M35" s="32"/>
       <c r="N35" s="32"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
-      <c r="B36" s="130"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="106" t="s">
+      <c r="A36" s="100"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="I36" s="130"/>
-      <c r="J36" s="106" t="s">
+      <c r="I36" s="122"/>
+      <c r="J36" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="K36" s="114"/>
+      <c r="K36" s="106"/>
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106" t="s">
+      <c r="A37" s="100"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="E37" s="106"/>
+      <c r="E37" s="98"/>
       <c r="F37" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="G37" s="130"/>
-      <c r="H37" s="106" t="s">
+      <c r="G37" s="122"/>
+      <c r="H37" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106" t="s">
+      <c r="I37" s="98"/>
+      <c r="J37" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="K37" s="114"/>
+      <c r="K37" s="106"/>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
       <c r="N37" s="36"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106" t="s">
+      <c r="A38" s="100"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="E38" s="106"/>
+      <c r="E38" s="98"/>
       <c r="F38" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130" t="s">
+      <c r="G38" s="122"/>
+      <c r="H38" s="122" t="s">
         <v>203</v>
       </c>
-      <c r="I38" s="106"/>
-      <c r="J38" s="130" t="s">
+      <c r="I38" s="98"/>
+      <c r="J38" s="122" t="s">
         <v>203</v>
       </c>
-      <c r="K38" s="114"/>
+      <c r="K38" s="106"/>
       <c r="L38" s="36"/>
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="108"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="130" t="s">
+      <c r="A39" s="100"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="122" t="s">
         <v>204</v>
       </c>
-      <c r="E39" s="106"/>
+      <c r="E39" s="98"/>
       <c r="F39" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="114"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="122"/>
+      <c r="K39" s="106"/>
       <c r="L39" s="36"/>
       <c r="M39" s="36"/>
       <c r="N39" s="36"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="106"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="98"/>
       <c r="F40" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="114"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="106"/>
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
       <c r="N40" s="36"/>
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="109" t="s">
+      <c r="A41" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="151" t="s">
+      <c r="B41" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="99" t="s">
+      <c r="C41" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="153" t="s">
+      <c r="D41" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="100" t="s">
+      <c r="E41" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="116" t="s">
+      <c r="F41" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="99" t="s">
+      <c r="G41" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="153" t="s">
+      <c r="H41" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="I41" s="99"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
-      <c r="N41" s="147" t="s">
+      <c r="I41" s="91"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="140" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="110"/>
-      <c r="B42" s="152"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="160"/>
       <c r="C42" s="61"/>
-      <c r="D42" s="154"/>
+      <c r="D42" s="149"/>
       <c r="E42" s="60"/>
-      <c r="F42" s="103" t="s">
+      <c r="F42" s="95" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="61"/>
-      <c r="H42" s="154"/>
+      <c r="H42" s="149"/>
       <c r="I42" s="61"/>
       <c r="J42" s="63"/>
       <c r="K42" s="63"/>
       <c r="L42" s="61"/>
       <c r="M42" s="61"/>
-      <c r="N42" s="148"/>
+      <c r="N42" s="141"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="110"/>
-      <c r="B43" s="152"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="160"/>
       <c r="C43" s="61"/>
-      <c r="D43" s="154"/>
+      <c r="D43" s="149"/>
       <c r="E43" s="60"/>
-      <c r="F43" s="103" t="s">
+      <c r="F43" s="95" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="61"/>
-      <c r="H43" s="154"/>
+      <c r="H43" s="149"/>
       <c r="I43" s="61"/>
       <c r="J43" s="63"/>
       <c r="K43" s="63"/>
@@ -5696,12 +5670,12 @@
       <c r="N43" s="61"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="110"/>
-      <c r="B44" s="152"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="160"/>
       <c r="C44" s="61"/>
       <c r="D44" s="61"/>
       <c r="E44" s="60"/>
-      <c r="F44" s="103" t="s">
+      <c r="F44" s="95" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="61"/>
@@ -5714,12 +5688,12 @@
       <c r="N44" s="61"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="110"/>
+      <c r="A45" s="102"/>
       <c r="B45" s="61"/>
       <c r="C45" s="61"/>
       <c r="D45" s="61"/>
       <c r="E45" s="60"/>
-      <c r="F45" s="103" t="s">
+      <c r="F45" s="95" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="61"/>
@@ -5732,12 +5706,12 @@
       <c r="N45" s="61"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="110"/>
+      <c r="A46" s="102"/>
       <c r="B46" s="61"/>
       <c r="C46" s="61"/>
       <c r="D46" s="61"/>
       <c r="E46" s="60"/>
-      <c r="F46" s="103" t="s">
+      <c r="F46" s="95" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="61"/>
@@ -5750,12 +5724,12 @@
       <c r="N46" s="61"/>
     </row>
     <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="110"/>
+      <c r="A47" s="102"/>
       <c r="B47" s="61"/>
       <c r="C47" s="61"/>
       <c r="D47" s="61"/>
       <c r="E47" s="60"/>
-      <c r="F47" s="103" t="s">
+      <c r="F47" s="95" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="61"/>
@@ -5768,12 +5742,12 @@
       <c r="N47" s="61"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="110"/>
+      <c r="A48" s="102"/>
       <c r="B48" s="61"/>
       <c r="C48" s="61"/>
       <c r="D48" s="61"/>
       <c r="E48" s="60"/>
-      <c r="F48" s="103" t="s">
+      <c r="F48" s="95" t="s">
         <v>17</v>
       </c>
       <c r="G48" s="61"/>
@@ -5786,12 +5760,12 @@
       <c r="N48" s="61"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="110"/>
+      <c r="A49" s="102"/>
       <c r="B49" s="61"/>
       <c r="C49" s="61"/>
       <c r="D49" s="61"/>
       <c r="E49" s="60"/>
-      <c r="F49" s="103" t="s">
+      <c r="F49" s="95" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="61"/>
@@ -5804,12 +5778,12 @@
       <c r="N49" s="61"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="110"/>
+      <c r="A50" s="102"/>
       <c r="B50" s="61"/>
       <c r="C50" s="61"/>
       <c r="D50" s="61"/>
       <c r="E50" s="60"/>
-      <c r="F50" s="103" t="s">
+      <c r="F50" s="95" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="61"/>
@@ -5822,12 +5796,12 @@
       <c r="N50" s="61"/>
     </row>
     <row r="51" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="110"/>
+      <c r="A51" s="102"/>
       <c r="B51" s="61"/>
       <c r="C51" s="61"/>
       <c r="D51" s="61"/>
       <c r="E51" s="60"/>
-      <c r="F51" s="103" t="s">
+      <c r="F51" s="95" t="s">
         <v>19</v>
       </c>
       <c r="G51" s="61"/>
@@ -5840,12 +5814,12 @@
       <c r="N51" s="61"/>
     </row>
     <row r="52" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="110"/>
+      <c r="A52" s="102"/>
       <c r="B52" s="61"/>
       <c r="C52" s="61"/>
       <c r="D52" s="61"/>
       <c r="E52" s="60"/>
-      <c r="F52" s="111" t="s">
+      <c r="F52" s="103" t="s">
         <v>54</v>
       </c>
       <c r="G52" s="61"/>
@@ -5858,52 +5832,52 @@
       <c r="N52" s="61"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="112"/>
+      <c r="A53" s="104"/>
       <c r="B53" s="65"/>
       <c r="C53" s="65"/>
       <c r="D53" s="65"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="118" t="s">
+      <c r="E53" s="109"/>
+      <c r="F53" s="110" t="s">
         <v>31</v>
       </c>
       <c r="G53" s="65"/>
       <c r="H53" s="65"/>
       <c r="I53" s="65"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="119"/>
+      <c r="J53" s="111"/>
+      <c r="K53" s="111"/>
       <c r="L53" s="65"/>
       <c r="M53" s="65"/>
       <c r="N53" s="65"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="107" t="s">
+      <c r="A54" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="131" t="s">
+      <c r="B54" s="123" t="s">
         <v>61</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="129" t="s">
+      <c r="D54" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="E54" s="129" t="s">
+      <c r="E54" s="121" t="s">
         <v>207</v>
       </c>
-      <c r="F54" s="155" t="s">
+      <c r="F54" s="142" t="s">
         <v>205</v>
       </c>
-      <c r="G54" s="131" t="s">
+      <c r="G54" s="123" t="s">
         <v>184</v>
       </c>
-      <c r="H54" s="105" t="s">
+      <c r="H54" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="I54" s="131" t="s">
+      <c r="I54" s="123" t="s">
         <v>211</v>
       </c>
-      <c r="J54" s="105" t="s">
+      <c r="J54" s="97" t="s">
         <v>125</v>
       </c>
       <c r="K54" s="52"/>
@@ -5912,18 +5886,18 @@
       <c r="N54" s="32"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
-      <c r="B55" s="132"/>
+      <c r="A55" s="100"/>
+      <c r="B55" s="124"/>
       <c r="C55" s="36"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="130"/>
-      <c r="F55" s="156"/>
-      <c r="G55" s="132"/>
-      <c r="H55" s="106" t="s">
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="143"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="I55" s="132"/>
-      <c r="J55" s="106" t="s">
+      <c r="I55" s="124"/>
+      <c r="J55" s="98" t="s">
         <v>127</v>
       </c>
       <c r="K55" s="40"/>
@@ -5932,22 +5906,22 @@
       <c r="N55" s="36"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="108"/>
-      <c r="B56" s="132"/>
+      <c r="A56" s="100"/>
+      <c r="B56" s="124"/>
       <c r="C56" s="36"/>
-      <c r="D56" s="106" t="s">
+      <c r="D56" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="E56" s="115"/>
+      <c r="E56" s="107"/>
       <c r="F56" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="G56" s="132"/>
-      <c r="H56" s="106" t="s">
+      <c r="G56" s="124"/>
+      <c r="H56" s="98" t="s">
         <v>128</v>
       </c>
       <c r="I56" s="36"/>
-      <c r="J56" s="106" t="s">
+      <c r="J56" s="98" t="s">
         <v>128</v>
       </c>
       <c r="K56" s="40"/>
@@ -5956,24 +5930,24 @@
       <c r="N56" s="36"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="108"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
       <c r="D57" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="E57" s="115"/>
+      <c r="E57" s="107"/>
       <c r="F57" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="G57" s="108" t="s">
+      <c r="G57" s="100" t="s">
         <v>210</v>
       </c>
-      <c r="H57" s="132" t="s">
+      <c r="H57" s="124" t="s">
         <v>203</v>
       </c>
       <c r="I57" s="36"/>
-      <c r="J57" s="132" t="s">
+      <c r="J57" s="124" t="s">
         <v>203</v>
       </c>
       <c r="K57" s="40"/>
@@ -5982,66 +5956,66 @@
       <c r="N57" s="36"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="108"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="115"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="107"/>
       <c r="F58" s="73"/>
-      <c r="G58" s="108"/>
-      <c r="H58" s="132"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="124"/>
       <c r="I58" s="36"/>
-      <c r="J58" s="132"/>
+      <c r="J58" s="124"/>
       <c r="K58" s="40"/>
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="108"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
-      <c r="D59" s="132"/>
-      <c r="E59" s="115"/>
+      <c r="D59" s="124"/>
+      <c r="E59" s="107"/>
       <c r="F59" s="73"/>
-      <c r="G59" s="108"/>
-      <c r="H59" s="132"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="124"/>
       <c r="I59" s="36"/>
-      <c r="J59" s="132"/>
+      <c r="J59" s="124"/>
       <c r="K59" s="40"/>
       <c r="L59" s="36"/>
       <c r="M59" s="41"/>
       <c r="N59" s="36"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="131" t="s">
+      <c r="B60" s="123" t="s">
         <v>212</v>
       </c>
       <c r="C60" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="131" t="s">
+      <c r="D60" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="131" t="s">
+      <c r="E60" s="123" t="s">
         <v>207</v>
       </c>
-      <c r="F60" s="129" t="s">
+      <c r="F60" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="G60" s="161" t="s">
+      <c r="G60" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="H60" s="105" t="s">
+      <c r="H60" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="I60" s="131" t="s">
+      <c r="I60" s="123" t="s">
         <v>217</v>
       </c>
-      <c r="J60" s="105" t="s">
+      <c r="J60" s="97" t="s">
         <v>125</v>
       </c>
       <c r="K60" s="32"/>
@@ -6050,18 +6024,18 @@
       <c r="N60" s="32"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="108"/>
-      <c r="B61" s="132"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="124"/>
       <c r="C61" s="36"/>
-      <c r="D61" s="132"/>
-      <c r="E61" s="132"/>
-      <c r="F61" s="130"/>
-      <c r="G61" s="162"/>
-      <c r="H61" s="106" t="s">
+      <c r="D61" s="124"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="146"/>
+      <c r="H61" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="I61" s="132"/>
-      <c r="J61" s="106" t="s">
+      <c r="I61" s="124"/>
+      <c r="J61" s="98" t="s">
         <v>127</v>
       </c>
       <c r="K61" s="36"/>
@@ -6070,24 +6044,24 @@
       <c r="N61" s="36"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="108"/>
-      <c r="B62" s="132"/>
+      <c r="A62" s="100"/>
+      <c r="B62" s="124"/>
       <c r="C62" s="36"/>
-      <c r="D62" s="132" t="s">
+      <c r="D62" s="124" t="s">
         <v>157</v>
       </c>
-      <c r="E62" s="115"/>
-      <c r="F62" s="106" t="s">
+      <c r="E62" s="107"/>
+      <c r="F62" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="G62" s="162" t="s">
+      <c r="G62" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="H62" s="106" t="s">
+      <c r="H62" s="98" t="s">
         <v>128</v>
       </c>
       <c r="I62" s="36"/>
-      <c r="J62" s="106" t="s">
+      <c r="J62" s="98" t="s">
         <v>128</v>
       </c>
       <c r="K62" s="36"/>
@@ -6096,20 +6070,20 @@
       <c r="N62" s="36"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="108"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
-      <c r="D63" s="132"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="106" t="s">
+      <c r="D63" s="124"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="G63" s="162"/>
-      <c r="H63" s="130" t="s">
+      <c r="G63" s="146"/>
+      <c r="H63" s="122" t="s">
         <v>203</v>
       </c>
       <c r="I63" s="36"/>
-      <c r="J63" s="130" t="s">
+      <c r="J63" s="122" t="s">
         <v>203</v>
       </c>
       <c r="K63" s="36"/>
@@ -6118,25 +6092,25 @@
       <c r="N63" s="36"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="108"/>
+      <c r="A64" s="100"/>
       <c r="B64" s="36"/>
       <c r="C64" s="36"/>
       <c r="D64" s="36"/>
-      <c r="E64" s="115"/>
-      <c r="F64" s="106" t="s">
+      <c r="E64" s="107"/>
+      <c r="F64" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="G64" s="115"/>
-      <c r="H64" s="130"/>
+      <c r="G64" s="107"/>
+      <c r="H64" s="122"/>
       <c r="I64" s="36"/>
-      <c r="J64" s="130"/>
+      <c r="J64" s="122"/>
       <c r="K64" s="36"/>
       <c r="L64" s="40"/>
       <c r="M64" s="36"/>
       <c r="N64" s="36"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="120"/>
+      <c r="A65" s="112"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
       <c r="D65" s="41"/>
@@ -6145,40 +6119,40 @@
         <v>152</v>
       </c>
       <c r="G65" s="43"/>
-      <c r="H65" s="166"/>
+      <c r="H65" s="144"/>
       <c r="I65" s="41"/>
-      <c r="J65" s="166"/>
+      <c r="J65" s="144"/>
       <c r="K65" s="41"/>
       <c r="L65" s="42"/>
       <c r="M65" s="41"/>
       <c r="N65" s="41"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="121" t="s">
+      <c r="A66" s="113" t="s">
         <v>214</v>
       </c>
-      <c r="B66" s="131" t="s">
+      <c r="B66" s="123" t="s">
         <v>215</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="131" t="s">
+      <c r="D66" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="168" t="s">
+      <c r="E66" s="138" t="s">
         <v>207</v>
       </c>
-      <c r="F66" s="131" t="s">
+      <c r="F66" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G66" s="168" t="s">
+      <c r="G66" s="138" t="s">
         <v>136</v>
       </c>
       <c r="H66" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="I66" s="131" t="s">
+      <c r="I66" s="123" t="s">
         <v>217</v>
       </c>
       <c r="J66" s="32" t="s">
@@ -6190,93 +6164,93 @@
       <c r="N66" s="32"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="122"/>
-      <c r="B67" s="132"/>
-      <c r="C67" s="115"/>
-      <c r="D67" s="132"/>
-      <c r="E67" s="169"/>
-      <c r="F67" s="132"/>
-      <c r="G67" s="169"/>
+      <c r="A67" s="114"/>
+      <c r="B67" s="124"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="124"/>
+      <c r="E67" s="139"/>
+      <c r="F67" s="124"/>
+      <c r="G67" s="139"/>
       <c r="H67" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="I67" s="132"/>
+      <c r="I67" s="124"/>
       <c r="J67" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="K67" s="115"/>
+      <c r="K67" s="107"/>
       <c r="L67" s="36"/>
-      <c r="M67" s="115"/>
+      <c r="M67" s="107"/>
       <c r="N67" s="36"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="122"/>
-      <c r="B68" s="132"/>
-      <c r="C68" s="115"/>
-      <c r="D68" s="132" t="s">
+      <c r="A68" s="114"/>
+      <c r="B68" s="124"/>
+      <c r="C68" s="107"/>
+      <c r="D68" s="124" t="s">
         <v>157</v>
       </c>
-      <c r="E68" s="115"/>
+      <c r="E68" s="107"/>
       <c r="F68" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="G68" s="169" t="s">
+      <c r="G68" s="139" t="s">
         <v>140</v>
       </c>
       <c r="H68" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="I68" s="115"/>
+      <c r="I68" s="107"/>
       <c r="J68" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="K68" s="115"/>
+      <c r="K68" s="107"/>
       <c r="L68" s="36"/>
-      <c r="M68" s="115"/>
+      <c r="M68" s="107"/>
       <c r="N68" s="36"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="122"/>
+      <c r="A69" s="114"/>
       <c r="B69" s="36"/>
-      <c r="C69" s="115"/>
-      <c r="D69" s="132"/>
-      <c r="E69" s="115"/>
+      <c r="C69" s="107"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="107"/>
       <c r="F69" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="G69" s="169"/>
-      <c r="H69" s="132" t="s">
+      <c r="G69" s="139"/>
+      <c r="H69" s="124" t="s">
         <v>203</v>
       </c>
-      <c r="I69" s="115"/>
-      <c r="J69" s="132" t="s">
+      <c r="I69" s="107"/>
+      <c r="J69" s="124" t="s">
         <v>203</v>
       </c>
-      <c r="K69" s="115"/>
+      <c r="K69" s="107"/>
       <c r="L69" s="36"/>
-      <c r="M69" s="115"/>
+      <c r="M69" s="107"/>
       <c r="N69" s="36"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="122"/>
+      <c r="A70" s="114"/>
       <c r="B70" s="36"/>
-      <c r="C70" s="115"/>
+      <c r="C70" s="107"/>
       <c r="D70" s="36"/>
-      <c r="E70" s="115"/>
+      <c r="E70" s="107"/>
       <c r="F70" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="G70" s="115"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="115"/>
-      <c r="J70" s="132"/>
-      <c r="K70" s="115"/>
+      <c r="G70" s="107"/>
+      <c r="H70" s="124"/>
+      <c r="I70" s="107"/>
+      <c r="J70" s="124"/>
+      <c r="K70" s="107"/>
       <c r="L70" s="36"/>
-      <c r="M70" s="115"/>
+      <c r="M70" s="107"/>
       <c r="N70" s="36"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="123"/>
+      <c r="A71" s="115"/>
       <c r="B71" s="41"/>
       <c r="C71" s="43"/>
       <c r="D71" s="41"/>
@@ -6285,40 +6259,40 @@
         <v>152</v>
       </c>
       <c r="G71" s="43"/>
-      <c r="H71" s="170"/>
+      <c r="H71" s="137"/>
       <c r="I71" s="43"/>
-      <c r="J71" s="170"/>
+      <c r="J71" s="137"/>
       <c r="K71" s="43"/>
       <c r="L71" s="41"/>
       <c r="M71" s="43"/>
       <c r="N71" s="41"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="121" t="s">
+      <c r="A72" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="131" t="s">
+      <c r="B72" s="123" t="s">
         <v>219</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="131" t="s">
+      <c r="D72" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="E72" s="168" t="s">
+      <c r="E72" s="138" t="s">
         <v>207</v>
       </c>
-      <c r="F72" s="131" t="s">
+      <c r="F72" s="123" t="s">
         <v>221</v>
       </c>
-      <c r="G72" s="168" t="s">
+      <c r="G72" s="138" t="s">
         <v>136</v>
       </c>
       <c r="H72" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="I72" s="131" t="s">
+      <c r="I72" s="123" t="s">
         <v>217</v>
       </c>
       <c r="J72" s="32" t="s">
@@ -6330,95 +6304,95 @@
       <c r="N72" s="32"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="122"/>
-      <c r="B73" s="132"/>
-      <c r="C73" s="115"/>
-      <c r="D73" s="132"/>
-      <c r="E73" s="169"/>
-      <c r="F73" s="132"/>
-      <c r="G73" s="169"/>
+      <c r="A73" s="114"/>
+      <c r="B73" s="124"/>
+      <c r="C73" s="107"/>
+      <c r="D73" s="124"/>
+      <c r="E73" s="139"/>
+      <c r="F73" s="124"/>
+      <c r="G73" s="139"/>
       <c r="H73" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="I73" s="132"/>
+      <c r="I73" s="124"/>
       <c r="J73" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="K73" s="115"/>
+      <c r="K73" s="107"/>
       <c r="L73" s="36"/>
-      <c r="M73" s="115"/>
+      <c r="M73" s="107"/>
       <c r="N73" s="36"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="122"/>
+      <c r="A74" s="114"/>
       <c r="B74" s="36"/>
-      <c r="C74" s="115"/>
+      <c r="C74" s="107"/>
       <c r="D74" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="E74" s="115"/>
+      <c r="E74" s="107"/>
       <c r="F74" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="G74" s="169" t="s">
+      <c r="G74" s="139" t="s">
         <v>140</v>
       </c>
       <c r="H74" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="I74" s="115"/>
+      <c r="I74" s="107"/>
       <c r="J74" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="K74" s="115"/>
+      <c r="K74" s="107"/>
       <c r="L74" s="36"/>
-      <c r="M74" s="115"/>
+      <c r="M74" s="107"/>
       <c r="N74" s="36"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="122"/>
+      <c r="A75" s="114"/>
       <c r="B75" s="36"/>
-      <c r="C75" s="115"/>
+      <c r="C75" s="107"/>
       <c r="D75" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="E75" s="115"/>
+      <c r="E75" s="107"/>
       <c r="F75" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="G75" s="169"/>
-      <c r="H75" s="132" t="s">
+      <c r="G75" s="139"/>
+      <c r="H75" s="124" t="s">
         <v>203</v>
       </c>
-      <c r="I75" s="115"/>
-      <c r="J75" s="132" t="s">
+      <c r="I75" s="107"/>
+      <c r="J75" s="124" t="s">
         <v>203</v>
       </c>
-      <c r="K75" s="115"/>
+      <c r="K75" s="107"/>
       <c r="L75" s="36"/>
-      <c r="M75" s="115"/>
+      <c r="M75" s="107"/>
       <c r="N75" s="36"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="122"/>
+      <c r="A76" s="114"/>
       <c r="B76" s="36"/>
-      <c r="C76" s="115"/>
+      <c r="C76" s="107"/>
       <c r="D76" s="36"/>
-      <c r="E76" s="115"/>
+      <c r="E76" s="107"/>
       <c r="F76" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="G76" s="115"/>
-      <c r="H76" s="132"/>
-      <c r="I76" s="115"/>
-      <c r="J76" s="132"/>
-      <c r="K76" s="115"/>
+      <c r="G76" s="107"/>
+      <c r="H76" s="124"/>
+      <c r="I76" s="107"/>
+      <c r="J76" s="124"/>
+      <c r="K76" s="107"/>
       <c r="L76" s="36"/>
-      <c r="M76" s="115"/>
+      <c r="M76" s="107"/>
       <c r="N76" s="36"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="123"/>
+      <c r="A77" s="115"/>
       <c r="B77" s="41"/>
       <c r="C77" s="43"/>
       <c r="D77" s="41"/>
@@ -6427,19 +6401,19 @@
         <v>152</v>
       </c>
       <c r="G77" s="43"/>
-      <c r="H77" s="170"/>
+      <c r="H77" s="137"/>
       <c r="I77" s="43"/>
-      <c r="J77" s="170"/>
+      <c r="J77" s="137"/>
       <c r="K77" s="43"/>
       <c r="L77" s="41"/>
       <c r="M77" s="43"/>
       <c r="N77" s="41"/>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="121" t="s">
+      <c r="A78" s="113" t="s">
         <v>223</v>
       </c>
-      <c r="B78" s="131" t="s">
+      <c r="B78" s="123" t="s">
         <v>228</v>
       </c>
       <c r="C78" s="33" t="s">
@@ -6448,19 +6422,19 @@
       <c r="D78" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E78" s="168" t="s">
+      <c r="E78" s="138" t="s">
         <v>230</v>
       </c>
       <c r="F78" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="G78" s="131" t="s">
+      <c r="G78" s="123" t="s">
         <v>231</v>
       </c>
       <c r="H78" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="I78" s="131" t="s">
+      <c r="I78" s="123" t="s">
         <v>234</v>
       </c>
       <c r="J78" s="32"/>
@@ -6470,96 +6444,96 @@
       <c r="N78" s="32"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="122"/>
-      <c r="B79" s="132"/>
-      <c r="C79" s="115"/>
+      <c r="A79" s="114"/>
+      <c r="B79" s="124"/>
+      <c r="C79" s="107"/>
       <c r="D79" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="E79" s="169"/>
+      <c r="E79" s="139"/>
       <c r="F79" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="G79" s="132"/>
+      <c r="G79" s="124"/>
       <c r="H79" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="I79" s="132"/>
+      <c r="I79" s="124"/>
       <c r="J79" s="36"/>
-      <c r="K79" s="115"/>
+      <c r="K79" s="107"/>
       <c r="L79" s="36"/>
-      <c r="M79" s="115"/>
+      <c r="M79" s="107"/>
       <c r="N79" s="36"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="122"/>
+      <c r="A80" s="114"/>
       <c r="B80" s="36"/>
-      <c r="C80" s="115"/>
+      <c r="C80" s="107"/>
       <c r="D80" s="36"/>
-      <c r="E80" s="115"/>
+      <c r="E80" s="107"/>
       <c r="F80" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="G80" s="132" t="s">
+      <c r="G80" s="124" t="s">
         <v>140</v>
       </c>
       <c r="H80" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="I80" s="115"/>
+      <c r="I80" s="107"/>
       <c r="J80" s="36"/>
-      <c r="K80" s="115"/>
+      <c r="K80" s="107"/>
       <c r="L80" s="36"/>
-      <c r="M80" s="115"/>
+      <c r="M80" s="107"/>
       <c r="N80" s="36"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="122"/>
+      <c r="A81" s="114"/>
       <c r="B81" s="36"/>
-      <c r="C81" s="115"/>
+      <c r="C81" s="107"/>
       <c r="D81" s="36"/>
-      <c r="E81" s="115"/>
+      <c r="E81" s="107"/>
       <c r="F81" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="G81" s="132"/>
-      <c r="H81" s="132" t="s">
+      <c r="G81" s="124"/>
+      <c r="H81" s="124" t="s">
         <v>203</v>
       </c>
-      <c r="I81" s="115"/>
+      <c r="I81" s="107"/>
       <c r="J81" s="36"/>
-      <c r="K81" s="115"/>
+      <c r="K81" s="107"/>
       <c r="L81" s="36"/>
-      <c r="M81" s="115"/>
+      <c r="M81" s="107"/>
       <c r="N81" s="36"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="122"/>
+      <c r="A82" s="114"/>
       <c r="B82" s="36"/>
-      <c r="C82" s="115"/>
+      <c r="C82" s="107"/>
       <c r="D82" s="36"/>
-      <c r="E82" s="115"/>
+      <c r="E82" s="107"/>
       <c r="F82" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="G82" s="124"/>
-      <c r="H82" s="132"/>
-      <c r="I82" s="115"/>
+      <c r="G82" s="116"/>
+      <c r="H82" s="124"/>
+      <c r="I82" s="107"/>
       <c r="J82" s="36"/>
-      <c r="K82" s="115"/>
+      <c r="K82" s="107"/>
       <c r="L82" s="36"/>
-      <c r="M82" s="115"/>
+      <c r="M82" s="107"/>
       <c r="N82" s="36"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="123"/>
+      <c r="A83" s="115"/>
       <c r="B83" s="41"/>
       <c r="C83" s="43"/>
       <c r="D83" s="41"/>
       <c r="E83" s="43"/>
       <c r="F83" s="41"/>
       <c r="G83" s="43"/>
-      <c r="H83" s="170"/>
+      <c r="H83" s="137"/>
       <c r="I83" s="43"/>
       <c r="J83" s="41"/>
       <c r="K83" s="43"/>
@@ -6568,10 +6542,10 @@
       <c r="N83" s="41"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="121" t="s">
+      <c r="A84" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="B84" s="131" t="s">
+      <c r="B84" s="123" t="s">
         <v>229</v>
       </c>
       <c r="C84" s="33" t="s">
@@ -6580,19 +6554,19 @@
       <c r="D84" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E84" s="168" t="s">
+      <c r="E84" s="138" t="s">
         <v>230</v>
       </c>
       <c r="F84" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="G84" s="168" t="s">
+      <c r="G84" s="138" t="s">
         <v>233</v>
       </c>
       <c r="H84" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="I84" s="131" t="s">
+      <c r="I84" s="123" t="s">
         <v>235</v>
       </c>
       <c r="J84" s="32"/>
@@ -6602,96 +6576,96 @@
       <c r="N84" s="32"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="122"/>
-      <c r="B85" s="132"/>
-      <c r="C85" s="115"/>
+      <c r="A85" s="114"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="107"/>
       <c r="D85" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="E85" s="169"/>
+      <c r="E85" s="139"/>
       <c r="F85" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="G85" s="169"/>
+      <c r="G85" s="139"/>
       <c r="H85" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="I85" s="132"/>
+      <c r="I85" s="124"/>
       <c r="J85" s="36"/>
-      <c r="K85" s="115"/>
+      <c r="K85" s="107"/>
       <c r="L85" s="36"/>
-      <c r="M85" s="115"/>
+      <c r="M85" s="107"/>
       <c r="N85" s="36"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="122"/>
+      <c r="A86" s="114"/>
       <c r="B86" s="36"/>
-      <c r="C86" s="115"/>
+      <c r="C86" s="107"/>
       <c r="D86" s="36"/>
-      <c r="E86" s="115"/>
+      <c r="E86" s="107"/>
       <c r="F86" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="G86" s="169" t="s">
+      <c r="G86" s="139" t="s">
         <v>140</v>
       </c>
       <c r="H86" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="I86" s="132"/>
+      <c r="I86" s="124"/>
       <c r="J86" s="36"/>
-      <c r="K86" s="115"/>
+      <c r="K86" s="107"/>
       <c r="L86" s="36"/>
-      <c r="M86" s="115"/>
+      <c r="M86" s="107"/>
       <c r="N86" s="36"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="122"/>
+      <c r="A87" s="114"/>
       <c r="B87" s="36"/>
-      <c r="C87" s="115"/>
+      <c r="C87" s="107"/>
       <c r="D87" s="36"/>
-      <c r="E87" s="115"/>
+      <c r="E87" s="107"/>
       <c r="F87" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="G87" s="169"/>
-      <c r="H87" s="132" t="s">
+      <c r="G87" s="139"/>
+      <c r="H87" s="124" t="s">
         <v>203</v>
       </c>
-      <c r="I87" s="132"/>
+      <c r="I87" s="124"/>
       <c r="J87" s="36"/>
-      <c r="K87" s="115"/>
+      <c r="K87" s="107"/>
       <c r="L87" s="36"/>
-      <c r="M87" s="115"/>
+      <c r="M87" s="107"/>
       <c r="N87" s="36"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="122"/>
+      <c r="A88" s="114"/>
       <c r="B88" s="36"/>
-      <c r="C88" s="115"/>
+      <c r="C88" s="107"/>
       <c r="D88" s="36"/>
-      <c r="E88" s="115"/>
+      <c r="E88" s="107"/>
       <c r="F88" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="G88" s="115"/>
-      <c r="H88" s="132"/>
-      <c r="I88" s="115"/>
+      <c r="G88" s="107"/>
+      <c r="H88" s="124"/>
+      <c r="I88" s="107"/>
       <c r="J88" s="36"/>
-      <c r="K88" s="115"/>
+      <c r="K88" s="107"/>
       <c r="L88" s="36"/>
-      <c r="M88" s="115"/>
+      <c r="M88" s="107"/>
       <c r="N88" s="36"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="123"/>
+      <c r="A89" s="115"/>
       <c r="B89" s="41"/>
       <c r="C89" s="43"/>
       <c r="D89" s="41"/>
       <c r="E89" s="43"/>
       <c r="F89" s="41"/>
       <c r="G89" s="43"/>
-      <c r="H89" s="170"/>
+      <c r="H89" s="137"/>
       <c r="I89" s="43"/>
       <c r="J89" s="41"/>
       <c r="K89" s="43"/>
@@ -6701,34 +6675,55 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="N23:N26"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="M16:M18"/>
     <mergeCell ref="H63:H65"/>
@@ -6753,57 +6748,36 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="N23:N26"/>
-    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J57:J59"/>
     <mergeCell ref="N28:N29"/>
     <mergeCell ref="H31:H33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I72:I73"/>
     <mergeCell ref="G66:G67"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="H69:H71"/>
@@ -6817,8 +6791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05760916-9E37-49D1-B48B-D94D47CC4A32}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6879,7 +6853,7 @@
       <c r="A2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="123" t="s">
         <v>120</v>
       </c>
       <c r="C2" s="32" t="s">
@@ -6897,7 +6871,7 @@
       <c r="G2" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="123" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="32" t="s">
@@ -6907,13 +6881,13 @@
       <c r="K2" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="157" t="s">
+      <c r="L2" s="153" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
-      <c r="B3" s="132"/>
+      <c r="B3" s="124"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
@@ -6923,13 +6897,13 @@
       <c r="G3" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132" t="s">
+      <c r="H3" s="124"/>
+      <c r="I3" s="124" t="s">
         <v>113</v>
       </c>
       <c r="J3" s="36"/>
       <c r="K3" s="36"/>
-      <c r="L3" s="158"/>
+      <c r="L3" s="154"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
@@ -6940,11 +6914,11 @@
       <c r="F4" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="124" t="s">
         <v>115</v>
       </c>
       <c r="H4" s="36"/>
-      <c r="I4" s="132"/>
+      <c r="I4" s="124"/>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
@@ -6958,9 +6932,9 @@
       <c r="F5" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="132"/>
+      <c r="G5" s="124"/>
       <c r="H5" s="36"/>
-      <c r="I5" s="132" t="s">
+      <c r="I5" s="124" t="s">
         <v>117</v>
       </c>
       <c r="J5" s="36"/>
@@ -6978,7 +6952,7 @@
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
-      <c r="I6" s="132"/>
+      <c r="I6" s="124"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
@@ -7003,7 +6977,7 @@
       <c r="A8" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="146" t="s">
+      <c r="B8" s="161" t="s">
         <v>181</v>
       </c>
       <c r="C8" t="s">
@@ -7017,7 +6991,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="145"/>
+      <c r="B9" s="162"/>
       <c r="E9" t="s">
         <v>182</v>
       </c>
@@ -7041,7 +7015,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7102,23 +7076,23 @@
       <c r="A2" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="130" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="138" t="s">
+      <c r="D2" s="132" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="141" t="s">
+      <c r="G2" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="138" t="s">
+      <c r="H2" s="132" t="s">
         <v>51</v>
       </c>
       <c r="I2" s="12"/>
@@ -7128,15 +7102,15 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="139"/>
+      <c r="B3" s="131"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="137"/>
+      <c r="D3" s="129"/>
       <c r="E3" s="15"/>
       <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="137"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="129"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
@@ -7144,15 +7118,15 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="B4" s="139"/>
+      <c r="B4" s="131"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="137"/>
+      <c r="D4" s="129"/>
       <c r="E4" s="15"/>
       <c r="F4" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="137"/>
+      <c r="H4" s="129"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -7214,7 +7188,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="140" t="s">
+      <c r="F8" s="133" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="16"/>
@@ -7230,7 +7204,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="140"/>
+      <c r="F9" s="133"/>
       <c r="G9" s="16"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -7292,7 +7266,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="140" t="s">
+      <c r="F13" s="133" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="16"/>
@@ -7308,7 +7282,7 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="140"/>
+      <c r="F14" s="133"/>
       <c r="G14" s="16"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -7322,7 +7296,7 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="140"/>
+      <c r="F15" s="133"/>
       <c r="G15" s="16"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -7363,129 +7337,123 @@
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="171" t="s">
+      <c r="D18" s="123" t="s">
         <v>168</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="82" t="s">
+      <c r="F18" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="175" t="s">
+      <c r="G18" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="H18" s="171" t="s">
+      <c r="H18" s="123" t="s">
         <v>168</v>
       </c>
-      <c r="I18" s="171" t="s">
+      <c r="I18" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="J18" s="171" t="s">
+      <c r="J18" s="123" t="s">
         <v>175</v>
       </c>
-      <c r="K18" s="82" t="s">
+      <c r="K18" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="L18" s="171" t="s">
+      <c r="L18" s="123" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="84" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="G19" s="176"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="172"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="124"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="174" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="172" t="s">
+      <c r="E20" s="107"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="172"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="124"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="172"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="124"/>
     </row>
     <row r="22" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="172" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="D2:D4"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="J18:J19"/>
@@ -7496,6 +7464,12 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H20:H21"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7515,7 +7489,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="104"/>
+      <c r="A1" s="96"/>
       <c r="B1" s="1" t="s">
         <v>161</v>
       </c>
@@ -7539,8 +7513,8 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="90" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="82" t="s">
         <v>185</v>
       </c>
     </row>

--- a/Requirements/Testing/Test Cases.xlsx
+++ b/Requirements/Testing/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caeta\Desktop\Documents\Proyectos\TimeAdministrator\TimeAdministrator\Requirements\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7605BF-02B3-44DD-8EF6-78F07EAE4678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5E4713-9E1E-4A0E-AF7A-CB0FE71ACE96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20910" windowHeight="13740" tabRatio="696" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="267">
   <si>
     <t>Id</t>
   </si>
@@ -360,12 +360,6 @@
     <t>1. Data loaded correctly in GUI</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>Program continues executing after click on window's close button</t>
-  </si>
-  <si>
     <t>2. Click on "Import from CSV" option</t>
   </si>
   <si>
@@ -381,12 +375,6 @@
     <t>3. Program correctly completely closed after click on window's close button</t>
   </si>
   <si>
-    <t>4. Select "Time2 (10).csv" file</t>
-  </si>
-  <si>
-    <t>3. Program continues executing after click on window's close button</t>
-  </si>
-  <si>
     <t>5. Match each field with it correspondent csv field</t>
   </si>
   <si>
@@ -579,9 +567,6 @@
     <t>Select the data file and before click on "Ok" select another data file</t>
   </si>
   <si>
-    <t>Time1 (2276).csv</t>
-  </si>
-  <si>
     <t>2. Click in other widget</t>
   </si>
   <si>
@@ -739,6 +724,114 @@
   </si>
   <si>
     <t>1. The label is removed without delete the record</t>
+  </si>
+  <si>
+    <t>4. Select "Example data (13 records).csv" file</t>
+  </si>
+  <si>
+    <t>5. Click on "Import" button</t>
+  </si>
+  <si>
+    <t>6. Select "Example data (2936 records).csv" file</t>
+  </si>
+  <si>
+    <t>7. Match each field with it correspondent csv field</t>
+  </si>
+  <si>
+    <t>1. Data of "Example data (2936 records).csv"must to be loaded in main table</t>
+  </si>
+  <si>
+    <t>TC11.3</t>
+  </si>
+  <si>
+    <t>Select a csv file which contains non compatible fields and data</t>
+  </si>
+  <si>
+    <t>Example garbage data (20 records).csv</t>
+  </si>
+  <si>
+    <t>4. Select "Example garbage data (20 records).csv" file</t>
+  </si>
+  <si>
+    <t>TC11.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fields are badly matched with their corresponding </t>
+  </si>
+  <si>
+    <t>5. Match "Data" with "Activity" and "Time" with "People"</t>
+  </si>
+  <si>
+    <t>1. Data is not loaded in the table</t>
+  </si>
+  <si>
+    <t>1. The garbage data which is not coincident is not loaded in the main table</t>
+  </si>
+  <si>
+    <t>2. The workspace csv is loaded with all garbage data</t>
+  </si>
+  <si>
+    <t>2. Workspace csv is loaded with all data in the mismatched fields order</t>
+  </si>
+  <si>
+    <t>TC11.5</t>
+  </si>
+  <si>
+    <t>Press "Cancel" after select de csv to import and match the fields</t>
+  </si>
+  <si>
+    <t>6. Press "Ok" button</t>
+  </si>
+  <si>
+    <t>7. Click on window's close button</t>
+  </si>
+  <si>
+    <t>8. Press "Ok" button</t>
+  </si>
+  <si>
+    <t>9. Click on window's close button</t>
+  </si>
+  <si>
+    <t>1. The import csv windows must to be closed</t>
+  </si>
+  <si>
+    <t>2. Neither data must to be loaded in the main table</t>
+  </si>
+  <si>
+    <t>1. Workspace csv file remains empty</t>
+  </si>
+  <si>
+    <t>TC11.6</t>
+  </si>
+  <si>
+    <t>Select csv with more than 5 fields</t>
+  </si>
+  <si>
+    <t>Example data with more fields (13 records).csv</t>
+  </si>
+  <si>
+    <t>4. Select "Example data with more fields (13 records).csv" file</t>
+  </si>
+  <si>
+    <t>6. Press "Cancel" button</t>
+  </si>
+  <si>
+    <t>TC11.7</t>
+  </si>
+  <si>
+    <t>Select csv with less than 5 fields</t>
+  </si>
+  <si>
+    <t>Example data with less fields (13 records).csv</t>
+  </si>
+  <si>
+    <t>4. Select "Example data with less fields (13 records).csv" file</t>
+  </si>
+  <si>
+    <t>1. Can't be imported because there are not a "No field" option for avoid the duplicated fields in the comboboxes</t>
+  </si>
+  <si>
+    <t>Can't be imported csv with less than 5 fields. The missing field must to be added from excel or from noteblock</t>
   </si>
 </sst>
 </file>
@@ -968,7 +1061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1234,6 +1327,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1315,9 +1417,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1327,20 +1444,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1348,12 +1456,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1365,12 +1467,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1381,9 +1477,9 @@
   <colors>
     <mruColors>
       <color rgb="FF99FF33"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFFFCC99"/>
       <color rgb="FFFF7575"/>
-      <color rgb="FFFFCC99"/>
-      <color rgb="FFFFFF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1725,60 +1821,60 @@
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B2" s="32">
         <v>0</v>
       </c>
-      <c r="C2" s="119" t="s">
-        <v>122</v>
+      <c r="C2" s="124" t="s">
+        <v>118</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="126" t="s">
         <v>101</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="123" t="s">
-        <v>124</v>
+      <c r="H2" s="128" t="s">
+        <v>120</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" s="123" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="J2" s="128" t="s">
+        <v>120</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
-      <c r="C3" s="120"/>
+      <c r="C3" s="125"/>
       <c r="D3" s="36"/>
-      <c r="E3" s="122"/>
+      <c r="E3" s="127"/>
       <c r="F3" s="37"/>
       <c r="G3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="124"/>
+      <c r="H3" s="129"/>
       <c r="I3" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="124"/>
+        <v>123</v>
+      </c>
+      <c r="J3" s="129"/>
       <c r="K3" s="39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
@@ -1788,18 +1884,18 @@
       <c r="B4" s="36"/>
       <c r="C4" s="40"/>
       <c r="D4" s="36"/>
-      <c r="E4" s="122"/>
+      <c r="E4" s="127"/>
       <c r="F4" s="37"/>
       <c r="G4" s="38" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="39" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J4" s="36"/>
       <c r="K4" s="39" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
@@ -1809,10 +1905,10 @@
       <c r="B5" s="36"/>
       <c r="C5" s="40"/>
       <c r="D5" s="36"/>
-      <c r="E5" s="122"/>
+      <c r="E5" s="127"/>
       <c r="F5" s="37"/>
       <c r="G5" s="38" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
@@ -1880,7 +1976,7 @@
       <c r="E9" s="41"/>
       <c r="F9" s="43"/>
       <c r="G9" s="44" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
@@ -1891,33 +1987,33 @@
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B10" s="45">
         <v>0</v>
       </c>
-      <c r="C10" s="125" t="s">
-        <v>132</v>
+      <c r="C10" s="130" t="s">
+        <v>128</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="127" t="s">
+      <c r="E10" s="132" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="125" t="s">
-        <v>124</v>
+      <c r="H10" s="130" t="s">
+        <v>120</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="J10" s="125"/>
+        <v>121</v>
+      </c>
+      <c r="J10" s="130"/>
       <c r="K10" s="47"/>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
@@ -1925,18 +2021,18 @@
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
-      <c r="C11" s="126"/>
+      <c r="C11" s="131"/>
       <c r="D11" s="48"/>
-      <c r="E11" s="128"/>
+      <c r="E11" s="133"/>
       <c r="F11" s="48"/>
       <c r="G11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="126"/>
+      <c r="H11" s="131"/>
       <c r="I11" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="126"/>
+        <v>123</v>
+      </c>
+      <c r="J11" s="131"/>
       <c r="K11" s="50"/>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
@@ -1944,18 +2040,18 @@
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="48"/>
-      <c r="C12" s="126"/>
+      <c r="C12" s="131"/>
       <c r="D12" s="48"/>
-      <c r="E12" s="128"/>
+      <c r="E12" s="133"/>
       <c r="F12" s="48"/>
       <c r="G12" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="126" t="s">
-        <v>133</v>
+      <c r="H12" s="131" t="s">
+        <v>129</v>
       </c>
       <c r="I12" s="50" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J12" s="48"/>
       <c r="K12" s="50"/>
@@ -1967,12 +2063,12 @@
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
-      <c r="E13" s="128"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="48"/>
       <c r="G13" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="126"/>
+        <v>130</v>
+      </c>
+      <c r="H13" s="131"/>
       <c r="I13" s="48"/>
       <c r="J13" s="48"/>
       <c r="K13" s="48"/>
@@ -1989,7 +2085,7 @@
       <c r="G14" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="126"/>
+      <c r="H14" s="131"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
@@ -2006,7 +2102,7 @@
       <c r="G15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="126"/>
+      <c r="H15" s="131"/>
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
       <c r="K15" s="48"/>
@@ -2023,8 +2119,8 @@
       <c r="G16" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="117" t="s">
-        <v>135</v>
+      <c r="H16" s="122" t="s">
+        <v>131</v>
       </c>
       <c r="I16" s="48"/>
       <c r="J16" s="48"/>
@@ -2040,7 +2136,7 @@
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
       <c r="G17" s="49"/>
-      <c r="H17" s="117"/>
+      <c r="H17" s="122"/>
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
       <c r="K17" s="48"/>
@@ -2055,7 +2151,7 @@
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
-      <c r="H18" s="118"/>
+      <c r="H18" s="123"/>
       <c r="I18" s="51"/>
       <c r="J18" s="51"/>
       <c r="K18" s="51"/>
@@ -2143,13 +2239,13 @@
       <c r="A2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="135" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="137" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2158,10 +2254,10 @@
       <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="130" t="s">
+      <c r="G2" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="132" t="s">
+      <c r="H2" s="137" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="12"/>
@@ -2170,30 +2266,30 @@
     </row>
     <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="131"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="129"/>
+      <c r="D3" s="134"/>
       <c r="E3" s="15"/>
       <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="129"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="134"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="B4" s="131"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="129"/>
+      <c r="D4" s="134"/>
       <c r="E4" s="15"/>
       <c r="F4" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="129"/>
+      <c r="H4" s="134"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="16"/>
@@ -2217,7 +2313,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="129"/>
+      <c r="D6" s="134"/>
       <c r="E6" s="15"/>
       <c r="F6" s="25" t="s">
         <v>14</v>
@@ -2232,7 +2328,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="129"/>
+      <c r="D7" s="134"/>
       <c r="E7" s="15"/>
       <c r="F7" s="25" t="s">
         <v>15</v>
@@ -2352,13 +2448,13 @@
       <c r="A15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="135" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="132" t="s">
+      <c r="D15" s="137" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2367,10 +2463,10 @@
       <c r="F15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="130" t="s">
+      <c r="G15" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="132" t="s">
+      <c r="H15" s="137" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="12"/>
@@ -2379,37 +2475,37 @@
     </row>
     <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="131"/>
+      <c r="B16" s="136"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="129"/>
+      <c r="D16" s="134"/>
       <c r="E16" s="14"/>
       <c r="F16" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="131"/>
-      <c r="H16" s="129"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="134"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="131"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="129"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="14"/>
       <c r="F17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="131"/>
-      <c r="H17" s="129"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="134"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="131"/>
+      <c r="B18" s="136"/>
       <c r="C18" s="14"/>
       <c r="D18" s="6"/>
       <c r="E18" s="14"/>
@@ -2424,9 +2520,9 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="131"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="129"/>
+      <c r="D19" s="134"/>
       <c r="E19" s="14"/>
       <c r="F19" s="25" t="s">
         <v>14</v>
@@ -2439,9 +2535,9 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="131"/>
+      <c r="B20" s="136"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="129"/>
+      <c r="D20" s="134"/>
       <c r="E20" s="14"/>
       <c r="F20" s="25" t="s">
         <v>15</v>
@@ -2591,13 +2687,13 @@
       <c r="A30" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="130" t="s">
+      <c r="B30" s="135" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="132" t="s">
+      <c r="D30" s="137" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -2606,10 +2702,10 @@
       <c r="F30" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="130" t="s">
+      <c r="G30" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="132" t="s">
+      <c r="H30" s="137" t="s">
         <v>33</v>
       </c>
       <c r="I30" s="12"/>
@@ -2618,30 +2714,30 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
-      <c r="B31" s="131"/>
+      <c r="B31" s="136"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="129"/>
+      <c r="D31" s="134"/>
       <c r="E31" s="15"/>
       <c r="F31" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="131"/>
-      <c r="H31" s="129"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="134"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="131"/>
+      <c r="B32" s="136"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="129"/>
+      <c r="D32" s="134"/>
       <c r="E32" s="15"/>
       <c r="F32" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="16"/>
-      <c r="H32" s="129"/>
+      <c r="H32" s="134"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="16"/>
@@ -2665,7 +2761,7 @@
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="129"/>
+      <c r="D34" s="134"/>
       <c r="E34" s="15"/>
       <c r="F34" s="25" t="s">
         <v>14</v>
@@ -2680,7 +2776,7 @@
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="129"/>
+      <c r="D35" s="134"/>
       <c r="E35" s="15"/>
       <c r="F35" s="25" t="s">
         <v>15</v>
@@ -2800,13 +2896,13 @@
       <c r="A43" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="130" t="s">
+      <c r="B43" s="135" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="132" t="s">
+      <c r="D43" s="137" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="20" t="s">
@@ -2815,10 +2911,10 @@
       <c r="F43" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="130" t="s">
+      <c r="G43" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="132" t="s">
+      <c r="H43" s="137" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="12"/>
@@ -2827,37 +2923,37 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
-      <c r="B44" s="131"/>
+      <c r="B44" s="136"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="129"/>
+      <c r="D44" s="134"/>
       <c r="E44" s="14"/>
       <c r="F44" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="131"/>
-      <c r="H44" s="129"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="134"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
-      <c r="B45" s="131"/>
+      <c r="B45" s="136"/>
       <c r="C45" s="14"/>
-      <c r="D45" s="129"/>
+      <c r="D45" s="134"/>
       <c r="E45" s="14"/>
       <c r="F45" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="131"/>
-      <c r="H45" s="129"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="134"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
-      <c r="B46" s="131"/>
+      <c r="B46" s="136"/>
       <c r="C46" s="14"/>
       <c r="D46" s="21"/>
       <c r="E46" s="14"/>
@@ -2872,9 +2968,9 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
-      <c r="B47" s="131"/>
+      <c r="B47" s="136"/>
       <c r="C47" s="14"/>
-      <c r="D47" s="129"/>
+      <c r="D47" s="134"/>
       <c r="E47" s="14"/>
       <c r="F47" s="25" t="s">
         <v>14</v>
@@ -2887,9 +2983,9 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
-      <c r="B48" s="131"/>
+      <c r="B48" s="136"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="129"/>
+      <c r="D48" s="134"/>
       <c r="E48" s="14"/>
       <c r="F48" s="25" t="s">
         <v>15</v>
@@ -3045,7 +3141,7 @@
       <c r="C58" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="132" t="s">
+      <c r="D58" s="137" t="s">
         <v>36</v>
       </c>
       <c r="E58" s="20" t="s">
@@ -3054,10 +3150,10 @@
       <c r="F58" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="134" t="s">
+      <c r="G58" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="H58" s="132" t="s">
+      <c r="H58" s="137" t="s">
         <v>51</v>
       </c>
       <c r="I58" s="12"/>
@@ -3068,13 +3164,13 @@
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
-      <c r="D59" s="129"/>
+      <c r="D59" s="134"/>
       <c r="E59" s="14"/>
       <c r="F59" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="135"/>
-      <c r="H59" s="129"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="134"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
       <c r="K59" s="16"/>
@@ -3083,15 +3179,15 @@
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="129"/>
+      <c r="D60" s="134"/>
       <c r="E60" s="14"/>
       <c r="F60" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="135" t="s">
+      <c r="G60" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="H60" s="129"/>
+      <c r="H60" s="134"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
       <c r="K60" s="16"/>
@@ -3105,7 +3201,7 @@
       <c r="F61" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="135"/>
+      <c r="G61" s="140"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
@@ -3115,7 +3211,7 @@
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="129"/>
+      <c r="D62" s="134"/>
       <c r="E62" s="14"/>
       <c r="F62" s="25" t="s">
         <v>14</v>
@@ -3130,7 +3226,7 @@
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="129"/>
+      <c r="D63" s="134"/>
       <c r="E63" s="14"/>
       <c r="F63" s="25" t="s">
         <v>15</v>
@@ -3147,7 +3243,7 @@
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
-      <c r="F64" s="133" t="s">
+      <c r="F64" s="138" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="16"/>
@@ -3162,7 +3258,7 @@
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
-      <c r="F65" s="133"/>
+      <c r="F65" s="138"/>
       <c r="G65" s="16"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
@@ -3220,7 +3316,7 @@
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
-      <c r="F69" s="133" t="s">
+      <c r="F69" s="138" t="s">
         <v>19</v>
       </c>
       <c r="G69" s="16"/>
@@ -3235,7 +3331,7 @@
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
-      <c r="F70" s="133"/>
+      <c r="F70" s="138"/>
       <c r="G70" s="16"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
@@ -3248,7 +3344,7 @@
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
-      <c r="F71" s="133"/>
+      <c r="F71" s="138"/>
       <c r="G71" s="16"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
@@ -3274,13 +3370,13 @@
       <c r="A73" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B73" s="130" t="s">
+      <c r="B73" s="135" t="s">
         <v>70</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="132" t="s">
+      <c r="D73" s="137" t="s">
         <v>36</v>
       </c>
       <c r="E73" s="20" t="s">
@@ -3289,10 +3385,10 @@
       <c r="F73" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="130" t="s">
+      <c r="G73" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="H73" s="132" t="s">
+      <c r="H73" s="137" t="s">
         <v>51</v>
       </c>
       <c r="I73" s="12"/>
@@ -3301,15 +3397,15 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
-      <c r="B74" s="131"/>
+      <c r="B74" s="136"/>
       <c r="C74" s="14"/>
-      <c r="D74" s="129"/>
+      <c r="D74" s="134"/>
       <c r="E74" s="14"/>
       <c r="F74" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G74" s="131"/>
-      <c r="H74" s="129"/>
+      <c r="G74" s="136"/>
+      <c r="H74" s="134"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
       <c r="K74" s="16"/>
@@ -3318,15 +3414,15 @@
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
-      <c r="D75" s="129"/>
+      <c r="D75" s="134"/>
       <c r="E75" s="14"/>
       <c r="F75" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="131" t="s">
+      <c r="G75" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="H75" s="129"/>
+      <c r="H75" s="134"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
       <c r="K75" s="16"/>
@@ -3340,7 +3436,7 @@
       <c r="F76" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G76" s="131"/>
+      <c r="G76" s="136"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
@@ -3355,7 +3451,7 @@
       <c r="F77" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="131"/>
+      <c r="G77" s="136"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
@@ -3382,7 +3478,7 @@
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
-      <c r="F79" s="133" t="s">
+      <c r="F79" s="138" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="14"/>
@@ -3397,7 +3493,7 @@
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
-      <c r="F80" s="133"/>
+      <c r="F80" s="138"/>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
@@ -3455,7 +3551,7 @@
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
-      <c r="F84" s="133" t="s">
+      <c r="F84" s="138" t="s">
         <v>19</v>
       </c>
       <c r="G84" s="14"/>
@@ -3470,7 +3566,7 @@
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
-      <c r="F85" s="133"/>
+      <c r="F85" s="138"/>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
@@ -3483,7 +3579,7 @@
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
-      <c r="F86" s="133"/>
+      <c r="F86" s="138"/>
       <c r="G86" s="14"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
@@ -3530,7 +3626,7 @@
       <c r="C89" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D89" s="132" t="s">
+      <c r="D89" s="137" t="s">
         <v>36</v>
       </c>
       <c r="E89" s="20" t="s">
@@ -3539,10 +3635,10 @@
       <c r="F89" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="134" t="s">
+      <c r="G89" s="139" t="s">
         <v>78</v>
       </c>
-      <c r="H89" s="132" t="s">
+      <c r="H89" s="137" t="s">
         <v>51</v>
       </c>
       <c r="I89" s="12"/>
@@ -3553,13 +3649,13 @@
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
-      <c r="D90" s="129"/>
+      <c r="D90" s="134"/>
       <c r="E90" s="14"/>
       <c r="F90" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G90" s="135"/>
-      <c r="H90" s="129"/>
+      <c r="G90" s="140"/>
+      <c r="H90" s="134"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
       <c r="K90" s="16"/>
@@ -3568,15 +3664,15 @@
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
-      <c r="D91" s="129"/>
+      <c r="D91" s="134"/>
       <c r="E91" s="14"/>
       <c r="F91" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G91" s="135" t="s">
+      <c r="G91" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="H91" s="129"/>
+      <c r="H91" s="134"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
       <c r="K91" s="16"/>
@@ -3590,7 +3686,7 @@
       <c r="F92" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G92" s="135"/>
+      <c r="G92" s="140"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
@@ -3600,7 +3696,7 @@
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
-      <c r="D93" s="129"/>
+      <c r="D93" s="134"/>
       <c r="E93" s="14"/>
       <c r="F93" s="25" t="s">
         <v>14</v>
@@ -3615,7 +3711,7 @@
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
-      <c r="D94" s="129"/>
+      <c r="D94" s="134"/>
       <c r="E94" s="14"/>
       <c r="F94" s="25" t="s">
         <v>15</v>
@@ -3632,7 +3728,7 @@
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
-      <c r="F95" s="133" t="s">
+      <c r="F95" s="138" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="16"/>
@@ -3647,7 +3743,7 @@
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
-      <c r="F96" s="133"/>
+      <c r="F96" s="138"/>
       <c r="G96" s="16"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
@@ -3705,7 +3801,7 @@
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
-      <c r="F100" s="133" t="s">
+      <c r="F100" s="138" t="s">
         <v>19</v>
       </c>
       <c r="G100" s="16"/>
@@ -3720,7 +3816,7 @@
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
-      <c r="F101" s="133"/>
+      <c r="F101" s="138"/>
       <c r="G101" s="16"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
@@ -3733,7 +3829,7 @@
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
-      <c r="F102" s="133"/>
+      <c r="F102" s="138"/>
       <c r="G102" s="16"/>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
@@ -3759,13 +3855,13 @@
       <c r="A104" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B104" s="130" t="s">
+      <c r="B104" s="135" t="s">
         <v>76</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D104" s="132" t="s">
+      <c r="D104" s="137" t="s">
         <v>36</v>
       </c>
       <c r="E104" s="20" t="s">
@@ -3774,10 +3870,10 @@
       <c r="F104" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G104" s="130" t="s">
+      <c r="G104" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="H104" s="132" t="s">
+      <c r="H104" s="137" t="s">
         <v>51</v>
       </c>
       <c r="I104" s="12"/>
@@ -3786,15 +3882,15 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
-      <c r="B105" s="131"/>
+      <c r="B105" s="136"/>
       <c r="C105" s="14"/>
-      <c r="D105" s="129"/>
+      <c r="D105" s="134"/>
       <c r="E105" s="14"/>
       <c r="F105" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G105" s="131"/>
-      <c r="H105" s="129"/>
+      <c r="G105" s="136"/>
+      <c r="H105" s="134"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
       <c r="K105" s="16"/>
@@ -3803,15 +3899,15 @@
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
-      <c r="D106" s="129"/>
+      <c r="D106" s="134"/>
       <c r="E106" s="14"/>
       <c r="F106" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G106" s="131" t="s">
+      <c r="G106" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="H106" s="129"/>
+      <c r="H106" s="134"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
       <c r="K106" s="16"/>
@@ -3825,7 +3921,7 @@
       <c r="F107" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="131"/>
+      <c r="G107" s="136"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
@@ -3840,7 +3936,7 @@
       <c r="F108" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G108" s="131"/>
+      <c r="G108" s="136"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="14"/>
@@ -3867,7 +3963,7 @@
       <c r="C110" s="14"/>
       <c r="D110" s="14"/>
       <c r="E110" s="14"/>
-      <c r="F110" s="133" t="s">
+      <c r="F110" s="138" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="14"/>
@@ -3882,7 +3978,7 @@
       <c r="C111" s="14"/>
       <c r="D111" s="14"/>
       <c r="E111" s="14"/>
-      <c r="F111" s="133"/>
+      <c r="F111" s="138"/>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
@@ -3940,7 +4036,7 @@
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
-      <c r="F115" s="133" t="s">
+      <c r="F115" s="138" t="s">
         <v>19</v>
       </c>
       <c r="G115" s="14"/>
@@ -3955,7 +4051,7 @@
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
-      <c r="F116" s="133"/>
+      <c r="F116" s="138"/>
       <c r="G116" s="14"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
@@ -3968,7 +4064,7 @@
       <c r="C117" s="14"/>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
-      <c r="F117" s="133"/>
+      <c r="F117" s="138"/>
       <c r="G117" s="14"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
@@ -4129,13 +4225,13 @@
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="137" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="132" t="s">
+      <c r="E2" s="137" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -4144,10 +4240,10 @@
       <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="132" t="s">
+      <c r="H2" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="132" t="s">
+      <c r="I2" s="137" t="s">
         <v>33</v>
       </c>
       <c r="J2" s="2"/>
@@ -4157,15 +4253,15 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="129"/>
+      <c r="C3" s="134"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="129"/>
+      <c r="E3" s="134"/>
       <c r="F3" s="5"/>
       <c r="G3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
       <c r="L3" s="5"/>
@@ -4175,13 +4271,13 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="129"/>
+      <c r="E4" s="134"/>
       <c r="F4" s="5"/>
       <c r="G4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
       <c r="J4" s="5"/>
       <c r="K4" s="6"/>
       <c r="L4" s="5"/>
@@ -4196,7 +4292,7 @@
       <c r="G5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="129"/>
+      <c r="H5" s="134"/>
       <c r="I5" s="6"/>
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
@@ -4212,8 +4308,8 @@
       <c r="G6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="136" t="s">
+      <c r="H6" s="134"/>
+      <c r="I6" s="141" t="s">
         <v>52</v>
       </c>
       <c r="J6" s="5"/>
@@ -4231,7 +4327,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="136"/>
+      <c r="I7" s="141"/>
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
       <c r="L7" s="5"/>
@@ -4247,7 +4343,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="136"/>
+      <c r="I8" s="141"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="5"/>
@@ -4387,13 +4483,13 @@
       <c r="B17" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="132" t="s">
+      <c r="C17" s="137" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="132" t="s">
+      <c r="E17" s="137" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="20" t="s">
@@ -4402,10 +4498,10 @@
       <c r="G17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="132" t="s">
+      <c r="H17" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="132" t="s">
+      <c r="I17" s="137" t="s">
         <v>33</v>
       </c>
       <c r="J17" s="20"/>
@@ -4415,15 +4511,15 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="21"/>
-      <c r="C18" s="129"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="129"/>
+      <c r="E18" s="134"/>
       <c r="F18" s="21"/>
       <c r="G18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
@@ -4433,13 +4529,13 @@
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="129"/>
+      <c r="E19" s="134"/>
       <c r="F19" s="21"/>
       <c r="G19" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
@@ -4454,7 +4550,7 @@
       <c r="G20" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="129"/>
+      <c r="H20" s="134"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
@@ -4470,8 +4566,8 @@
       <c r="G21" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="129"/>
-      <c r="I21" s="136" t="s">
+      <c r="H21" s="134"/>
+      <c r="I21" s="141" t="s">
         <v>52</v>
       </c>
       <c r="J21" s="21"/>
@@ -4489,7 +4585,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="21"/>
-      <c r="I22" s="136"/>
+      <c r="I22" s="141"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
@@ -4505,7 +4601,7 @@
         <v>16</v>
       </c>
       <c r="H23" s="21"/>
-      <c r="I23" s="136"/>
+      <c r="I23" s="141"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
@@ -4719,87 +4815,87 @@
         <v>40</v>
       </c>
       <c r="M1" s="80" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N1" s="80" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="148" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="B2" s="149" t="s">
+        <v>140</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="148" t="s">
-        <v>145</v>
+      <c r="D2" s="149" t="s">
+        <v>141</v>
       </c>
       <c r="E2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="148" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" s="148" t="s">
+      <c r="F2" s="149" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="152" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="148" t="s">
-        <v>149</v>
+      <c r="I2" s="149" t="s">
+        <v>145</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K2" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="L2" s="148"/>
-      <c r="M2" s="140" t="s">
-        <v>149</v>
+        <v>122</v>
+      </c>
+      <c r="L2" s="149"/>
+      <c r="M2" s="145" t="s">
+        <v>145</v>
       </c>
       <c r="N2" s="91"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
-      <c r="B3" s="149"/>
+      <c r="B3" s="150"/>
       <c r="C3" s="59"/>
-      <c r="D3" s="149"/>
+      <c r="D3" s="150"/>
       <c r="E3" s="60"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149" t="s">
-        <v>147</v>
+      <c r="F3" s="150"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150" t="s">
+        <v>143</v>
       </c>
       <c r="K3" s="61"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="141"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="146"/>
       <c r="N3" s="61"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="150" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="60"/>
       <c r="F4" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="141" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4" s="149"/>
+        <v>138</v>
+      </c>
+      <c r="G4" s="146" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="150"/>
       <c r="I4" s="59"/>
-      <c r="J4" s="149"/>
+      <c r="J4" s="150"/>
       <c r="K4" s="61"/>
       <c r="L4" s="63"/>
       <c r="M4" s="61"/>
@@ -4809,18 +4905,18 @@
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
-      <c r="D5" s="149"/>
+      <c r="D5" s="150"/>
       <c r="E5" s="60"/>
       <c r="F5" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146" t="s">
         <v>52</v>
       </c>
       <c r="I5" s="61"/>
-      <c r="J5" s="141" t="s">
-        <v>148</v>
+      <c r="J5" s="146" t="s">
+        <v>144</v>
       </c>
       <c r="K5" s="61"/>
       <c r="L5" s="63"/>
@@ -4831,15 +4927,15 @@
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="60"/>
-      <c r="D6" s="149"/>
+      <c r="D6" s="150"/>
       <c r="E6" s="60"/>
       <c r="F6" s="59" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G6" s="60"/>
-      <c r="H6" s="141"/>
+      <c r="H6" s="146"/>
       <c r="I6" s="61"/>
-      <c r="J6" s="141"/>
+      <c r="J6" s="146"/>
       <c r="K6" s="61"/>
       <c r="L6" s="63"/>
       <c r="M6" s="61"/>
@@ -4849,13 +4945,13 @@
       <c r="A7" s="58"/>
       <c r="B7" s="59"/>
       <c r="C7" s="60"/>
-      <c r="D7" s="149"/>
+      <c r="D7" s="150"/>
       <c r="E7" s="60"/>
       <c r="F7" s="59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G7" s="60"/>
-      <c r="H7" s="141"/>
+      <c r="H7" s="146"/>
       <c r="I7" s="61"/>
       <c r="J7" s="64"/>
       <c r="K7" s="61"/>
@@ -4867,11 +4963,11 @@
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="60"/>
-      <c r="D8" s="149"/>
+      <c r="D8" s="150"/>
       <c r="E8" s="60"/>
       <c r="F8" s="65"/>
       <c r="G8" s="60"/>
-      <c r="H8" s="152"/>
+      <c r="H8" s="154"/>
       <c r="I8" s="65"/>
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
@@ -4883,107 +4979,107 @@
       <c r="A9" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="126" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="121" t="s">
+      <c r="D9" s="126" t="s">
         <v>101</v>
       </c>
       <c r="E9" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="121" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="145" t="s">
-        <v>136</v>
+      <c r="F9" s="126" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="155" t="s">
+        <v>132</v>
       </c>
       <c r="H9" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="123" t="s">
-        <v>155</v>
+        <v>121</v>
+      </c>
+      <c r="I9" s="128" t="s">
+        <v>151</v>
       </c>
       <c r="J9" s="70" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K9" s="70"/>
-      <c r="L9" s="121"/>
+      <c r="L9" s="126"/>
       <c r="M9" s="32"/>
-      <c r="N9" s="123" t="s">
-        <v>199</v>
+      <c r="N9" s="128" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="69"/>
-      <c r="B10" s="122"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="67"/>
-      <c r="D10" s="122"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="71"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="146"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="156"/>
       <c r="H10" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" s="124"/>
+        <v>123</v>
+      </c>
+      <c r="I10" s="129"/>
       <c r="J10" s="71" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K10" s="71"/>
-      <c r="L10" s="122"/>
+      <c r="L10" s="127"/>
       <c r="M10" s="36"/>
-      <c r="N10" s="124"/>
+      <c r="N10" s="129"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="69"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
-      <c r="D11" s="122"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="71"/>
       <c r="F11" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="146" t="s">
-        <v>140</v>
+        <v>150</v>
+      </c>
+      <c r="G11" s="156" t="s">
+        <v>136</v>
       </c>
       <c r="H11" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="124"/>
+        <v>124</v>
+      </c>
+      <c r="I11" s="129"/>
       <c r="J11" s="71" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K11" s="71"/>
-      <c r="L11" s="122"/>
+      <c r="L11" s="127"/>
       <c r="M11" s="36"/>
       <c r="N11" s="36" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="69"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
-      <c r="D12" s="122" t="s">
+      <c r="D12" s="127" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="71"/>
       <c r="F12" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" s="146"/>
-      <c r="H12" s="122" t="s">
-        <v>137</v>
+        <v>146</v>
+      </c>
+      <c r="G12" s="156"/>
+      <c r="H12" s="127" t="s">
+        <v>133</v>
       </c>
       <c r="I12" s="67"/>
-      <c r="J12" s="147" t="s">
-        <v>137</v>
+      <c r="J12" s="157" t="s">
+        <v>133</v>
       </c>
       <c r="K12" s="71"/>
-      <c r="L12" s="122"/>
+      <c r="L12" s="127"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
     </row>
@@ -4991,15 +5087,15 @@
       <c r="A13" s="69"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
-      <c r="D13" s="122"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="71"/>
       <c r="F13" s="67" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G13" s="72"/>
-      <c r="H13" s="122"/>
+      <c r="H13" s="127"/>
       <c r="I13" s="67"/>
-      <c r="J13" s="147"/>
+      <c r="J13" s="157"/>
       <c r="K13" s="71"/>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
@@ -5010,16 +5106,16 @@
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E14" s="71"/>
       <c r="F14" s="38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G14" s="72"/>
-      <c r="H14" s="122"/>
+      <c r="H14" s="127"/>
       <c r="I14" s="67"/>
-      <c r="J14" s="147"/>
+      <c r="J14" s="157"/>
       <c r="K14" s="71"/>
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
@@ -5030,7 +5126,7 @@
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
       <c r="D15" s="67" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E15" s="71"/>
       <c r="F15" s="73"/>
@@ -5047,96 +5143,96 @@
       <c r="A16" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="140" t="s">
+      <c r="B16" s="145" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="148" t="s">
-        <v>187</v>
+        <v>163</v>
+      </c>
+      <c r="D16" s="149" t="s">
+        <v>182</v>
       </c>
       <c r="E16" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="157" t="s">
-        <v>158</v>
+      <c r="F16" s="162" t="s">
+        <v>154</v>
       </c>
       <c r="G16" s="91" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H16" s="77" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I16" s="77" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J16" s="77" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K16" s="93"/>
       <c r="L16" s="91"/>
-      <c r="M16" s="140" t="s">
-        <v>191</v>
+      <c r="M16" s="145" t="s">
+        <v>186</v>
       </c>
       <c r="N16" s="91"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="79"/>
-      <c r="B17" s="141"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="61"/>
-      <c r="D17" s="149"/>
+      <c r="D17" s="150"/>
       <c r="E17" s="60"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="149" t="s">
-        <v>140</v>
+      <c r="F17" s="163"/>
+      <c r="G17" s="150" t="s">
+        <v>136</v>
       </c>
       <c r="H17" s="78" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I17" s="78"/>
       <c r="J17" s="78" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K17" s="63"/>
       <c r="L17" s="61"/>
-      <c r="M17" s="141"/>
+      <c r="M17" s="146"/>
       <c r="N17" s="61"/>
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="79"/>
-      <c r="B18" s="141"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="61"/>
       <c r="D18" s="78" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E18" s="60"/>
       <c r="F18" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="149"/>
+        <v>174</v>
+      </c>
+      <c r="G18" s="150"/>
       <c r="H18" s="78" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I18" s="78"/>
       <c r="J18" s="78" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K18" s="63"/>
       <c r="L18" s="61"/>
-      <c r="M18" s="141"/>
+      <c r="M18" s="146"/>
       <c r="N18" s="61"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="79"/>
-      <c r="B19" s="141"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="61"/>
       <c r="D19" s="78" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E19" s="60"/>
       <c r="F19" s="94" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G19" s="79"/>
       <c r="H19" s="61"/>
@@ -5145,7 +5241,7 @@
       <c r="K19" s="63"/>
       <c r="L19" s="61"/>
       <c r="M19" s="61" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N19" s="61"/>
     </row>
@@ -5201,89 +5297,89 @@
       <c r="A23" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="128" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="121" t="s">
-        <v>187</v>
+        <v>163</v>
+      </c>
+      <c r="D23" s="126" t="s">
+        <v>182</v>
       </c>
       <c r="E23" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="155" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="123" t="s">
-        <v>184</v>
+      <c r="F23" s="158" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="128" t="s">
+        <v>179</v>
       </c>
       <c r="H23" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="I23" s="123"/>
+        <v>121</v>
+      </c>
+      <c r="I23" s="128"/>
       <c r="J23" s="52"/>
       <c r="K23" s="52"/>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
-      <c r="N23" s="123" t="s">
-        <v>198</v>
+      <c r="N23" s="128" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="87"/>
-      <c r="B24" s="124"/>
+      <c r="B24" s="129"/>
       <c r="C24" s="36"/>
-      <c r="D24" s="122"/>
+      <c r="D24" s="127"/>
       <c r="E24" s="107"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="124"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="129"/>
       <c r="H24" s="85" t="s">
-        <v>127</v>
-      </c>
-      <c r="I24" s="124"/>
+        <v>123</v>
+      </c>
+      <c r="I24" s="129"/>
       <c r="J24" s="40"/>
       <c r="K24" s="40"/>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
-      <c r="N24" s="124"/>
+      <c r="N24" s="129"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="87"/>
-      <c r="B25" s="124"/>
+      <c r="B25" s="129"/>
       <c r="C25" s="36"/>
       <c r="D25" s="85" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E25" s="107"/>
       <c r="F25" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="G25" s="124"/>
+        <v>178</v>
+      </c>
+      <c r="G25" s="129"/>
       <c r="H25" s="85" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="40"/>
       <c r="K25" s="40"/>
       <c r="L25" s="36"/>
       <c r="M25" s="36"/>
-      <c r="N25" s="124"/>
+      <c r="N25" s="129"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="87"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="85" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E26" s="107"/>
       <c r="F26" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="G26" s="124" t="s">
-        <v>140</v>
+        <v>155</v>
+      </c>
+      <c r="G26" s="129" t="s">
+        <v>136</v>
       </c>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
@@ -5291,7 +5387,7 @@
       <c r="K26" s="40"/>
       <c r="L26" s="36"/>
       <c r="M26" s="36"/>
-      <c r="N26" s="124"/>
+      <c r="N26" s="129"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="87"/>
@@ -5300,7 +5396,7 @@
       <c r="D27" s="87"/>
       <c r="E27" s="107"/>
       <c r="F27" s="73"/>
-      <c r="G27" s="124"/>
+      <c r="G27" s="129"/>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="40"/>
@@ -5313,68 +5409,68 @@
       <c r="A28" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="153" t="s">
+      <c r="B28" s="160" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="121" t="s">
-        <v>187</v>
+      <c r="D28" s="126" t="s">
+        <v>182</v>
       </c>
       <c r="E28" s="88" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="G28" s="153" t="s">
-        <v>202</v>
+        <v>188</v>
+      </c>
+      <c r="G28" s="160" t="s">
+        <v>197</v>
       </c>
       <c r="H28" s="84" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
       <c r="M28" s="32"/>
-      <c r="N28" s="123"/>
+      <c r="N28" s="128"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="87"/>
-      <c r="B29" s="154"/>
+      <c r="B29" s="161"/>
       <c r="C29" s="36"/>
-      <c r="D29" s="122"/>
+      <c r="D29" s="127"/>
       <c r="E29" s="40"/>
       <c r="F29" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="G29" s="154"/>
+        <v>189</v>
+      </c>
+      <c r="G29" s="161"/>
       <c r="H29" s="85" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
-      <c r="N29" s="124"/>
+      <c r="N29" s="129"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="87"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="85" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E30" s="40"/>
       <c r="F30" s="38" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G30" s="36"/>
       <c r="H30" s="85" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
@@ -5388,15 +5484,15 @@
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="85" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E31" s="40"/>
       <c r="F31" s="38" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G31" s="36"/>
-      <c r="H31" s="124" t="s">
-        <v>203</v>
+      <c r="H31" s="129" t="s">
+        <v>198</v>
       </c>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
@@ -5412,10 +5508,10 @@
       <c r="D32" s="85"/>
       <c r="E32" s="40"/>
       <c r="F32" s="38" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G32" s="36"/>
-      <c r="H32" s="124"/>
+      <c r="H32" s="129"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
@@ -5430,10 +5526,10 @@
       <c r="D33" s="85"/>
       <c r="E33" s="40"/>
       <c r="F33" s="38" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G33" s="36"/>
-      <c r="H33" s="124"/>
+      <c r="H33" s="129"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
@@ -5461,32 +5557,32 @@
       <c r="A35" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="126" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="121" t="s">
-        <v>187</v>
-      </c>
-      <c r="E35" s="121" t="s">
-        <v>207</v>
-      </c>
-      <c r="F35" s="142" t="s">
-        <v>205</v>
-      </c>
-      <c r="G35" s="121" t="s">
+      <c r="D35" s="126" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="126" t="s">
         <v>202</v>
       </c>
+      <c r="F35" s="147" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" s="126" t="s">
+        <v>197</v>
+      </c>
       <c r="H35" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="I35" s="121" t="s">
-        <v>217</v>
+        <v>121</v>
+      </c>
+      <c r="I35" s="126" t="s">
+        <v>212</v>
       </c>
       <c r="J35" s="97" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K35" s="105"/>
       <c r="L35" s="32"/>
@@ -5495,18 +5591,18 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="100"/>
-      <c r="B36" s="122"/>
+      <c r="B36" s="127"/>
       <c r="C36" s="98"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="122"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="127"/>
       <c r="H36" s="98" t="s">
-        <v>127</v>
-      </c>
-      <c r="I36" s="122"/>
+        <v>123</v>
+      </c>
+      <c r="I36" s="127"/>
       <c r="J36" s="98" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K36" s="106"/>
       <c r="L36" s="36"/>
@@ -5518,19 +5614,19 @@
       <c r="B37" s="98"/>
       <c r="C37" s="98"/>
       <c r="D37" s="98" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E37" s="98"/>
       <c r="F37" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="G37" s="122"/>
+        <v>201</v>
+      </c>
+      <c r="G37" s="127"/>
       <c r="H37" s="98" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I37" s="98"/>
       <c r="J37" s="98" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K37" s="106"/>
       <c r="L37" s="36"/>
@@ -5542,19 +5638,19 @@
       <c r="B38" s="98"/>
       <c r="C38" s="98"/>
       <c r="D38" s="98" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E38" s="98"/>
       <c r="F38" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" s="122"/>
-      <c r="H38" s="122" t="s">
-        <v>203</v>
+        <v>146</v>
+      </c>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127" t="s">
+        <v>198</v>
       </c>
       <c r="I38" s="98"/>
-      <c r="J38" s="122" t="s">
-        <v>203</v>
+      <c r="J38" s="127" t="s">
+        <v>198</v>
       </c>
       <c r="K38" s="106"/>
       <c r="L38" s="36"/>
@@ -5565,17 +5661,17 @@
       <c r="A39" s="100"/>
       <c r="B39" s="98"/>
       <c r="C39" s="98"/>
-      <c r="D39" s="122" t="s">
-        <v>204</v>
+      <c r="D39" s="127" t="s">
+        <v>199</v>
       </c>
       <c r="E39" s="98"/>
       <c r="F39" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="G39" s="122"/>
-      <c r="H39" s="122"/>
+        <v>147</v>
+      </c>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
       <c r="I39" s="98"/>
-      <c r="J39" s="122"/>
+      <c r="J39" s="127"/>
       <c r="K39" s="106"/>
       <c r="L39" s="36"/>
       <c r="M39" s="36"/>
@@ -5585,15 +5681,15 @@
       <c r="A40" s="100"/>
       <c r="B40" s="98"/>
       <c r="C40" s="98"/>
-      <c r="D40" s="122"/>
+      <c r="D40" s="127"/>
       <c r="E40" s="98"/>
       <c r="F40" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="G40" s="122"/>
-      <c r="H40" s="122"/>
+        <v>148</v>
+      </c>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
       <c r="I40" s="98"/>
-      <c r="J40" s="122"/>
+      <c r="J40" s="127"/>
       <c r="K40" s="106"/>
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
@@ -5603,13 +5699,13 @@
       <c r="A41" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="159" t="s">
+      <c r="B41" s="164" t="s">
         <v>60</v>
       </c>
       <c r="C41" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="148" t="s">
+      <c r="D41" s="149" t="s">
         <v>101</v>
       </c>
       <c r="E41" s="92" t="s">
@@ -5621,7 +5717,7 @@
       <c r="G41" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="148" t="s">
+      <c r="H41" s="149" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="91"/>
@@ -5629,39 +5725,39 @@
       <c r="K41" s="93"/>
       <c r="L41" s="91"/>
       <c r="M41" s="91"/>
-      <c r="N41" s="140" t="s">
-        <v>208</v>
+      <c r="N41" s="145" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="102"/>
-      <c r="B42" s="160"/>
+      <c r="B42" s="165"/>
       <c r="C42" s="61"/>
-      <c r="D42" s="149"/>
+      <c r="D42" s="150"/>
       <c r="E42" s="60"/>
       <c r="F42" s="95" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="61"/>
-      <c r="H42" s="149"/>
+      <c r="H42" s="150"/>
       <c r="I42" s="61"/>
       <c r="J42" s="63"/>
       <c r="K42" s="63"/>
       <c r="L42" s="61"/>
       <c r="M42" s="61"/>
-      <c r="N42" s="141"/>
+      <c r="N42" s="146"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="102"/>
-      <c r="B43" s="160"/>
+      <c r="B43" s="165"/>
       <c r="C43" s="61"/>
-      <c r="D43" s="149"/>
+      <c r="D43" s="150"/>
       <c r="E43" s="60"/>
       <c r="F43" s="95" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="61"/>
-      <c r="H43" s="149"/>
+      <c r="H43" s="150"/>
       <c r="I43" s="61"/>
       <c r="J43" s="63"/>
       <c r="K43" s="63"/>
@@ -5671,7 +5767,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="102"/>
-      <c r="B44" s="160"/>
+      <c r="B44" s="165"/>
       <c r="C44" s="61"/>
       <c r="D44" s="61"/>
       <c r="E44" s="60"/>
@@ -5853,32 +5949,32 @@
       <c r="A54" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="123" t="s">
+      <c r="B54" s="128" t="s">
         <v>61</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="121" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" s="121" t="s">
-        <v>207</v>
-      </c>
-      <c r="F54" s="142" t="s">
-        <v>205</v>
-      </c>
-      <c r="G54" s="123" t="s">
-        <v>184</v>
+      <c r="D54" s="126" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" s="126" t="s">
+        <v>202</v>
+      </c>
+      <c r="F54" s="147" t="s">
+        <v>200</v>
+      </c>
+      <c r="G54" s="128" t="s">
+        <v>179</v>
       </c>
       <c r="H54" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="I54" s="123" t="s">
-        <v>211</v>
+        <v>121</v>
+      </c>
+      <c r="I54" s="128" t="s">
+        <v>206</v>
       </c>
       <c r="J54" s="97" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K54" s="52"/>
       <c r="L54" s="36"/>
@@ -5887,18 +5983,18 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="100"/>
-      <c r="B55" s="124"/>
+      <c r="B55" s="129"/>
       <c r="C55" s="36"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="143"/>
-      <c r="G55" s="124"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="148"/>
+      <c r="G55" s="129"/>
       <c r="H55" s="98" t="s">
-        <v>127</v>
-      </c>
-      <c r="I55" s="124"/>
+        <v>123</v>
+      </c>
+      <c r="I55" s="129"/>
       <c r="J55" s="98" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K55" s="40"/>
       <c r="L55" s="36"/>
@@ -5907,22 +6003,22 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="100"/>
-      <c r="B56" s="124"/>
+      <c r="B56" s="129"/>
       <c r="C56" s="36"/>
       <c r="D56" s="98" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E56" s="107"/>
       <c r="F56" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="G56" s="124"/>
+        <v>178</v>
+      </c>
+      <c r="G56" s="129"/>
       <c r="H56" s="98" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I56" s="36"/>
       <c r="J56" s="98" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K56" s="40"/>
       <c r="L56" s="36"/>
@@ -5934,21 +6030,21 @@
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
       <c r="D57" s="36" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E57" s="107"/>
       <c r="F57" s="38" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G57" s="100" t="s">
-        <v>210</v>
-      </c>
-      <c r="H57" s="124" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="H57" s="129" t="s">
+        <v>198</v>
       </c>
       <c r="I57" s="36"/>
-      <c r="J57" s="124" t="s">
-        <v>203</v>
+      <c r="J57" s="129" t="s">
+        <v>198</v>
       </c>
       <c r="K57" s="40"/>
       <c r="L57" s="36"/>
@@ -5959,13 +6055,13 @@
       <c r="A58" s="100"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
-      <c r="D58" s="124"/>
+      <c r="D58" s="129"/>
       <c r="E58" s="107"/>
       <c r="F58" s="73"/>
       <c r="G58" s="100"/>
-      <c r="H58" s="124"/>
+      <c r="H58" s="129"/>
       <c r="I58" s="36"/>
-      <c r="J58" s="124"/>
+      <c r="J58" s="129"/>
       <c r="K58" s="40"/>
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
@@ -5975,13 +6071,13 @@
       <c r="A59" s="100"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
-      <c r="D59" s="124"/>
+      <c r="D59" s="129"/>
       <c r="E59" s="107"/>
       <c r="F59" s="73"/>
       <c r="G59" s="100"/>
-      <c r="H59" s="124"/>
+      <c r="H59" s="129"/>
       <c r="I59" s="36"/>
-      <c r="J59" s="124"/>
+      <c r="J59" s="129"/>
       <c r="K59" s="40"/>
       <c r="L59" s="36"/>
       <c r="M59" s="41"/>
@@ -5991,32 +6087,32 @@
       <c r="A60" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="123" t="s">
-        <v>212</v>
+      <c r="B60" s="128" t="s">
+        <v>207</v>
       </c>
       <c r="C60" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="123" t="s">
-        <v>156</v>
-      </c>
-      <c r="E60" s="123" t="s">
-        <v>207</v>
-      </c>
-      <c r="F60" s="121" t="s">
-        <v>153</v>
-      </c>
-      <c r="G60" s="145" t="s">
-        <v>136</v>
+      <c r="D60" s="128" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="F60" s="126" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="155" t="s">
+        <v>132</v>
       </c>
       <c r="H60" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="I60" s="123" t="s">
-        <v>217</v>
+        <v>121</v>
+      </c>
+      <c r="I60" s="128" t="s">
+        <v>212</v>
       </c>
       <c r="J60" s="97" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K60" s="32"/>
       <c r="L60" s="52"/>
@@ -6025,18 +6121,18 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="100"/>
-      <c r="B61" s="124"/>
+      <c r="B61" s="129"/>
       <c r="C61" s="36"/>
-      <c r="D61" s="124"/>
-      <c r="E61" s="124"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="146"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="127"/>
+      <c r="G61" s="156"/>
       <c r="H61" s="98" t="s">
-        <v>127</v>
-      </c>
-      <c r="I61" s="124"/>
+        <v>123</v>
+      </c>
+      <c r="I61" s="129"/>
       <c r="J61" s="98" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K61" s="36"/>
       <c r="L61" s="40"/>
@@ -6045,24 +6141,24 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="100"/>
-      <c r="B62" s="124"/>
+      <c r="B62" s="129"/>
       <c r="C62" s="36"/>
-      <c r="D62" s="124" t="s">
-        <v>157</v>
+      <c r="D62" s="129" t="s">
+        <v>153</v>
       </c>
       <c r="E62" s="107"/>
       <c r="F62" s="98" t="s">
-        <v>213</v>
-      </c>
-      <c r="G62" s="146" t="s">
-        <v>140</v>
+        <v>208</v>
+      </c>
+      <c r="G62" s="156" t="s">
+        <v>136</v>
       </c>
       <c r="H62" s="98" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I62" s="36"/>
       <c r="J62" s="98" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K62" s="36"/>
       <c r="L62" s="40"/>
@@ -6073,18 +6169,18 @@
       <c r="A63" s="100"/>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
-      <c r="D63" s="124"/>
+      <c r="D63" s="129"/>
       <c r="E63" s="107"/>
       <c r="F63" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="G63" s="146"/>
-      <c r="H63" s="122" t="s">
-        <v>203</v>
+        <v>146</v>
+      </c>
+      <c r="G63" s="156"/>
+      <c r="H63" s="127" t="s">
+        <v>198</v>
       </c>
       <c r="I63" s="36"/>
-      <c r="J63" s="122" t="s">
-        <v>203</v>
+      <c r="J63" s="127" t="s">
+        <v>198</v>
       </c>
       <c r="K63" s="36"/>
       <c r="L63" s="40"/>
@@ -6098,12 +6194,12 @@
       <c r="D64" s="36"/>
       <c r="E64" s="107"/>
       <c r="F64" s="98" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G64" s="107"/>
-      <c r="H64" s="122"/>
+      <c r="H64" s="127"/>
       <c r="I64" s="36"/>
-      <c r="J64" s="122"/>
+      <c r="J64" s="127"/>
       <c r="K64" s="36"/>
       <c r="L64" s="40"/>
       <c r="M64" s="36"/>
@@ -6116,12 +6212,12 @@
       <c r="D65" s="41"/>
       <c r="E65" s="43"/>
       <c r="F65" s="44" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G65" s="43"/>
-      <c r="H65" s="144"/>
+      <c r="H65" s="151"/>
       <c r="I65" s="41"/>
-      <c r="J65" s="144"/>
+      <c r="J65" s="151"/>
       <c r="K65" s="41"/>
       <c r="L65" s="42"/>
       <c r="M65" s="41"/>
@@ -6129,34 +6225,34 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="113" t="s">
-        <v>214</v>
-      </c>
-      <c r="B66" s="123" t="s">
-        <v>215</v>
+        <v>209</v>
+      </c>
+      <c r="B66" s="128" t="s">
+        <v>210</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="123" t="s">
-        <v>156</v>
-      </c>
-      <c r="E66" s="138" t="s">
-        <v>207</v>
-      </c>
-      <c r="F66" s="123" t="s">
-        <v>205</v>
-      </c>
-      <c r="G66" s="138" t="s">
-        <v>136</v>
+      <c r="D66" s="128" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" s="143" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" s="128" t="s">
+        <v>200</v>
+      </c>
+      <c r="G66" s="143" t="s">
+        <v>132</v>
       </c>
       <c r="H66" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="I66" s="123" t="s">
-        <v>217</v>
+        <v>121</v>
+      </c>
+      <c r="I66" s="128" t="s">
+        <v>212</v>
       </c>
       <c r="J66" s="32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K66" s="33"/>
       <c r="L66" s="32"/>
@@ -6165,18 +6261,18 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="114"/>
-      <c r="B67" s="124"/>
+      <c r="B67" s="129"/>
       <c r="C67" s="107"/>
-      <c r="D67" s="124"/>
-      <c r="E67" s="139"/>
-      <c r="F67" s="124"/>
-      <c r="G67" s="139"/>
+      <c r="D67" s="129"/>
+      <c r="E67" s="144"/>
+      <c r="F67" s="129"/>
+      <c r="G67" s="144"/>
       <c r="H67" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="I67" s="124"/>
+        <v>123</v>
+      </c>
+      <c r="I67" s="129"/>
       <c r="J67" s="36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K67" s="107"/>
       <c r="L67" s="36"/>
@@ -6185,24 +6281,24 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="114"/>
-      <c r="B68" s="124"/>
+      <c r="B68" s="129"/>
       <c r="C68" s="107"/>
-      <c r="D68" s="124" t="s">
-        <v>157</v>
+      <c r="D68" s="129" t="s">
+        <v>153</v>
       </c>
       <c r="E68" s="107"/>
       <c r="F68" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="G68" s="139" t="s">
-        <v>140</v>
+        <v>211</v>
+      </c>
+      <c r="G68" s="144" t="s">
+        <v>136</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I68" s="107"/>
       <c r="J68" s="36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K68" s="107"/>
       <c r="L68" s="36"/>
@@ -6213,18 +6309,18 @@
       <c r="A69" s="114"/>
       <c r="B69" s="36"/>
       <c r="C69" s="107"/>
-      <c r="D69" s="124"/>
+      <c r="D69" s="129"/>
       <c r="E69" s="107"/>
       <c r="F69" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="G69" s="139"/>
-      <c r="H69" s="124" t="s">
-        <v>203</v>
+        <v>146</v>
+      </c>
+      <c r="G69" s="144"/>
+      <c r="H69" s="129" t="s">
+        <v>198</v>
       </c>
       <c r="I69" s="107"/>
-      <c r="J69" s="124" t="s">
-        <v>203</v>
+      <c r="J69" s="129" t="s">
+        <v>198</v>
       </c>
       <c r="K69" s="107"/>
       <c r="L69" s="36"/>
@@ -6238,12 +6334,12 @@
       <c r="D70" s="36"/>
       <c r="E70" s="107"/>
       <c r="F70" s="36" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G70" s="107"/>
-      <c r="H70" s="124"/>
+      <c r="H70" s="129"/>
       <c r="I70" s="107"/>
-      <c r="J70" s="124"/>
+      <c r="J70" s="129"/>
       <c r="K70" s="107"/>
       <c r="L70" s="36"/>
       <c r="M70" s="107"/>
@@ -6256,12 +6352,12 @@
       <c r="D71" s="41"/>
       <c r="E71" s="43"/>
       <c r="F71" s="41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G71" s="43"/>
-      <c r="H71" s="137"/>
+      <c r="H71" s="142"/>
       <c r="I71" s="43"/>
-      <c r="J71" s="137"/>
+      <c r="J71" s="142"/>
       <c r="K71" s="43"/>
       <c r="L71" s="41"/>
       <c r="M71" s="43"/>
@@ -6269,34 +6365,34 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="113" t="s">
-        <v>218</v>
-      </c>
-      <c r="B72" s="123" t="s">
-        <v>219</v>
+        <v>213</v>
+      </c>
+      <c r="B72" s="128" t="s">
+        <v>214</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="123" t="s">
-        <v>220</v>
-      </c>
-      <c r="E72" s="138" t="s">
-        <v>207</v>
-      </c>
-      <c r="F72" s="123" t="s">
-        <v>221</v>
-      </c>
-      <c r="G72" s="138" t="s">
-        <v>136</v>
+      <c r="D72" s="128" t="s">
+        <v>215</v>
+      </c>
+      <c r="E72" s="143" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="128" t="s">
+        <v>216</v>
+      </c>
+      <c r="G72" s="143" t="s">
+        <v>132</v>
       </c>
       <c r="H72" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="I72" s="123" t="s">
-        <v>217</v>
+        <v>121</v>
+      </c>
+      <c r="I72" s="128" t="s">
+        <v>212</v>
       </c>
       <c r="J72" s="32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K72" s="33"/>
       <c r="L72" s="32"/>
@@ -6305,18 +6401,18 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="114"/>
-      <c r="B73" s="124"/>
+      <c r="B73" s="129"/>
       <c r="C73" s="107"/>
-      <c r="D73" s="124"/>
-      <c r="E73" s="139"/>
-      <c r="F73" s="124"/>
-      <c r="G73" s="139"/>
+      <c r="D73" s="129"/>
+      <c r="E73" s="144"/>
+      <c r="F73" s="129"/>
+      <c r="G73" s="144"/>
       <c r="H73" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="I73" s="124"/>
+        <v>123</v>
+      </c>
+      <c r="I73" s="129"/>
       <c r="J73" s="36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K73" s="107"/>
       <c r="L73" s="36"/>
@@ -6328,21 +6424,21 @@
       <c r="B74" s="36"/>
       <c r="C74" s="107"/>
       <c r="D74" s="36" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E74" s="107"/>
       <c r="F74" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="G74" s="139" t="s">
-        <v>140</v>
+        <v>217</v>
+      </c>
+      <c r="G74" s="144" t="s">
+        <v>136</v>
       </c>
       <c r="H74" s="36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I74" s="107"/>
       <c r="J74" s="36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K74" s="107"/>
       <c r="L74" s="36"/>
@@ -6354,19 +6450,19 @@
       <c r="B75" s="36"/>
       <c r="C75" s="107"/>
       <c r="D75" s="36" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E75" s="107"/>
       <c r="F75" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="G75" s="139"/>
-      <c r="H75" s="124" t="s">
-        <v>203</v>
+        <v>146</v>
+      </c>
+      <c r="G75" s="144"/>
+      <c r="H75" s="129" t="s">
+        <v>198</v>
       </c>
       <c r="I75" s="107"/>
-      <c r="J75" s="124" t="s">
-        <v>203</v>
+      <c r="J75" s="129" t="s">
+        <v>198</v>
       </c>
       <c r="K75" s="107"/>
       <c r="L75" s="36"/>
@@ -6380,12 +6476,12 @@
       <c r="D76" s="36"/>
       <c r="E76" s="107"/>
       <c r="F76" s="36" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G76" s="107"/>
-      <c r="H76" s="124"/>
+      <c r="H76" s="129"/>
       <c r="I76" s="107"/>
-      <c r="J76" s="124"/>
+      <c r="J76" s="129"/>
       <c r="K76" s="107"/>
       <c r="L76" s="36"/>
       <c r="M76" s="107"/>
@@ -6398,12 +6494,12 @@
       <c r="D77" s="41"/>
       <c r="E77" s="43"/>
       <c r="F77" s="41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G77" s="43"/>
-      <c r="H77" s="137"/>
+      <c r="H77" s="142"/>
       <c r="I77" s="43"/>
-      <c r="J77" s="137"/>
+      <c r="J77" s="142"/>
       <c r="K77" s="43"/>
       <c r="L77" s="41"/>
       <c r="M77" s="43"/>
@@ -6411,10 +6507,10 @@
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="B78" s="128" t="s">
         <v>223</v>
-      </c>
-      <c r="B78" s="123" t="s">
-        <v>228</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>23</v>
@@ -6422,20 +6518,20 @@
       <c r="D78" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E78" s="138" t="s">
-        <v>230</v>
+      <c r="E78" s="143" t="s">
+        <v>225</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="G78" s="123" t="s">
-        <v>231</v>
+        <v>220</v>
+      </c>
+      <c r="G78" s="128" t="s">
+        <v>226</v>
       </c>
       <c r="H78" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="I78" s="123" t="s">
-        <v>234</v>
+        <v>121</v>
+      </c>
+      <c r="I78" s="128" t="s">
+        <v>229</v>
       </c>
       <c r="J78" s="32"/>
       <c r="K78" s="33"/>
@@ -6445,20 +6541,20 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="114"/>
-      <c r="B79" s="124"/>
+      <c r="B79" s="129"/>
       <c r="C79" s="107"/>
       <c r="D79" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="E79" s="139"/>
+        <v>219</v>
+      </c>
+      <c r="E79" s="144"/>
       <c r="F79" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="G79" s="124"/>
+        <v>221</v>
+      </c>
+      <c r="G79" s="129"/>
       <c r="H79" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="I79" s="124"/>
+        <v>123</v>
+      </c>
+      <c r="I79" s="129"/>
       <c r="J79" s="36"/>
       <c r="K79" s="107"/>
       <c r="L79" s="36"/>
@@ -6472,13 +6568,13 @@
       <c r="D80" s="36"/>
       <c r="E80" s="107"/>
       <c r="F80" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="G80" s="124" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="G80" s="129" t="s">
+        <v>136</v>
       </c>
       <c r="H80" s="36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I80" s="107"/>
       <c r="J80" s="36"/>
@@ -6494,11 +6590,11 @@
       <c r="D81" s="36"/>
       <c r="E81" s="107"/>
       <c r="F81" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="G81" s="124"/>
-      <c r="H81" s="124" t="s">
-        <v>203</v>
+        <v>147</v>
+      </c>
+      <c r="G81" s="129"/>
+      <c r="H81" s="129" t="s">
+        <v>198</v>
       </c>
       <c r="I81" s="107"/>
       <c r="J81" s="36"/>
@@ -6514,10 +6610,10 @@
       <c r="D82" s="36"/>
       <c r="E82" s="107"/>
       <c r="F82" s="36" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G82" s="116"/>
-      <c r="H82" s="124"/>
+      <c r="H82" s="129"/>
       <c r="I82" s="107"/>
       <c r="J82" s="36"/>
       <c r="K82" s="107"/>
@@ -6533,7 +6629,7 @@
       <c r="E83" s="43"/>
       <c r="F83" s="41"/>
       <c r="G83" s="43"/>
-      <c r="H83" s="137"/>
+      <c r="H83" s="142"/>
       <c r="I83" s="43"/>
       <c r="J83" s="41"/>
       <c r="K83" s="43"/>
@@ -6543,10 +6639,10 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="113" t="s">
-        <v>227</v>
-      </c>
-      <c r="B84" s="123" t="s">
-        <v>229</v>
+        <v>222</v>
+      </c>
+      <c r="B84" s="128" t="s">
+        <v>224</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>23</v>
@@ -6554,20 +6650,20 @@
       <c r="D84" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E84" s="138" t="s">
+      <c r="E84" s="143" t="s">
+        <v>225</v>
+      </c>
+      <c r="F84" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G84" s="143" t="s">
+        <v>228</v>
+      </c>
+      <c r="H84" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I84" s="128" t="s">
         <v>230</v>
-      </c>
-      <c r="F84" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="G84" s="138" t="s">
-        <v>233</v>
-      </c>
-      <c r="H84" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="I84" s="123" t="s">
-        <v>235</v>
       </c>
       <c r="J84" s="32"/>
       <c r="K84" s="33"/>
@@ -6577,20 +6673,20 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="114"/>
-      <c r="B85" s="124"/>
+      <c r="B85" s="129"/>
       <c r="C85" s="107"/>
       <c r="D85" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="E85" s="139"/>
+        <v>219</v>
+      </c>
+      <c r="E85" s="144"/>
       <c r="F85" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="G85" s="139"/>
+        <v>221</v>
+      </c>
+      <c r="G85" s="144"/>
       <c r="H85" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="I85" s="124"/>
+        <v>123</v>
+      </c>
+      <c r="I85" s="129"/>
       <c r="J85" s="36"/>
       <c r="K85" s="107"/>
       <c r="L85" s="36"/>
@@ -6604,15 +6700,15 @@
       <c r="D86" s="36"/>
       <c r="E86" s="107"/>
       <c r="F86" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="G86" s="139" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="G86" s="144" t="s">
+        <v>136</v>
       </c>
       <c r="H86" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="I86" s="124"/>
+        <v>124</v>
+      </c>
+      <c r="I86" s="129"/>
       <c r="J86" s="36"/>
       <c r="K86" s="107"/>
       <c r="L86" s="36"/>
@@ -6626,13 +6722,13 @@
       <c r="D87" s="36"/>
       <c r="E87" s="107"/>
       <c r="F87" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="G87" s="139"/>
-      <c r="H87" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="I87" s="124"/>
+        <v>147</v>
+      </c>
+      <c r="G87" s="144"/>
+      <c r="H87" s="129" t="s">
+        <v>198</v>
+      </c>
+      <c r="I87" s="129"/>
       <c r="J87" s="36"/>
       <c r="K87" s="107"/>
       <c r="L87" s="36"/>
@@ -6646,10 +6742,10 @@
       <c r="D88" s="36"/>
       <c r="E88" s="107"/>
       <c r="F88" s="36" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G88" s="107"/>
-      <c r="H88" s="124"/>
+      <c r="H88" s="129"/>
       <c r="I88" s="107"/>
       <c r="J88" s="36"/>
       <c r="K88" s="107"/>
@@ -6665,7 +6761,7 @@
       <c r="E89" s="43"/>
       <c r="F89" s="41"/>
       <c r="G89" s="43"/>
-      <c r="H89" s="137"/>
+      <c r="H89" s="142"/>
       <c r="I89" s="43"/>
       <c r="J89" s="41"/>
       <c r="K89" s="43"/>
@@ -6699,24 +6795,6 @@
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="E66:E67"/>
     <mergeCell ref="F66:F67"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="N23:N26"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="F23:F24"/>
@@ -6726,18 +6804,20 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="M16:M18"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="J38:J40"/>
@@ -6747,7 +6827,21 @@
     <mergeCell ref="J63:J65"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H5:H8"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
     <mergeCell ref="N41:N42"/>
     <mergeCell ref="F54:F55"/>
     <mergeCell ref="D54:D55"/>
@@ -6762,6 +6856,8 @@
     <mergeCell ref="J57:J59"/>
     <mergeCell ref="N28:N29"/>
     <mergeCell ref="H31:H33"/>
+    <mergeCell ref="N23:N26"/>
+    <mergeCell ref="G28:G29"/>
     <mergeCell ref="J69:J71"/>
     <mergeCell ref="J75:J77"/>
     <mergeCell ref="G84:G85"/>
@@ -6789,10 +6885,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05760916-9E37-49D1-B48B-D94D47CC4A32}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6802,16 +6898,17 @@
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="49.28515625" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
     <col min="7" max="7" width="38.140625" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="30.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -6848,13 +6945,16 @@
       <c r="L1" s="31" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="123" t="s">
-        <v>120</v>
+      <c r="B2" s="128" t="s">
+        <v>116</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>23</v>
@@ -6862,8 +6962,8 @@
       <c r="D2" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>22</v>
+      <c r="E2" s="128" t="s">
+        <v>225</v>
       </c>
       <c r="F2" s="52" t="s">
         <v>105</v>
@@ -6871,140 +6971,1081 @@
       <c r="G2" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="128" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="32" t="s">
         <v>108</v>
       </c>
       <c r="J2" s="32"/>
-      <c r="K2" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" s="153" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="32"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
-      <c r="B3" s="124"/>
+      <c r="B3" s="129"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="E3" s="129"/>
       <c r="F3" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129" t="s">
         <v>111</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124" t="s">
-        <v>113</v>
       </c>
       <c r="J3" s="36"/>
       <c r="K3" s="36"/>
-      <c r="L3" s="154"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3" s="161"/>
+      <c r="M3" s="36"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
       <c r="F4" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="G4" s="129" t="s">
+        <v>113</v>
       </c>
       <c r="H4" s="36"/>
-      <c r="I4" s="124"/>
+      <c r="I4" s="129"/>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="36"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="36"/>
       <c r="F5" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="124"/>
+        <v>231</v>
+      </c>
+      <c r="G5" s="129"/>
       <c r="H5" s="36"/>
-      <c r="I5" s="124" t="s">
-        <v>117</v>
+      <c r="I5" s="129" t="s">
+        <v>113</v>
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="36"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="40" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
-      <c r="I6" s="124"/>
+      <c r="I6" s="129"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="161" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="M6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="128" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="162"/>
-      <c r="E9" t="s">
-        <v>182</v>
-      </c>
+      <c r="E9" s="143" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="143" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="128"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="32"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="120"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="144"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="129"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="36"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="120"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="144" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="36"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="120"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="144" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="120"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="144"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="120"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="107"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="120"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" s="107"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="120"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G16" s="107"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="121"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="128" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="128" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="126"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128" t="s">
+        <v>244</v>
+      </c>
+      <c r="J18" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="127"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="129"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="129"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="129" t="s">
+        <v>245</v>
+      </c>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="129"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="129"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="G24" s="142"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="128" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="128" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="129" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" s="129"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="128" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="128" t="s">
+        <v>225</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="128" t="s">
+        <v>253</v>
+      </c>
+      <c r="H32" s="126" t="s">
+        <v>255</v>
+      </c>
+      <c r="I32" s="128" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" s="126" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="129"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="G35" s="129"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="128" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="128" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="J39" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="36"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" s="129"/>
+      <c r="I40" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="J40" s="129"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="129"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="129" t="s">
+        <v>259</v>
+      </c>
+      <c r="G42" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" s="36"/>
+      <c r="I42" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="128" t="s">
+        <v>263</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="32"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128" t="s">
+        <v>265</v>
+      </c>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="128" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" s="129"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="129"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G49" s="129"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="129"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="129" t="s">
+        <v>264</v>
+      </c>
+      <c r="G50" s="129"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="129"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="129"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="129"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="129"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B8:B9"/>
+  <mergeCells count="54">
+    <mergeCell ref="M47:M51"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="I40:I41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7074,25 +8115,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="130" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="135" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="137" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="130" t="s">
+      <c r="G2" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="132" t="s">
+      <c r="H2" s="137" t="s">
         <v>51</v>
       </c>
       <c r="I2" s="12"/>
@@ -7102,15 +8143,15 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="131"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="129"/>
+      <c r="D3" s="134"/>
       <c r="E3" s="15"/>
       <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="129"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="134"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
@@ -7118,15 +8159,15 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="B4" s="131"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="129"/>
+      <c r="D4" s="134"/>
       <c r="E4" s="15"/>
       <c r="F4" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="129"/>
+      <c r="H4" s="134"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -7188,7 +8229,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="133" t="s">
+      <c r="F8" s="138" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="16"/>
@@ -7204,7 +8245,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="133"/>
+      <c r="F9" s="138"/>
       <c r="G9" s="16"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -7266,7 +8307,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="133" t="s">
+      <c r="F13" s="138" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="16"/>
@@ -7282,7 +8323,7 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="133"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="16"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -7296,7 +8337,7 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="133"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="16"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -7338,89 +8379,89 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" s="123" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="33" t="s">
         <v>166</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="123" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>170</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="119" t="s">
+      <c r="G18" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="H18" s="123" t="s">
-        <v>168</v>
-      </c>
-      <c r="I18" s="123" t="s">
+      <c r="L18" s="128" t="s">
         <v>173</v>
-      </c>
-      <c r="J18" s="123" t="s">
-        <v>175</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="L18" s="123" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
-      <c r="B19" s="124"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="107"/>
-      <c r="D19" s="124"/>
+      <c r="D19" s="129"/>
       <c r="E19" s="107"/>
       <c r="F19" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" s="120"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
+        <v>167</v>
+      </c>
+      <c r="G19" s="125"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="129"/>
       <c r="K19" s="36"/>
-      <c r="L19" s="124"/>
+      <c r="L19" s="129"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="107"/>
-      <c r="D20" s="122" t="s">
-        <v>169</v>
+      <c r="D20" s="127" t="s">
+        <v>165</v>
       </c>
       <c r="E20" s="107"/>
       <c r="F20" s="36"/>
       <c r="G20" s="40"/>
-      <c r="H20" s="124" t="s">
-        <v>169</v>
+      <c r="H20" s="129" t="s">
+        <v>165</v>
       </c>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
-      <c r="L20" s="124"/>
+      <c r="L20" s="129"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="107"/>
-      <c r="D21" s="122"/>
+      <c r="D21" s="127"/>
       <c r="E21" s="107"/>
       <c r="F21" s="36"/>
       <c r="G21" s="40"/>
-      <c r="H21" s="124"/>
+      <c r="H21" s="129"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
-      <c r="L21" s="124"/>
+      <c r="L21" s="129"/>
     </row>
     <row r="22" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
@@ -7430,8 +8471,8 @@
       <c r="E22" s="107"/>
       <c r="F22" s="36"/>
       <c r="G22" s="40"/>
-      <c r="H22" s="124" t="s">
-        <v>174</v>
+      <c r="H22" s="129" t="s">
+        <v>170</v>
       </c>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
@@ -7446,7 +8487,7 @@
       <c r="E23" s="43"/>
       <c r="F23" s="41"/>
       <c r="G23" s="42"/>
-      <c r="H23" s="137"/>
+      <c r="H23" s="142"/>
       <c r="I23" s="41"/>
       <c r="J23" s="41"/>
       <c r="K23" s="41"/>
@@ -7491,31 +8532,31 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="96"/>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="74"/>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="75"/>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="76"/>
       <c r="B4" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="83"/>
       <c r="B5" s="82" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/Testing/Test Cases.xlsx
+++ b/Requirements/Testing/Test Cases.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caeta\Desktop\Documents\Proyectos\TimeAdministrator\TimeAdministrator\Requirements\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5E4713-9E1E-4A0E-AF7A-CB0FE71ACE96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C727092-BC4A-4D24-B47F-98E465C14CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20910" windowHeight="13740" tabRatio="696" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20910" windowHeight="13740" tabRatio="696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="6. Register New Workspace" sheetId="7" r:id="rId1"/>
-    <sheet name="8. Filter Labels" sheetId="3" r:id="rId2"/>
-    <sheet name="9. Remove Label" sheetId="1" r:id="rId3"/>
-    <sheet name="10. Modify Label" sheetId="2" r:id="rId4"/>
-    <sheet name="11. Import Csv" sheetId="6" r:id="rId5"/>
-    <sheet name="Others" sheetId="5" r:id="rId6"/>
-    <sheet name="Flags" sheetId="8" r:id="rId7"/>
+    <sheet name="5. Modify Time Register" sheetId="9" r:id="rId1"/>
+    <sheet name="6. Register New Workspace" sheetId="7" r:id="rId2"/>
+    <sheet name="8. Filter Labels" sheetId="3" r:id="rId3"/>
+    <sheet name="9. Remove Label" sheetId="1" r:id="rId4"/>
+    <sheet name="10. Modify Label" sheetId="2" r:id="rId5"/>
+    <sheet name="11. Import Csv" sheetId="6" r:id="rId6"/>
+    <sheet name="Others" sheetId="5" r:id="rId7"/>
+    <sheet name="Flags" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="272">
   <si>
     <t>Id</t>
   </si>
@@ -832,6 +833,21 @@
   </si>
   <si>
     <t>Can't be imported csv with less than 5 fields. The missing field must to be added from excel or from noteblock</t>
+  </si>
+  <si>
+    <t>Deselect a record from the main table</t>
+  </si>
+  <si>
+    <t>2. Data loaded</t>
+  </si>
+  <si>
+    <t>1. Select a random record from the main table</t>
+  </si>
+  <si>
+    <t>2. Press "ESC" key</t>
+  </si>
+  <si>
+    <t>1. The selected item is unselected</t>
   </si>
 </sst>
 </file>
@@ -1417,6 +1433,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1441,20 +1463,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1755,11 +1771,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852666D3-C5BC-4636-A5FB-DEAAE88879F7}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="10" width="32.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="13" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="80" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="128" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="128" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BB98C2-E7C8-4825-9740-CAB10EFBA8C5}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,7 +2343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188C4133-60F2-43BD-8422-230B8F1707EF}">
   <dimension ref="A1:L119"/>
   <sheetViews>
@@ -4156,7 +4324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
@@ -4752,7 +4920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8614EB4E-DBD6-4335-8AC7-592BA2F011D7}">
   <dimension ref="A1:N89"/>
   <sheetViews>
@@ -4825,28 +4993,28 @@
       <c r="A2" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="151" t="s">
         <v>140</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="149" t="s">
+      <c r="D2" s="151" t="s">
         <v>141</v>
       </c>
       <c r="E2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="152" t="s">
+      <c r="G2" s="154" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="149" t="s">
+      <c r="H2" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="149" t="s">
+      <c r="I2" s="151" t="s">
         <v>145</v>
       </c>
       <c r="J2" s="57" t="s">
@@ -4855,7 +5023,7 @@
       <c r="K2" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="L2" s="149"/>
+      <c r="L2" s="151"/>
       <c r="M2" s="145" t="s">
         <v>145</v>
       </c>
@@ -4863,19 +5031,19 @@
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
-      <c r="B3" s="150"/>
+      <c r="B3" s="152"/>
       <c r="C3" s="59"/>
-      <c r="D3" s="150"/>
+      <c r="D3" s="152"/>
       <c r="E3" s="60"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150" t="s">
+      <c r="F3" s="152"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152" t="s">
         <v>143</v>
       </c>
       <c r="K3" s="61"/>
-      <c r="L3" s="150"/>
+      <c r="L3" s="152"/>
       <c r="M3" s="146"/>
       <c r="N3" s="61"/>
     </row>
@@ -4883,7 +5051,7 @@
       <c r="A4" s="58"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
-      <c r="D4" s="150" t="s">
+      <c r="D4" s="152" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="60"/>
@@ -4893,9 +5061,9 @@
       <c r="G4" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="150"/>
+      <c r="H4" s="152"/>
       <c r="I4" s="59"/>
-      <c r="J4" s="150"/>
+      <c r="J4" s="152"/>
       <c r="K4" s="61"/>
       <c r="L4" s="63"/>
       <c r="M4" s="61"/>
@@ -4905,7 +5073,7 @@
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
-      <c r="D5" s="150"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="60"/>
       <c r="F5" s="62" t="s">
         <v>146</v>
@@ -4927,7 +5095,7 @@
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="60"/>
-      <c r="D6" s="150"/>
+      <c r="D6" s="152"/>
       <c r="E6" s="60"/>
       <c r="F6" s="59" t="s">
         <v>147</v>
@@ -4945,7 +5113,7 @@
       <c r="A7" s="58"/>
       <c r="B7" s="59"/>
       <c r="C7" s="60"/>
-      <c r="D7" s="150"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="60"/>
       <c r="F7" s="59" t="s">
         <v>148</v>
@@ -4963,11 +5131,11 @@
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="60"/>
-      <c r="D8" s="150"/>
+      <c r="D8" s="152"/>
       <c r="E8" s="60"/>
       <c r="F8" s="65"/>
       <c r="G8" s="60"/>
-      <c r="H8" s="154"/>
+      <c r="H8" s="156"/>
       <c r="I8" s="65"/>
       <c r="J8" s="60"/>
       <c r="K8" s="61"/>
@@ -4994,7 +5162,7 @@
       <c r="F9" s="126" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="157" t="s">
         <v>132</v>
       </c>
       <c r="H9" s="66" t="s">
@@ -5020,7 +5188,7 @@
       <c r="D10" s="127"/>
       <c r="E10" s="71"/>
       <c r="F10" s="127"/>
-      <c r="G10" s="156"/>
+      <c r="G10" s="158"/>
       <c r="H10" s="67" t="s">
         <v>123</v>
       </c>
@@ -5042,7 +5210,7 @@
       <c r="F11" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="156" t="s">
+      <c r="G11" s="158" t="s">
         <v>136</v>
       </c>
       <c r="H11" s="67" t="s">
@@ -5070,12 +5238,12 @@
       <c r="F12" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="156"/>
+      <c r="G12" s="158"/>
       <c r="H12" s="127" t="s">
         <v>133</v>
       </c>
       <c r="I12" s="67"/>
-      <c r="J12" s="157" t="s">
+      <c r="J12" s="161" t="s">
         <v>133</v>
       </c>
       <c r="K12" s="71"/>
@@ -5095,7 +5263,7 @@
       <c r="G13" s="72"/>
       <c r="H13" s="127"/>
       <c r="I13" s="67"/>
-      <c r="J13" s="157"/>
+      <c r="J13" s="161"/>
       <c r="K13" s="71"/>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
@@ -5115,7 +5283,7 @@
       <c r="G14" s="72"/>
       <c r="H14" s="127"/>
       <c r="I14" s="67"/>
-      <c r="J14" s="157"/>
+      <c r="J14" s="161"/>
       <c r="K14" s="71"/>
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
@@ -5149,7 +5317,7 @@
       <c r="C16" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="D16" s="149" t="s">
+      <c r="D16" s="151" t="s">
         <v>182</v>
       </c>
       <c r="E16" s="92" t="s">
@@ -5181,10 +5349,10 @@
       <c r="A17" s="79"/>
       <c r="B17" s="146"/>
       <c r="C17" s="61"/>
-      <c r="D17" s="150"/>
+      <c r="D17" s="152"/>
       <c r="E17" s="60"/>
       <c r="F17" s="163"/>
-      <c r="G17" s="150" t="s">
+      <c r="G17" s="152" t="s">
         <v>136</v>
       </c>
       <c r="H17" s="78" t="s">
@@ -5210,7 +5378,7 @@
       <c r="F18" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="150"/>
+      <c r="G18" s="152"/>
       <c r="H18" s="78" t="s">
         <v>124</v>
       </c>
@@ -5309,7 +5477,7 @@
       <c r="E23" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="158" t="s">
+      <c r="F23" s="159" t="s">
         <v>149</v>
       </c>
       <c r="G23" s="128" t="s">
@@ -5333,7 +5501,7 @@
       <c r="C24" s="36"/>
       <c r="D24" s="127"/>
       <c r="E24" s="107"/>
-      <c r="F24" s="159"/>
+      <c r="F24" s="160"/>
       <c r="G24" s="129"/>
       <c r="H24" s="85" t="s">
         <v>123</v>
@@ -5409,7 +5577,7 @@
       <c r="A28" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="160" t="s">
+      <c r="B28" s="149" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="32" t="s">
@@ -5424,7 +5592,7 @@
       <c r="F28" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="G28" s="160" t="s">
+      <c r="G28" s="149" t="s">
         <v>197</v>
       </c>
       <c r="H28" s="84" t="s">
@@ -5439,14 +5607,14 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="87"/>
-      <c r="B29" s="161"/>
+      <c r="B29" s="150"/>
       <c r="C29" s="36"/>
       <c r="D29" s="127"/>
       <c r="E29" s="40"/>
       <c r="F29" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="G29" s="161"/>
+      <c r="G29" s="150"/>
       <c r="H29" s="85" t="s">
         <v>123</v>
       </c>
@@ -5705,7 +5873,7 @@
       <c r="C41" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="149" t="s">
+      <c r="D41" s="151" t="s">
         <v>101</v>
       </c>
       <c r="E41" s="92" t="s">
@@ -5717,7 +5885,7 @@
       <c r="G41" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="149" t="s">
+      <c r="H41" s="151" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="91"/>
@@ -5733,13 +5901,13 @@
       <c r="A42" s="102"/>
       <c r="B42" s="165"/>
       <c r="C42" s="61"/>
-      <c r="D42" s="150"/>
+      <c r="D42" s="152"/>
       <c r="E42" s="60"/>
       <c r="F42" s="95" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="61"/>
-      <c r="H42" s="150"/>
+      <c r="H42" s="152"/>
       <c r="I42" s="61"/>
       <c r="J42" s="63"/>
       <c r="K42" s="63"/>
@@ -5751,13 +5919,13 @@
       <c r="A43" s="102"/>
       <c r="B43" s="165"/>
       <c r="C43" s="61"/>
-      <c r="D43" s="150"/>
+      <c r="D43" s="152"/>
       <c r="E43" s="60"/>
       <c r="F43" s="95" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="61"/>
-      <c r="H43" s="150"/>
+      <c r="H43" s="152"/>
       <c r="I43" s="61"/>
       <c r="J43" s="63"/>
       <c r="K43" s="63"/>
@@ -6102,7 +6270,7 @@
       <c r="F60" s="126" t="s">
         <v>149</v>
       </c>
-      <c r="G60" s="155" t="s">
+      <c r="G60" s="157" t="s">
         <v>132</v>
       </c>
       <c r="H60" s="97" t="s">
@@ -6126,7 +6294,7 @@
       <c r="D61" s="129"/>
       <c r="E61" s="129"/>
       <c r="F61" s="127"/>
-      <c r="G61" s="156"/>
+      <c r="G61" s="158"/>
       <c r="H61" s="98" t="s">
         <v>123</v>
       </c>
@@ -6150,7 +6318,7 @@
       <c r="F62" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="G62" s="156" t="s">
+      <c r="G62" s="158" t="s">
         <v>136</v>
       </c>
       <c r="H62" s="98" t="s">
@@ -6174,7 +6342,7 @@
       <c r="F63" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="G63" s="156"/>
+      <c r="G63" s="158"/>
       <c r="H63" s="127" t="s">
         <v>198</v>
       </c>
@@ -6215,9 +6383,9 @@
         <v>148</v>
       </c>
       <c r="G65" s="43"/>
-      <c r="H65" s="151"/>
+      <c r="H65" s="153"/>
       <c r="I65" s="41"/>
-      <c r="J65" s="151"/>
+      <c r="J65" s="153"/>
       <c r="K65" s="41"/>
       <c r="L65" s="42"/>
       <c r="M65" s="41"/>
@@ -6883,11 +7051,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05760916-9E37-49D1-B48B-D94D47CC4A32}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
@@ -6979,7 +7147,7 @@
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
-      <c r="L2" s="160"/>
+      <c r="L2" s="149"/>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -7000,7 +7168,7 @@
       </c>
       <c r="J3" s="36"/>
       <c r="K3" s="36"/>
-      <c r="L3" s="161"/>
+      <c r="L3" s="150"/>
       <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -8051,7 +8219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B04E03A-7463-4C8E-ADAF-9D8D097F56C8}">
   <dimension ref="A1:L23"/>
   <sheetViews>
@@ -8516,7 +8684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A698848C-6CA0-46C2-AD66-73B70DBE28FC}">
   <dimension ref="A1:B5"/>
   <sheetViews>
